--- a/docs/scorecards/Scorecard_datacenter.xlsx
+++ b/docs/scorecards/Scorecard_datacenter.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12840" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="10" r:id="rId1"/>
@@ -2034,7 +2034,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="324">
+  <cellXfs count="323">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2461,12 +2461,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2479,8 +2474,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2496,6 +2489,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2505,6 +2582,231 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2535,33 +2837,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2622,300 +2900,15 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2961,6 +2954,12 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4204,11 +4203,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="518558664"/>
-        <c:axId val="518556312"/>
+        <c:axId val="774301816"/>
+        <c:axId val="774302208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="518558664"/>
+        <c:axId val="774301816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4251,7 +4250,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518556312"/>
+        <c:crossAx val="774302208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4259,7 +4258,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="518556312"/>
+        <c:axId val="774302208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4366,7 +4365,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518558664"/>
+        <c:crossAx val="774301816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5518,44 +5517,44 @@
       <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="199"/>
-      <c r="B3" s="202" t="s">
+      <c r="A3" s="287"/>
+      <c r="B3" s="290" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="203"/>
-      <c r="D3" s="202" t="s">
+      <c r="C3" s="291"/>
+      <c r="D3" s="290" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="208"/>
-      <c r="F3" s="203"/>
-      <c r="G3" s="172" t="s">
+      <c r="E3" s="296"/>
+      <c r="F3" s="291"/>
+      <c r="G3" s="268" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="200"/>
-      <c r="B4" s="204"/>
-      <c r="C4" s="205"/>
-      <c r="D4" s="204"/>
-      <c r="E4" s="209"/>
-      <c r="F4" s="205"/>
-      <c r="G4" s="173"/>
+      <c r="A4" s="288"/>
+      <c r="B4" s="292"/>
+      <c r="C4" s="293"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="297"/>
+      <c r="F4" s="293"/>
+      <c r="G4" s="269"/>
     </row>
     <row r="5" spans="1:10" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="201"/>
-      <c r="B5" s="206"/>
-      <c r="C5" s="207"/>
-      <c r="D5" s="206"/>
-      <c r="E5" s="210"/>
-      <c r="F5" s="207"/>
-      <c r="G5" s="174"/>
+      <c r="A5" s="289"/>
+      <c r="B5" s="294"/>
+      <c r="C5" s="295"/>
+      <c r="D5" s="294"/>
+      <c r="E5" s="298"/>
+      <c r="F5" s="295"/>
+      <c r="G5" s="270"/>
     </row>
     <row r="6" spans="1:10" s="16" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="175" t="s">
+      <c r="A6" s="271" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="176"/>
-      <c r="C6" s="176"/>
+      <c r="B6" s="272"/>
+      <c r="C6" s="272"/>
       <c r="D6" s="117"/>
       <c r="E6" s="117"/>
       <c r="F6" s="117"/>
@@ -5563,73 +5562,73 @@
     </row>
     <row r="7" spans="1:10" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="119"/>
-      <c r="B7" s="177" t="s">
+      <c r="B7" s="273" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="178"/>
-      <c r="D7" s="179" t="s">
+      <c r="C7" s="274"/>
+      <c r="D7" s="275" t="s">
         <v>196</v>
       </c>
-      <c r="E7" s="180"/>
-      <c r="F7" s="181"/>
+      <c r="E7" s="276"/>
+      <c r="F7" s="277"/>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="108"/>
-      <c r="B8" s="186" t="s">
+      <c r="B8" s="278" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="187"/>
-      <c r="D8" s="169" t="s">
+      <c r="C8" s="267"/>
+      <c r="D8" s="190" t="s">
         <v>184</v>
       </c>
-      <c r="E8" s="170"/>
-      <c r="F8" s="171"/>
+      <c r="E8" s="191"/>
+      <c r="F8" s="192"/>
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="108"/>
-      <c r="B9" s="188" t="s">
+      <c r="B9" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="189"/>
-      <c r="D9" s="184" t="s">
+      <c r="C9" s="183"/>
+      <c r="D9" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="185"/>
-      <c r="F9" s="190"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="170"/>
       <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
-      <c r="B10" s="188" t="s">
+      <c r="B10" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="189"/>
-      <c r="D10" s="191" t="s">
+      <c r="C10" s="183"/>
+      <c r="D10" s="279" t="s">
         <v>179</v>
       </c>
-      <c r="E10" s="192"/>
-      <c r="F10" s="193"/>
+      <c r="E10" s="280"/>
+      <c r="F10" s="281"/>
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:10" ht="30.6" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
-      <c r="B11" s="194" t="s">
+      <c r="B11" s="282" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="195"/>
-      <c r="D11" s="196"/>
-      <c r="E11" s="197"/>
-      <c r="F11" s="198"/>
+      <c r="C11" s="283"/>
+      <c r="D11" s="284"/>
+      <c r="E11" s="285"/>
+      <c r="F11" s="286"/>
       <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:10" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="211" t="s">
+      <c r="A12" s="188" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="212"/>
-      <c r="C12" s="212"/>
+      <c r="B12" s="189"/>
+      <c r="C12" s="189"/>
       <c r="D12" s="70"/>
       <c r="E12" s="70"/>
       <c r="F12" s="70"/>
@@ -5637,15 +5636,15 @@
     </row>
     <row r="13" spans="1:10" s="17" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="213" t="s">
+      <c r="B13" s="299" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="214"/>
-      <c r="D13" s="215">
+      <c r="C13" s="300"/>
+      <c r="D13" s="262">
         <v>600</v>
       </c>
-      <c r="E13" s="216"/>
-      <c r="F13" s="217"/>
+      <c r="E13" s="184"/>
+      <c r="F13" s="185"/>
       <c r="G13" s="81" t="s">
         <v>138</v>
       </c>
@@ -5653,158 +5652,158 @@
     </row>
     <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="258" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="219"/>
-      <c r="D14" s="215" t="s">
+      <c r="C14" s="259"/>
+      <c r="D14" s="262" t="s">
         <v>216</v>
       </c>
-      <c r="E14" s="216"/>
-      <c r="F14" s="217"/>
+      <c r="E14" s="184"/>
+      <c r="F14" s="185"/>
       <c r="G14" s="107"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="108"/>
-      <c r="B15" s="218" t="s">
+      <c r="B15" s="258" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="219"/>
-      <c r="D15" s="220">
+      <c r="C15" s="259"/>
+      <c r="D15" s="301">
         <v>4.2361111111111106E-2</v>
       </c>
-      <c r="E15" s="221"/>
-      <c r="F15" s="222"/>
+      <c r="E15" s="215"/>
+      <c r="F15" s="216"/>
       <c r="G15" s="107"/>
     </row>
     <row r="16" spans="1:10" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="106"/>
-      <c r="B16" s="218" t="s">
+      <c r="B16" s="258" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="219"/>
-      <c r="D16" s="215">
+      <c r="C16" s="259"/>
+      <c r="D16" s="262">
         <v>1</v>
       </c>
-      <c r="E16" s="216"/>
-      <c r="F16" s="217"/>
+      <c r="E16" s="184"/>
+      <c r="F16" s="185"/>
       <c r="G16" s="107"/>
     </row>
     <row r="17" spans="1:7" s="17" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="106"/>
-      <c r="B17" s="218" t="s">
+      <c r="B17" s="258" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="219"/>
-      <c r="D17" s="223" t="s">
+      <c r="C17" s="259"/>
+      <c r="D17" s="263" t="s">
         <v>129</v>
       </c>
-      <c r="E17" s="224"/>
-      <c r="F17" s="225"/>
+      <c r="E17" s="264"/>
+      <c r="F17" s="265"/>
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="108"/>
-      <c r="B18" s="226" t="s">
+      <c r="B18" s="266" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="187"/>
-      <c r="D18" s="169"/>
-      <c r="E18" s="170"/>
-      <c r="F18" s="171"/>
-      <c r="G18" s="227"/>
+      <c r="C18" s="267"/>
+      <c r="D18" s="190"/>
+      <c r="E18" s="191"/>
+      <c r="F18" s="192"/>
+      <c r="G18" s="178"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="108"/>
-      <c r="B19" s="218" t="s">
+      <c r="B19" s="258" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="219"/>
-      <c r="D19" s="215" t="s">
+      <c r="C19" s="259"/>
+      <c r="D19" s="262" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="216"/>
-      <c r="F19" s="217"/>
-      <c r="G19" s="228"/>
+      <c r="E19" s="184"/>
+      <c r="F19" s="185"/>
+      <c r="G19" s="180"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="108"/>
-      <c r="B20" s="218" t="s">
+      <c r="B20" s="258" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="219"/>
-      <c r="D20" s="237" t="s">
+      <c r="C20" s="259"/>
+      <c r="D20" s="214" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="221"/>
-      <c r="F20" s="222"/>
+      <c r="E20" s="215"/>
+      <c r="F20" s="216"/>
       <c r="G20" s="107"/>
     </row>
     <row r="21" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A21" s="108"/>
-      <c r="B21" s="238" t="s">
+      <c r="B21" s="260" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="239"/>
-      <c r="D21" s="237" t="s">
+      <c r="C21" s="261"/>
+      <c r="D21" s="214" t="s">
         <v>136</v>
       </c>
-      <c r="E21" s="221"/>
-      <c r="F21" s="222"/>
+      <c r="E21" s="215"/>
+      <c r="F21" s="216"/>
       <c r="G21" s="123" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A22" s="126"/>
-      <c r="B22" s="188" t="s">
+      <c r="B22" s="182" t="s">
         <v>182</v>
       </c>
-      <c r="C22" s="189"/>
-      <c r="D22" s="229" t="s">
+      <c r="C22" s="183"/>
+      <c r="D22" s="252" t="s">
         <v>218</v>
       </c>
-      <c r="E22" s="230"/>
-      <c r="F22" s="231"/>
+      <c r="E22" s="253"/>
+      <c r="F22" s="254"/>
       <c r="G22" s="18" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
-      <c r="B23" s="188" t="s">
+      <c r="B23" s="182" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="189"/>
-      <c r="D23" s="184">
+      <c r="C23" s="183"/>
+      <c r="D23" s="168">
         <v>14</v>
       </c>
-      <c r="E23" s="185"/>
-      <c r="F23" s="190"/>
+      <c r="E23" s="169"/>
+      <c r="F23" s="170"/>
       <c r="G23" s="18" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
-      <c r="B24" s="232" t="s">
+      <c r="B24" s="186" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="233"/>
-      <c r="D24" s="234" t="s">
+      <c r="C24" s="187"/>
+      <c r="D24" s="255" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="235"/>
-      <c r="F24" s="236"/>
+      <c r="E24" s="256"/>
+      <c r="F24" s="257"/>
       <c r="G24" s="18"/>
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="242" t="s">
+      <c r="A25" s="212" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="243"/>
-      <c r="C25" s="243"/>
+      <c r="B25" s="213"/>
+      <c r="C25" s="213"/>
       <c r="D25" s="71"/>
       <c r="E25" s="71"/>
       <c r="F25" s="71"/>
@@ -5812,10 +5811,10 @@
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="20"/>
-      <c r="B26" s="244" t="s">
+      <c r="B26" s="250" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="245"/>
+      <c r="C26" s="251"/>
       <c r="D26" s="72"/>
       <c r="E26" s="72"/>
       <c r="F26" s="72"/>
@@ -5823,64 +5822,64 @@
     </row>
     <row r="27" spans="1:7" s="17" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="106"/>
-      <c r="B27" s="188" t="s">
+      <c r="B27" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="189"/>
-      <c r="D27" s="184" t="s">
+      <c r="C27" s="183"/>
+      <c r="D27" s="168" t="s">
         <v>174</v>
       </c>
-      <c r="E27" s="185"/>
-      <c r="F27" s="190"/>
+      <c r="E27" s="169"/>
+      <c r="F27" s="170"/>
       <c r="G27" s="8" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="17" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="106"/>
-      <c r="B28" s="188" t="s">
+      <c r="B28" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="189"/>
-      <c r="D28" s="184" t="s">
+      <c r="C28" s="183"/>
+      <c r="D28" s="168" t="s">
         <v>174</v>
       </c>
-      <c r="E28" s="185"/>
-      <c r="F28" s="190"/>
+      <c r="E28" s="169"/>
+      <c r="F28" s="170"/>
       <c r="G28" s="23"/>
     </row>
     <row r="29" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="108"/>
-      <c r="B29" s="188" t="s">
+      <c r="B29" s="182" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="189"/>
-      <c r="D29" s="184" t="s">
+      <c r="C29" s="183"/>
+      <c r="D29" s="168" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="185"/>
-      <c r="F29" s="190"/>
+      <c r="E29" s="169"/>
+      <c r="F29" s="170"/>
       <c r="G29" s="8"/>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="108"/>
-      <c r="B30" s="188" t="s">
+      <c r="B30" s="182" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="189"/>
-      <c r="D30" s="184" t="s">
+      <c r="C30" s="183"/>
+      <c r="D30" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="185"/>
-      <c r="F30" s="190"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="170"/>
       <c r="G30" s="8"/>
     </row>
     <row r="31" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="108"/>
-      <c r="B31" s="240" t="s">
+      <c r="B31" s="222" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="241"/>
+      <c r="C31" s="223"/>
       <c r="D31" s="73"/>
       <c r="E31" s="73"/>
       <c r="F31" s="73"/>
@@ -5888,64 +5887,64 @@
     </row>
     <row r="32" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="108"/>
-      <c r="B32" s="188" t="s">
+      <c r="B32" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="189"/>
-      <c r="D32" s="184" t="s">
+      <c r="C32" s="183"/>
+      <c r="D32" s="168" t="s">
         <v>174</v>
       </c>
-      <c r="E32" s="185"/>
-      <c r="F32" s="190"/>
+      <c r="E32" s="169"/>
+      <c r="F32" s="170"/>
       <c r="G32" s="8" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="17" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="106"/>
-      <c r="B33" s="188" t="s">
+      <c r="B33" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="189"/>
-      <c r="D33" s="184" t="s">
+      <c r="C33" s="183"/>
+      <c r="D33" s="168" t="s">
         <v>174</v>
       </c>
-      <c r="E33" s="185"/>
-      <c r="F33" s="190"/>
+      <c r="E33" s="169"/>
+      <c r="F33" s="170"/>
       <c r="G33" s="23"/>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="108"/>
-      <c r="B34" s="188" t="s">
+      <c r="B34" s="182" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="189"/>
-      <c r="D34" s="184" t="s">
+      <c r="C34" s="183"/>
+      <c r="D34" s="168" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="185"/>
-      <c r="F34" s="190"/>
+      <c r="E34" s="169"/>
+      <c r="F34" s="170"/>
       <c r="G34" s="8"/>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="108"/>
-      <c r="B35" s="188" t="s">
+      <c r="B35" s="182" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="189"/>
-      <c r="D35" s="184" t="s">
+      <c r="C35" s="183"/>
+      <c r="D35" s="168" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="185"/>
-      <c r="F35" s="190"/>
+      <c r="E35" s="169"/>
+      <c r="F35" s="170"/>
       <c r="G35" s="8"/>
     </row>
     <row r="36" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="108"/>
-      <c r="B36" s="240" t="s">
+      <c r="B36" s="222" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="241"/>
+      <c r="C36" s="223"/>
       <c r="D36" s="73"/>
       <c r="E36" s="73"/>
       <c r="F36" s="73"/>
@@ -5953,70 +5952,70 @@
     </row>
     <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="108"/>
-      <c r="B37" s="188" t="s">
+      <c r="B37" s="182" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="189"/>
-      <c r="D37" s="184" t="s">
+      <c r="C37" s="183"/>
+      <c r="D37" s="168" t="s">
         <v>129</v>
       </c>
-      <c r="E37" s="185"/>
-      <c r="F37" s="190"/>
+      <c r="E37" s="169"/>
+      <c r="F37" s="170"/>
       <c r="G37" s="26"/>
     </row>
     <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="108"/>
-      <c r="B38" s="188" t="s">
+      <c r="B38" s="182" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="189"/>
-      <c r="D38" s="237"/>
-      <c r="E38" s="221"/>
-      <c r="F38" s="222"/>
+      <c r="C38" s="183"/>
+      <c r="D38" s="214"/>
+      <c r="E38" s="215"/>
+      <c r="F38" s="216"/>
       <c r="G38" s="27"/>
     </row>
     <row r="39" spans="1:7" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="106"/>
-      <c r="B39" s="188" t="s">
+      <c r="B39" s="182" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="189"/>
-      <c r="D39" s="246"/>
-      <c r="E39" s="247"/>
-      <c r="F39" s="248"/>
-      <c r="G39" s="252"/>
+      <c r="C39" s="183"/>
+      <c r="D39" s="244"/>
+      <c r="E39" s="245"/>
+      <c r="F39" s="246"/>
+      <c r="G39" s="238"/>
     </row>
     <row r="40" spans="1:7" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="106"/>
-      <c r="B40" s="188" t="s">
+      <c r="B40" s="182" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="189"/>
-      <c r="D40" s="249"/>
-      <c r="E40" s="250"/>
-      <c r="F40" s="251"/>
-      <c r="G40" s="254"/>
+      <c r="C40" s="183"/>
+      <c r="D40" s="247"/>
+      <c r="E40" s="248"/>
+      <c r="F40" s="249"/>
+      <c r="G40" s="240"/>
     </row>
     <row r="41" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="108"/>
-      <c r="B41" s="188" t="s">
+      <c r="B41" s="182" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="189"/>
-      <c r="D41" s="255"/>
-      <c r="E41" s="256"/>
-      <c r="F41" s="257"/>
+      <c r="C41" s="183"/>
+      <c r="D41" s="226"/>
+      <c r="E41" s="241"/>
+      <c r="F41" s="242"/>
       <c r="G41" s="8"/>
     </row>
     <row r="42" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="108"/>
-      <c r="B42" s="188" t="s">
+      <c r="B42" s="182" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="189"/>
-      <c r="D42" s="258"/>
-      <c r="E42" s="185"/>
-      <c r="F42" s="190"/>
+      <c r="C42" s="183"/>
+      <c r="D42" s="243"/>
+      <c r="E42" s="169"/>
+      <c r="F42" s="170"/>
       <c r="G42" s="27"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -6032,62 +6031,62 @@
     </row>
     <row r="44" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="108"/>
-      <c r="B44" s="188" t="s">
+      <c r="B44" s="182" t="s">
         <v>31</v>
       </c>
-      <c r="C44" s="189"/>
-      <c r="D44" s="255" t="s">
+      <c r="C44" s="183"/>
+      <c r="D44" s="226" t="s">
         <v>177</v>
       </c>
-      <c r="E44" s="259"/>
-      <c r="F44" s="260"/>
+      <c r="E44" s="227"/>
+      <c r="F44" s="228"/>
       <c r="G44" s="30"/>
     </row>
     <row r="45" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="108"/>
-      <c r="B45" s="188" t="s">
+      <c r="B45" s="182" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="189"/>
-      <c r="D45" s="261" t="s">
+      <c r="C45" s="183"/>
+      <c r="D45" s="229" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="262"/>
-      <c r="F45" s="263"/>
-      <c r="G45" s="252"/>
+      <c r="E45" s="230"/>
+      <c r="F45" s="231"/>
+      <c r="G45" s="238"/>
     </row>
     <row r="46" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="108"/>
-      <c r="B46" s="188" t="s">
+      <c r="B46" s="182" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="189"/>
-      <c r="D46" s="264"/>
-      <c r="E46" s="265"/>
-      <c r="F46" s="266"/>
-      <c r="G46" s="253"/>
+      <c r="C46" s="183"/>
+      <c r="D46" s="232"/>
+      <c r="E46" s="233"/>
+      <c r="F46" s="234"/>
+      <c r="G46" s="239"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="108"/>
-      <c r="B47" s="188" t="s">
+      <c r="B47" s="182" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="189"/>
-      <c r="D47" s="264"/>
-      <c r="E47" s="265"/>
-      <c r="F47" s="266"/>
-      <c r="G47" s="253"/>
+      <c r="C47" s="183"/>
+      <c r="D47" s="232"/>
+      <c r="E47" s="233"/>
+      <c r="F47" s="234"/>
+      <c r="G47" s="239"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="108"/>
-      <c r="B48" s="188" t="s">
+      <c r="B48" s="182" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="189"/>
-      <c r="D48" s="267"/>
-      <c r="E48" s="268"/>
-      <c r="F48" s="269"/>
-      <c r="G48" s="254"/>
+      <c r="C48" s="183"/>
+      <c r="D48" s="235"/>
+      <c r="E48" s="236"/>
+      <c r="F48" s="237"/>
+      <c r="G48" s="240"/>
     </row>
     <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="108"/>
@@ -6102,77 +6101,77 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="108"/>
-      <c r="B50" s="188" t="s">
+      <c r="B50" s="182" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="189"/>
-      <c r="D50" s="184" t="s">
+      <c r="C50" s="183"/>
+      <c r="D50" s="168" t="s">
         <v>131</v>
       </c>
-      <c r="E50" s="185"/>
-      <c r="F50" s="190"/>
+      <c r="E50" s="169"/>
+      <c r="F50" s="170"/>
       <c r="G50" s="8"/>
     </row>
     <row r="51" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="108"/>
-      <c r="B51" s="188" t="s">
+      <c r="B51" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="189"/>
-      <c r="D51" s="184" t="s">
+      <c r="C51" s="183"/>
+      <c r="D51" s="168" t="s">
         <v>174</v>
       </c>
-      <c r="E51" s="185"/>
-      <c r="F51" s="190"/>
+      <c r="E51" s="169"/>
+      <c r="F51" s="170"/>
       <c r="G51" s="8"/>
     </row>
     <row r="52" spans="1:7" s="17" customFormat="1" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="106"/>
-      <c r="B52" s="188" t="s">
+      <c r="B52" s="182" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="189"/>
-      <c r="D52" s="184" t="s">
+      <c r="C52" s="183"/>
+      <c r="D52" s="168" t="s">
         <v>174</v>
       </c>
-      <c r="E52" s="185"/>
-      <c r="F52" s="190"/>
+      <c r="E52" s="169"/>
+      <c r="F52" s="170"/>
       <c r="G52" s="8" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="108"/>
-      <c r="B53" s="188" t="s">
+      <c r="B53" s="182" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="189"/>
-      <c r="D53" s="184" t="s">
+      <c r="C53" s="183"/>
+      <c r="D53" s="168" t="s">
         <v>51</v>
       </c>
-      <c r="E53" s="185"/>
-      <c r="F53" s="190"/>
+      <c r="E53" s="169"/>
+      <c r="F53" s="170"/>
       <c r="G53" s="27"/>
     </row>
     <row r="54" spans="1:7" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="108"/>
-      <c r="B54" s="188" t="s">
+      <c r="B54" s="182" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="189"/>
-      <c r="D54" s="184" t="s">
+      <c r="C54" s="183"/>
+      <c r="D54" s="168" t="s">
         <v>37</v>
       </c>
-      <c r="E54" s="185"/>
-      <c r="F54" s="190"/>
+      <c r="E54" s="169"/>
+      <c r="F54" s="170"/>
       <c r="G54" s="27"/>
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="108"/>
-      <c r="B55" s="240" t="s">
+      <c r="B55" s="222" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="241"/>
+      <c r="C55" s="223"/>
       <c r="D55" s="73"/>
       <c r="E55" s="73"/>
       <c r="F55" s="73"/>
@@ -6180,49 +6179,49 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="108"/>
-      <c r="B56" s="188" t="s">
+      <c r="B56" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="189"/>
-      <c r="D56" s="184" t="s">
+      <c r="C56" s="183"/>
+      <c r="D56" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="185"/>
-      <c r="F56" s="190"/>
+      <c r="E56" s="169"/>
+      <c r="F56" s="170"/>
       <c r="G56" s="27"/>
     </row>
     <row r="57" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="108"/>
-      <c r="B57" s="188" t="s">
+      <c r="B57" s="182" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="189"/>
-      <c r="D57" s="184" t="s">
+      <c r="C57" s="183"/>
+      <c r="D57" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="E57" s="185"/>
-      <c r="F57" s="190"/>
+      <c r="E57" s="169"/>
+      <c r="F57" s="170"/>
       <c r="G57" s="27"/>
     </row>
     <row r="58" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="108"/>
-      <c r="B58" s="270" t="s">
+      <c r="B58" s="217" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="271"/>
-      <c r="D58" s="272" t="s">
+      <c r="C58" s="218"/>
+      <c r="D58" s="219" t="s">
         <v>19</v>
       </c>
-      <c r="E58" s="273"/>
-      <c r="F58" s="274"/>
+      <c r="E58" s="220"/>
+      <c r="F58" s="221"/>
       <c r="G58" s="27"/>
     </row>
     <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="108"/>
-      <c r="B59" s="240" t="s">
+      <c r="B59" s="222" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="241"/>
+      <c r="C59" s="223"/>
       <c r="D59" s="73"/>
       <c r="E59" s="73"/>
       <c r="F59" s="73"/>
@@ -6230,25 +6229,25 @@
     </row>
     <row r="60" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="31"/>
-      <c r="B60" s="275" t="s">
+      <c r="B60" s="224" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="276"/>
-      <c r="D60" s="277">
+      <c r="C60" s="225"/>
+      <c r="D60" s="173">
         <v>0</v>
       </c>
-      <c r="E60" s="278"/>
-      <c r="F60" s="279"/>
+      <c r="E60" s="174"/>
+      <c r="F60" s="175"/>
       <c r="G60" s="32" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="242" t="s">
+      <c r="A61" s="212" t="s">
         <v>58</v>
       </c>
-      <c r="B61" s="243"/>
-      <c r="C61" s="243"/>
+      <c r="B61" s="213"/>
+      <c r="C61" s="213"/>
       <c r="D61" s="74"/>
       <c r="E61" s="74"/>
       <c r="F61" s="74"/>
@@ -6267,43 +6266,43 @@
     </row>
     <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="106"/>
-      <c r="B63" s="188" t="s">
+      <c r="B63" s="182" t="s">
         <v>60</v>
       </c>
-      <c r="C63" s="189"/>
-      <c r="D63" s="184" t="s">
+      <c r="C63" s="183"/>
+      <c r="D63" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="185"/>
-      <c r="F63" s="190"/>
+      <c r="E63" s="169"/>
+      <c r="F63" s="170"/>
       <c r="G63" s="88"/>
     </row>
     <row r="64" spans="1:7" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="106"/>
-      <c r="B64" s="188" t="s">
+      <c r="B64" s="182" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="189"/>
-      <c r="D64" s="184" t="s">
+      <c r="C64" s="183"/>
+      <c r="D64" s="168" t="s">
         <v>261</v>
       </c>
-      <c r="E64" s="185"/>
-      <c r="F64" s="190"/>
+      <c r="E64" s="169"/>
+      <c r="F64" s="170"/>
       <c r="G64" s="111" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="106"/>
-      <c r="B65" s="188" t="s">
+      <c r="B65" s="182" t="s">
         <v>62</v>
       </c>
-      <c r="C65" s="189"/>
-      <c r="D65" s="237" t="s">
+      <c r="C65" s="183"/>
+      <c r="D65" s="214" t="s">
         <v>260</v>
       </c>
-      <c r="E65" s="221"/>
-      <c r="F65" s="222"/>
+      <c r="E65" s="215"/>
+      <c r="F65" s="216"/>
       <c r="G65" s="98"/>
     </row>
     <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6319,28 +6318,28 @@
     </row>
     <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="106"/>
-      <c r="B67" s="188" t="s">
+      <c r="B67" s="182" t="s">
         <v>64</v>
       </c>
-      <c r="C67" s="189"/>
-      <c r="D67" s="184" t="s">
+      <c r="C67" s="183"/>
+      <c r="D67" s="168" t="s">
         <v>65</v>
       </c>
-      <c r="E67" s="185"/>
-      <c r="F67" s="190"/>
+      <c r="E67" s="169"/>
+      <c r="F67" s="170"/>
       <c r="G67" s="27"/>
     </row>
     <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="106"/>
-      <c r="B68" s="188" t="s">
+      <c r="B68" s="182" t="s">
         <v>66</v>
       </c>
-      <c r="C68" s="189"/>
-      <c r="D68" s="184" t="s">
+      <c r="C68" s="183"/>
+      <c r="D68" s="168" t="s">
         <v>65</v>
       </c>
-      <c r="E68" s="185"/>
-      <c r="F68" s="190"/>
+      <c r="E68" s="169"/>
+      <c r="F68" s="170"/>
       <c r="G68" s="27"/>
     </row>
     <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6356,30 +6355,30 @@
     </row>
     <row r="70" spans="1:7" s="17" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A70" s="106"/>
-      <c r="B70" s="188" t="s">
+      <c r="B70" s="182" t="s">
         <v>64</v>
       </c>
-      <c r="C70" s="189"/>
-      <c r="D70" s="184" t="s">
+      <c r="C70" s="183"/>
+      <c r="D70" s="168" t="s">
         <v>209</v>
       </c>
-      <c r="E70" s="185"/>
-      <c r="F70" s="190"/>
+      <c r="E70" s="169"/>
+      <c r="F70" s="170"/>
       <c r="G70" s="37" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="106"/>
-      <c r="B71" s="188" t="s">
+      <c r="B71" s="182" t="s">
         <v>66</v>
       </c>
-      <c r="C71" s="189"/>
-      <c r="D71" s="184" t="s">
+      <c r="C71" s="183"/>
+      <c r="D71" s="168" t="s">
         <v>122</v>
       </c>
-      <c r="E71" s="185"/>
-      <c r="F71" s="190"/>
+      <c r="E71" s="169"/>
+      <c r="F71" s="170"/>
       <c r="G71" s="37" t="s">
         <v>30</v>
       </c>
@@ -6397,157 +6396,157 @@
     </row>
     <row r="73" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="106"/>
-      <c r="B73" s="188" t="s">
+      <c r="B73" s="182" t="s">
         <v>69</v>
       </c>
-      <c r="C73" s="189"/>
-      <c r="D73" s="184" t="s">
+      <c r="C73" s="183"/>
+      <c r="D73" s="168" t="s">
         <v>196</v>
       </c>
-      <c r="E73" s="185"/>
-      <c r="F73" s="190"/>
+      <c r="E73" s="169"/>
+      <c r="F73" s="170"/>
       <c r="G73" s="92" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="106"/>
-      <c r="B74" s="188" t="s">
+      <c r="B74" s="182" t="s">
         <v>70</v>
       </c>
-      <c r="C74" s="189"/>
-      <c r="D74" s="184" t="s">
+      <c r="C74" s="183"/>
+      <c r="D74" s="168" t="s">
         <v>122</v>
       </c>
-      <c r="E74" s="185"/>
-      <c r="F74" s="190"/>
+      <c r="E74" s="169"/>
+      <c r="F74" s="170"/>
       <c r="G74" s="95"/>
     </row>
     <row r="75" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="106"/>
-      <c r="B75" s="188" t="s">
+      <c r="B75" s="182" t="s">
         <v>71</v>
       </c>
-      <c r="C75" s="189"/>
-      <c r="D75" s="184" t="s">
+      <c r="C75" s="183"/>
+      <c r="D75" s="168" t="s">
         <v>155</v>
       </c>
-      <c r="E75" s="185"/>
-      <c r="F75" s="190"/>
-      <c r="G75" s="227" t="s">
+      <c r="E75" s="169"/>
+      <c r="F75" s="170"/>
+      <c r="G75" s="178" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="106"/>
-      <c r="B76" s="188" t="s">
+      <c r="B76" s="182" t="s">
         <v>127</v>
       </c>
-      <c r="C76" s="189"/>
-      <c r="D76" s="184" t="s">
+      <c r="C76" s="183"/>
+      <c r="D76" s="168" t="s">
         <v>201</v>
       </c>
-      <c r="E76" s="185"/>
-      <c r="F76" s="190"/>
-      <c r="G76" s="228"/>
+      <c r="E76" s="169"/>
+      <c r="F76" s="170"/>
+      <c r="G76" s="180"/>
     </row>
     <row r="77" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="125"/>
-      <c r="B77" s="280" t="s">
+      <c r="B77" s="207" t="s">
         <v>212</v>
       </c>
-      <c r="C77" s="281"/>
-      <c r="D77" s="282" t="s">
+      <c r="C77" s="208"/>
+      <c r="D77" s="209" t="s">
         <v>213</v>
       </c>
-      <c r="E77" s="283"/>
-      <c r="F77" s="284"/>
+      <c r="E77" s="210"/>
+      <c r="F77" s="211"/>
       <c r="G77" s="124" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="106"/>
-      <c r="B78" s="188" t="s">
+      <c r="B78" s="182" t="s">
         <v>72</v>
       </c>
-      <c r="C78" s="189"/>
-      <c r="D78" s="184" t="s">
+      <c r="C78" s="183"/>
+      <c r="D78" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="E78" s="185"/>
-      <c r="F78" s="190"/>
+      <c r="E78" s="169"/>
+      <c r="F78" s="170"/>
       <c r="G78" s="37"/>
     </row>
     <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="106"/>
-      <c r="B79" s="188" t="s">
+      <c r="B79" s="182" t="s">
         <v>73</v>
       </c>
-      <c r="C79" s="189"/>
-      <c r="D79" s="184" t="s">
+      <c r="C79" s="183"/>
+      <c r="D79" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="E79" s="185"/>
-      <c r="F79" s="190"/>
+      <c r="E79" s="169"/>
+      <c r="F79" s="170"/>
       <c r="G79" s="37"/>
     </row>
     <row r="80" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="106"/>
-      <c r="B80" s="188" t="s">
+      <c r="B80" s="182" t="s">
         <v>74</v>
       </c>
-      <c r="C80" s="189"/>
-      <c r="D80" s="169" t="s">
+      <c r="C80" s="183"/>
+      <c r="D80" s="190" t="s">
         <v>186</v>
       </c>
-      <c r="E80" s="170"/>
-      <c r="F80" s="171"/>
+      <c r="E80" s="191"/>
+      <c r="F80" s="192"/>
       <c r="G80" s="37" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:7" s="17" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="106"/>
-      <c r="B81" s="188" t="s">
+      <c r="B81" s="182" t="s">
         <v>75</v>
       </c>
-      <c r="C81" s="189"/>
-      <c r="D81" s="184" t="s">
+      <c r="C81" s="183"/>
+      <c r="D81" s="168" t="s">
         <v>208</v>
       </c>
-      <c r="E81" s="185"/>
-      <c r="F81" s="190"/>
+      <c r="E81" s="169"/>
+      <c r="F81" s="170"/>
       <c r="G81" s="37" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="82" spans="1:7" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="106"/>
-      <c r="B82" s="188" t="s">
+      <c r="B82" s="182" t="s">
         <v>76</v>
       </c>
-      <c r="C82" s="189"/>
-      <c r="D82" s="184" t="s">
+      <c r="C82" s="183"/>
+      <c r="D82" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="E82" s="185"/>
-      <c r="F82" s="190"/>
+      <c r="E82" s="169"/>
+      <c r="F82" s="170"/>
       <c r="G82" s="37" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="106"/>
-      <c r="B83" s="188" t="s">
+      <c r="B83" s="182" t="s">
         <v>77</v>
       </c>
-      <c r="C83" s="189"/>
-      <c r="D83" s="184" t="s">
+      <c r="C83" s="183"/>
+      <c r="D83" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="E83" s="185"/>
-      <c r="F83" s="190"/>
+      <c r="E83" s="169"/>
+      <c r="F83" s="170"/>
       <c r="G83" s="37" t="s">
         <v>30</v>
       </c>
@@ -6565,59 +6564,59 @@
     </row>
     <row r="85" spans="1:7" s="17" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A85" s="106"/>
-      <c r="B85" s="182" t="s">
+      <c r="B85" s="193" t="s">
         <v>123</v>
       </c>
-      <c r="C85" s="183"/>
-      <c r="D85" s="184" t="s">
+      <c r="C85" s="194"/>
+      <c r="D85" s="168" t="s">
         <v>154</v>
       </c>
-      <c r="E85" s="185"/>
-      <c r="F85" s="185"/>
+      <c r="E85" s="169"/>
+      <c r="F85" s="169"/>
       <c r="G85" s="30" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="86" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="106"/>
-      <c r="B86" s="182" t="s">
+      <c r="B86" s="193" t="s">
         <v>79</v>
       </c>
-      <c r="C86" s="183"/>
-      <c r="D86" s="184" t="s">
+      <c r="C86" s="194"/>
+      <c r="D86" s="168" t="s">
         <v>124</v>
       </c>
-      <c r="E86" s="185"/>
-      <c r="F86" s="190"/>
+      <c r="E86" s="169"/>
+      <c r="F86" s="170"/>
       <c r="G86" s="30"/>
     </row>
     <row r="87" spans="1:7" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="106"/>
-      <c r="B87" s="285" t="s">
+      <c r="B87" s="202" t="s">
         <v>81</v>
       </c>
-      <c r="C87" s="286"/>
-      <c r="D87" s="287" t="s">
+      <c r="C87" s="203"/>
+      <c r="D87" s="204" t="s">
         <v>82</v>
       </c>
-      <c r="E87" s="288"/>
-      <c r="F87" s="289"/>
-      <c r="G87" s="227" t="s">
+      <c r="E87" s="205"/>
+      <c r="F87" s="206"/>
+      <c r="G87" s="178" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="88" spans="1:7" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="106"/>
-      <c r="B88" s="285" t="s">
+      <c r="B88" s="202" t="s">
         <v>83</v>
       </c>
-      <c r="C88" s="286"/>
-      <c r="D88" s="184" t="s">
+      <c r="C88" s="203"/>
+      <c r="D88" s="168" t="s">
         <v>84</v>
       </c>
-      <c r="E88" s="185"/>
-      <c r="F88" s="190"/>
-      <c r="G88" s="228"/>
+      <c r="E88" s="169"/>
+      <c r="F88" s="170"/>
+      <c r="G88" s="180"/>
     </row>
     <row r="89" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="106"/>
@@ -6632,37 +6631,37 @@
     </row>
     <row r="90" spans="1:7" s="17" customFormat="1" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="106"/>
-      <c r="B90" s="182" t="s">
+      <c r="B90" s="193" t="s">
         <v>86</v>
       </c>
-      <c r="C90" s="183"/>
-      <c r="D90" s="184" t="s">
+      <c r="C90" s="194"/>
+      <c r="D90" s="168" t="s">
         <v>122</v>
       </c>
-      <c r="E90" s="185"/>
-      <c r="F90" s="190"/>
+      <c r="E90" s="169"/>
+      <c r="F90" s="170"/>
       <c r="G90" s="37"/>
     </row>
     <row r="91" spans="1:7" s="17" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="106"/>
-      <c r="B91" s="188" t="s">
+      <c r="B91" s="182" t="s">
         <v>87</v>
       </c>
-      <c r="C91" s="189"/>
-      <c r="D91" s="184"/>
-      <c r="E91" s="185"/>
-      <c r="F91" s="190"/>
+      <c r="C91" s="183"/>
+      <c r="D91" s="168"/>
+      <c r="E91" s="169"/>
+      <c r="F91" s="170"/>
       <c r="G91" s="37"/>
     </row>
     <row r="92" spans="1:7" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="106"/>
-      <c r="B92" s="188" t="s">
+      <c r="B92" s="182" t="s">
         <v>88</v>
       </c>
-      <c r="C92" s="189"/>
-      <c r="D92" s="184"/>
-      <c r="E92" s="185"/>
-      <c r="F92" s="190"/>
+      <c r="C92" s="183"/>
+      <c r="D92" s="168"/>
+      <c r="E92" s="169"/>
+      <c r="F92" s="170"/>
       <c r="G92" s="30"/>
     </row>
     <row r="93" spans="1:7" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6678,26 +6677,26 @@
     </row>
     <row r="94" spans="1:7" s="17" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="106"/>
-      <c r="B94" s="182" t="s">
+      <c r="B94" s="193" t="s">
         <v>90</v>
       </c>
-      <c r="C94" s="183"/>
-      <c r="D94" s="184" t="s">
+      <c r="C94" s="194"/>
+      <c r="D94" s="168" t="s">
         <v>122</v>
       </c>
-      <c r="E94" s="185"/>
-      <c r="F94" s="190"/>
+      <c r="E94" s="169"/>
+      <c r="F94" s="170"/>
       <c r="G94" s="37"/>
     </row>
     <row r="95" spans="1:7" s="17" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="106"/>
-      <c r="B95" s="182" t="s">
+      <c r="B95" s="193" t="s">
         <v>91</v>
       </c>
-      <c r="C95" s="183"/>
-      <c r="D95" s="184"/>
-      <c r="E95" s="185"/>
-      <c r="F95" s="190"/>
+      <c r="C95" s="194"/>
+      <c r="D95" s="168"/>
+      <c r="E95" s="169"/>
+      <c r="F95" s="170"/>
       <c r="G95" s="30"/>
     </row>
     <row r="96" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6713,78 +6712,78 @@
     </row>
     <row r="97" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="106"/>
-      <c r="B97" s="188" t="s">
+      <c r="B97" s="182" t="s">
         <v>93</v>
       </c>
-      <c r="C97" s="189"/>
-      <c r="D97" s="184" t="s">
+      <c r="C97" s="183"/>
+      <c r="D97" s="168" t="s">
         <v>122</v>
       </c>
-      <c r="E97" s="185"/>
-      <c r="F97" s="190"/>
+      <c r="E97" s="169"/>
+      <c r="F97" s="170"/>
       <c r="G97" s="43"/>
     </row>
     <row r="98" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="106"/>
-      <c r="B98" s="188" t="s">
+      <c r="B98" s="182" t="s">
         <v>94</v>
       </c>
-      <c r="C98" s="189"/>
-      <c r="D98" s="184"/>
-      <c r="E98" s="185"/>
-      <c r="F98" s="190"/>
+      <c r="C98" s="183"/>
+      <c r="D98" s="168"/>
+      <c r="E98" s="169"/>
+      <c r="F98" s="170"/>
       <c r="G98" s="43"/>
     </row>
     <row r="99" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="106"/>
-      <c r="B99" s="188" t="s">
+      <c r="B99" s="182" t="s">
         <v>95</v>
       </c>
-      <c r="C99" s="189"/>
-      <c r="D99" s="169"/>
-      <c r="E99" s="170"/>
-      <c r="F99" s="171"/>
+      <c r="C99" s="183"/>
+      <c r="D99" s="190"/>
+      <c r="E99" s="191"/>
+      <c r="F99" s="192"/>
       <c r="G99" s="43"/>
     </row>
     <row r="100" spans="1:7" s="17" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="106"/>
-      <c r="B100" s="290" t="s">
+      <c r="B100" s="195" t="s">
         <v>96</v>
       </c>
-      <c r="C100" s="291"/>
-      <c r="D100" s="184"/>
-      <c r="E100" s="185"/>
-      <c r="F100" s="190"/>
-      <c r="G100" s="292"/>
+      <c r="C100" s="196"/>
+      <c r="D100" s="168"/>
+      <c r="E100" s="169"/>
+      <c r="F100" s="170"/>
+      <c r="G100" s="200"/>
     </row>
     <row r="101" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="44"/>
-      <c r="B101" s="188" t="s">
+      <c r="B101" s="182" t="s">
         <v>97</v>
       </c>
-      <c r="C101" s="189"/>
-      <c r="D101" s="184"/>
-      <c r="E101" s="185"/>
-      <c r="F101" s="190"/>
-      <c r="G101" s="293"/>
+      <c r="C101" s="183"/>
+      <c r="D101" s="168"/>
+      <c r="E101" s="169"/>
+      <c r="F101" s="170"/>
+      <c r="G101" s="201"/>
     </row>
     <row r="102" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="44"/>
-      <c r="B102" s="232" t="s">
+      <c r="B102" s="186" t="s">
         <v>98</v>
       </c>
-      <c r="C102" s="233"/>
-      <c r="D102" s="277"/>
-      <c r="E102" s="278"/>
-      <c r="F102" s="279"/>
+      <c r="C102" s="187"/>
+      <c r="D102" s="173"/>
+      <c r="E102" s="174"/>
+      <c r="F102" s="175"/>
       <c r="G102" s="32"/>
     </row>
     <row r="103" spans="1:7" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="211" t="s">
+      <c r="A103" s="188" t="s">
         <v>99</v>
       </c>
-      <c r="B103" s="212"/>
-      <c r="C103" s="212"/>
+      <c r="B103" s="189"/>
+      <c r="C103" s="189"/>
       <c r="D103" s="70"/>
       <c r="E103" s="70"/>
       <c r="F103" s="70"/>
@@ -6803,54 +6802,54 @@
     </row>
     <row r="105" spans="1:7" s="17" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="50"/>
-      <c r="B105" s="290" t="s">
+      <c r="B105" s="195" t="s">
         <v>100</v>
       </c>
-      <c r="C105" s="291"/>
-      <c r="D105" s="294">
+      <c r="C105" s="196"/>
+      <c r="D105" s="197">
         <v>1</v>
       </c>
-      <c r="E105" s="295"/>
-      <c r="F105" s="296"/>
+      <c r="E105" s="198"/>
+      <c r="F105" s="199"/>
       <c r="G105" s="37"/>
     </row>
     <row r="106" spans="1:7" s="17" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="50"/>
-      <c r="B106" s="188" t="s">
+      <c r="B106" s="182" t="s">
         <v>101</v>
       </c>
-      <c r="C106" s="189"/>
-      <c r="D106" s="184" t="s">
+      <c r="C106" s="183"/>
+      <c r="D106" s="168" t="s">
         <v>173</v>
       </c>
-      <c r="E106" s="185"/>
-      <c r="F106" s="190"/>
+      <c r="E106" s="169"/>
+      <c r="F106" s="170"/>
       <c r="G106" s="27"/>
     </row>
     <row r="107" spans="1:7" s="17" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="50"/>
-      <c r="B107" s="188" t="s">
+      <c r="B107" s="182" t="s">
         <v>102</v>
       </c>
-      <c r="C107" s="189"/>
-      <c r="D107" s="184" t="s">
+      <c r="C107" s="183"/>
+      <c r="D107" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="E107" s="185"/>
-      <c r="F107" s="190"/>
+      <c r="E107" s="169"/>
+      <c r="F107" s="170"/>
       <c r="G107" s="30"/>
     </row>
     <row r="108" spans="1:7" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="51"/>
-      <c r="B108" s="188" t="s">
+      <c r="B108" s="182" t="s">
         <v>103</v>
       </c>
-      <c r="C108" s="189"/>
-      <c r="D108" s="184" t="s">
+      <c r="C108" s="183"/>
+      <c r="D108" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="E108" s="185"/>
-      <c r="F108" s="190"/>
+      <c r="E108" s="169"/>
+      <c r="F108" s="170"/>
       <c r="G108" s="52"/>
     </row>
     <row r="109" spans="1:7" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6866,30 +6865,30 @@
     </row>
     <row r="110" spans="1:7" s="17" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="50"/>
-      <c r="B110" s="182" t="s">
+      <c r="B110" s="193" t="s">
         <v>100</v>
       </c>
-      <c r="C110" s="183"/>
-      <c r="D110" s="184" t="s">
+      <c r="C110" s="194"/>
+      <c r="D110" s="168" t="s">
         <v>152</v>
       </c>
-      <c r="E110" s="185"/>
-      <c r="F110" s="190"/>
+      <c r="E110" s="169"/>
+      <c r="F110" s="170"/>
       <c r="G110" s="81" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="51"/>
-      <c r="B111" s="182" t="s">
+      <c r="B111" s="193" t="s">
         <v>101</v>
       </c>
-      <c r="C111" s="183"/>
-      <c r="D111" s="184" t="s">
+      <c r="C111" s="194"/>
+      <c r="D111" s="168" t="s">
         <v>80</v>
       </c>
-      <c r="E111" s="185"/>
-      <c r="F111" s="190"/>
+      <c r="E111" s="169"/>
+      <c r="F111" s="170"/>
       <c r="G111" s="52"/>
     </row>
     <row r="112" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -6905,36 +6904,36 @@
     </row>
     <row r="113" spans="1:7" s="17" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="50"/>
-      <c r="B113" s="188" t="s">
+      <c r="B113" s="182" t="s">
         <v>106</v>
       </c>
-      <c r="C113" s="189"/>
-      <c r="D113" s="184" t="s">
+      <c r="C113" s="183"/>
+      <c r="D113" s="168" t="s">
         <v>122</v>
       </c>
-      <c r="E113" s="216"/>
-      <c r="F113" s="217"/>
+      <c r="E113" s="184"/>
+      <c r="F113" s="185"/>
       <c r="G113" s="37" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="56"/>
-      <c r="B114" s="232" t="s">
+      <c r="B114" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="C114" s="233"/>
-      <c r="D114" s="277"/>
-      <c r="E114" s="278"/>
-      <c r="F114" s="279"/>
+      <c r="C114" s="187"/>
+      <c r="D114" s="173"/>
+      <c r="E114" s="174"/>
+      <c r="F114" s="175"/>
       <c r="G114" s="57"/>
     </row>
     <row r="115" spans="1:7" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="211" t="s">
+      <c r="A115" s="188" t="s">
         <v>107</v>
       </c>
-      <c r="B115" s="212"/>
-      <c r="C115" s="212"/>
+      <c r="B115" s="189"/>
+      <c r="C115" s="189"/>
       <c r="D115" s="70"/>
       <c r="E115" s="70"/>
       <c r="F115" s="70"/>
@@ -6953,67 +6952,67 @@
     </row>
     <row r="117" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="51"/>
-      <c r="B117" s="298" t="s">
+      <c r="B117" s="166" t="s">
         <v>109</v>
       </c>
-      <c r="C117" s="299"/>
-      <c r="D117" s="169" t="s">
+      <c r="C117" s="181"/>
+      <c r="D117" s="190" t="s">
         <v>122</v>
       </c>
-      <c r="E117" s="170"/>
-      <c r="F117" s="171"/>
-      <c r="G117" s="227"/>
+      <c r="E117" s="191"/>
+      <c r="F117" s="192"/>
+      <c r="G117" s="178"/>
     </row>
     <row r="118" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="51"/>
-      <c r="B118" s="298" t="s">
+      <c r="B118" s="166" t="s">
         <v>110</v>
       </c>
-      <c r="C118" s="299"/>
-      <c r="D118" s="169"/>
-      <c r="E118" s="170"/>
-      <c r="F118" s="171"/>
-      <c r="G118" s="297"/>
+      <c r="C118" s="181"/>
+      <c r="D118" s="190"/>
+      <c r="E118" s="191"/>
+      <c r="F118" s="192"/>
+      <c r="G118" s="179"/>
     </row>
     <row r="119" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="51"/>
-      <c r="B119" s="298" t="s">
+      <c r="B119" s="166" t="s">
         <v>111</v>
       </c>
-      <c r="C119" s="299"/>
-      <c r="D119" s="169"/>
-      <c r="E119" s="170"/>
-      <c r="F119" s="171"/>
-      <c r="G119" s="297"/>
+      <c r="C119" s="181"/>
+      <c r="D119" s="190"/>
+      <c r="E119" s="191"/>
+      <c r="F119" s="192"/>
+      <c r="G119" s="179"/>
     </row>
     <row r="120" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="51"/>
-      <c r="B120" s="298" t="s">
+      <c r="B120" s="166" t="s">
         <v>112</v>
       </c>
-      <c r="C120" s="299"/>
-      <c r="D120" s="169"/>
-      <c r="E120" s="170"/>
-      <c r="F120" s="171"/>
-      <c r="G120" s="228"/>
+      <c r="C120" s="181"/>
+      <c r="D120" s="190"/>
+      <c r="E120" s="191"/>
+      <c r="F120" s="192"/>
+      <c r="G120" s="180"/>
     </row>
     <row r="121" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="51"/>
-      <c r="B121" s="298" t="s">
+      <c r="B121" s="166" t="s">
         <v>113</v>
       </c>
-      <c r="C121" s="299"/>
-      <c r="D121" s="169"/>
-      <c r="E121" s="170"/>
-      <c r="F121" s="171"/>
+      <c r="C121" s="181"/>
+      <c r="D121" s="190"/>
+      <c r="E121" s="191"/>
+      <c r="F121" s="192"/>
       <c r="G121" s="8"/>
     </row>
     <row r="122" spans="1:7" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="51"/>
-      <c r="B122" s="298" t="s">
+      <c r="B122" s="166" t="s">
         <v>114</v>
       </c>
-      <c r="C122" s="299"/>
+      <c r="C122" s="181"/>
       <c r="D122" s="110"/>
       <c r="E122" s="120"/>
       <c r="F122" s="60"/>
@@ -7032,34 +7031,34 @@
     </row>
     <row r="124" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="62"/>
-      <c r="B124" s="298" t="s">
+      <c r="B124" s="166" t="s">
         <v>116</v>
       </c>
-      <c r="C124" s="304"/>
-      <c r="D124" s="184" t="s">
+      <c r="C124" s="167"/>
+      <c r="D124" s="168" t="s">
         <v>122</v>
       </c>
-      <c r="E124" s="185"/>
-      <c r="F124" s="190"/>
+      <c r="E124" s="169"/>
+      <c r="F124" s="170"/>
       <c r="G124" s="27"/>
     </row>
     <row r="125" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="56"/>
-      <c r="B125" s="305" t="s">
+      <c r="B125" s="171" t="s">
         <v>101</v>
       </c>
-      <c r="C125" s="306"/>
-      <c r="D125" s="277"/>
-      <c r="E125" s="278"/>
-      <c r="F125" s="279"/>
+      <c r="C125" s="172"/>
+      <c r="D125" s="173"/>
+      <c r="E125" s="174"/>
+      <c r="F125" s="175"/>
       <c r="G125" s="63"/>
     </row>
     <row r="126" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="307" t="s">
+      <c r="A126" s="176" t="s">
         <v>117</v>
       </c>
-      <c r="B126" s="307"/>
-      <c r="C126" s="307"/>
+      <c r="B126" s="176"/>
+      <c r="C126" s="176"/>
       <c r="G126" s="64"/>
     </row>
     <row r="127" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -7097,24 +7096,24 @@
     </row>
     <row r="130" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A130" s="96"/>
-      <c r="B130" s="308" t="s">
+      <c r="B130" s="177" t="s">
         <v>118</v>
       </c>
-      <c r="C130" s="308"/>
-      <c r="D130" s="308"/>
-      <c r="E130" s="308"/>
-      <c r="F130" s="308"/>
+      <c r="C130" s="177"/>
+      <c r="D130" s="177"/>
+      <c r="E130" s="177"/>
+      <c r="F130" s="177"/>
       <c r="G130" s="64"/>
     </row>
     <row r="131" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A131" s="96"/>
-      <c r="B131" s="308" t="s">
+      <c r="B131" s="177" t="s">
         <v>159</v>
       </c>
-      <c r="C131" s="308"/>
-      <c r="D131" s="308"/>
-      <c r="E131" s="308"/>
-      <c r="F131" s="308"/>
+      <c r="C131" s="177"/>
+      <c r="D131" s="177"/>
+      <c r="E131" s="177"/>
+      <c r="F131" s="177"/>
       <c r="G131" s="64"/>
     </row>
     <row r="132" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -7264,243 +7263,53 @@
       <c r="G145" s="64"/>
     </row>
     <row r="146" spans="1:7" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="301"/>
-      <c r="C146" s="301"/>
-      <c r="D146" s="301"/>
-      <c r="E146" s="301"/>
-      <c r="F146" s="301"/>
+      <c r="B146" s="163"/>
+      <c r="C146" s="163"/>
+      <c r="D146" s="163"/>
+      <c r="E146" s="163"/>
+      <c r="F146" s="163"/>
       <c r="G146" s="15"/>
     </row>
     <row r="147" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="300"/>
-      <c r="C147" s="300"/>
-      <c r="D147" s="300"/>
-      <c r="E147" s="300"/>
-      <c r="F147" s="300"/>
+      <c r="B147" s="162"/>
+      <c r="C147" s="162"/>
+      <c r="D147" s="162"/>
+      <c r="E147" s="162"/>
+      <c r="F147" s="162"/>
       <c r="G147" s="15"/>
     </row>
     <row r="148" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="301"/>
-      <c r="C148" s="301"/>
-      <c r="D148" s="301"/>
-      <c r="E148" s="301"/>
-      <c r="F148" s="301"/>
+      <c r="B148" s="163"/>
+      <c r="C148" s="163"/>
+      <c r="D148" s="163"/>
+      <c r="E148" s="163"/>
+      <c r="F148" s="163"/>
     </row>
     <row r="149" spans="1:7" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="302"/>
-      <c r="C149" s="302"/>
-      <c r="D149" s="302"/>
-      <c r="E149" s="302"/>
-      <c r="F149" s="302"/>
+      <c r="B149" s="164"/>
+      <c r="C149" s="164"/>
+      <c r="D149" s="164"/>
+      <c r="E149" s="164"/>
+      <c r="F149" s="164"/>
     </row>
     <row r="150" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="302"/>
-      <c r="C150" s="302"/>
-      <c r="D150" s="302"/>
-      <c r="E150" s="302"/>
-      <c r="F150" s="302"/>
+      <c r="B150" s="164"/>
+      <c r="C150" s="164"/>
+      <c r="D150" s="164"/>
+      <c r="E150" s="164"/>
+      <c r="F150" s="164"/>
       <c r="G150" s="66"/>
     </row>
     <row r="151" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="303"/>
-      <c r="C151" s="303"/>
-      <c r="D151" s="303"/>
-      <c r="E151" s="303"/>
-      <c r="F151" s="303"/>
+      <c r="B151" s="165"/>
+      <c r="C151" s="165"/>
+      <c r="D151" s="165"/>
+      <c r="E151" s="165"/>
+      <c r="F151" s="165"/>
       <c r="G151" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="214">
-    <mergeCell ref="B147:F147"/>
-    <mergeCell ref="B148:F148"/>
-    <mergeCell ref="B149:F149"/>
-    <mergeCell ref="B150:F150"/>
-    <mergeCell ref="B151:F151"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="D124:F124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="D125:F125"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="B146:F146"/>
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="B131:F131"/>
-    <mergeCell ref="G117:G120"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="D113:F113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="D114:F114"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="D117:F117"/>
-    <mergeCell ref="D118:F118"/>
-    <mergeCell ref="D119:F119"/>
-    <mergeCell ref="D120:F120"/>
-    <mergeCell ref="D121:F121"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="D108:F108"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="D110:F110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="D111:F111"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="D105:F105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D100:F100"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="D101:F101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="D102:F102"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:F88"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:F77"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:F48"/>
-    <mergeCell ref="G45:G48"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:F40"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="A6:C6"/>
@@ -7525,6 +7334,196 @@
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:F15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:F40"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G45:G48"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:F48"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="D111:F111"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="G117:G120"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="D113:F113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D114:F114"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="D117:F117"/>
+    <mergeCell ref="D118:F118"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="D121:F121"/>
+    <mergeCell ref="B147:F147"/>
+    <mergeCell ref="B148:F148"/>
+    <mergeCell ref="B149:F149"/>
+    <mergeCell ref="B150:F150"/>
+    <mergeCell ref="B151:F151"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="D124:F124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="D125:F125"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="B146:F146"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="B131:F131"/>
   </mergeCells>
   <conditionalFormatting sqref="A24:G26 A29:G31 A27:C28 A34:G50 A32:C33 A53:G59 A61:G64 A60:C60 A80:G80 A73:A76 A85:C85 A148:G151 A146:F147 A86:G131 A132:A145 C132:G132 G133:G145 A23:F23 A51:C52 G51 A8:D8 G8 A1:G7 A82:G84 A81:C81 A66:G72 A65:C65 G65 A78:A79 A9:G21">
     <cfRule type="containsText" dxfId="99" priority="59" operator="containsText" text="~??~">
@@ -7781,44 +7780,44 @@
       <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="199"/>
-      <c r="B3" s="202" t="s">
+      <c r="A3" s="287"/>
+      <c r="B3" s="290" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="203"/>
-      <c r="D3" s="202" t="s">
+      <c r="C3" s="291"/>
+      <c r="D3" s="290" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="208"/>
-      <c r="F3" s="203"/>
-      <c r="G3" s="172" t="s">
+      <c r="E3" s="296"/>
+      <c r="F3" s="291"/>
+      <c r="G3" s="268" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="200"/>
-      <c r="B4" s="204"/>
-      <c r="C4" s="205"/>
-      <c r="D4" s="204"/>
-      <c r="E4" s="209"/>
-      <c r="F4" s="205"/>
-      <c r="G4" s="173"/>
+      <c r="A4" s="288"/>
+      <c r="B4" s="292"/>
+      <c r="C4" s="293"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="297"/>
+      <c r="F4" s="293"/>
+      <c r="G4" s="269"/>
     </row>
     <row r="5" spans="1:10" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="201"/>
-      <c r="B5" s="206"/>
-      <c r="C5" s="207"/>
-      <c r="D5" s="206"/>
-      <c r="E5" s="210"/>
-      <c r="F5" s="207"/>
-      <c r="G5" s="174"/>
+      <c r="A5" s="289"/>
+      <c r="B5" s="294"/>
+      <c r="C5" s="295"/>
+      <c r="D5" s="294"/>
+      <c r="E5" s="298"/>
+      <c r="F5" s="295"/>
+      <c r="G5" s="270"/>
     </row>
     <row r="6" spans="1:10" s="16" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="309" t="s">
+      <c r="A6" s="302" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="310"/>
-      <c r="C6" s="310"/>
+      <c r="B6" s="303"/>
+      <c r="C6" s="303"/>
       <c r="D6" s="69"/>
       <c r="E6" s="69"/>
       <c r="F6" s="69"/>
@@ -7826,73 +7825,73 @@
     </row>
     <row r="7" spans="1:10" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="311" t="s">
+      <c r="B7" s="304" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="312"/>
-      <c r="D7" s="179" t="s">
+      <c r="C7" s="305"/>
+      <c r="D7" s="275" t="s">
         <v>196</v>
       </c>
-      <c r="E7" s="180"/>
-      <c r="F7" s="181"/>
+      <c r="E7" s="276"/>
+      <c r="F7" s="277"/>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="86"/>
-      <c r="B8" s="186" t="s">
+      <c r="B8" s="278" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="187"/>
-      <c r="D8" s="169" t="s">
+      <c r="C8" s="267"/>
+      <c r="D8" s="190" t="s">
         <v>184</v>
       </c>
-      <c r="E8" s="170"/>
-      <c r="F8" s="171"/>
+      <c r="E8" s="191"/>
+      <c r="F8" s="192"/>
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="86"/>
-      <c r="B9" s="188" t="s">
+      <c r="B9" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="189"/>
-      <c r="D9" s="184" t="s">
+      <c r="C9" s="183"/>
+      <c r="D9" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="185"/>
-      <c r="F9" s="190"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="170"/>
       <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:10" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
-      <c r="B10" s="188" t="s">
+      <c r="B10" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="189"/>
-      <c r="D10" s="191" t="s">
+      <c r="C10" s="183"/>
+      <c r="D10" s="279" t="s">
         <v>180</v>
       </c>
-      <c r="E10" s="192"/>
-      <c r="F10" s="193"/>
+      <c r="E10" s="280"/>
+      <c r="F10" s="281"/>
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:10" ht="30.6" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
-      <c r="B11" s="194" t="s">
+      <c r="B11" s="282" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="195"/>
-      <c r="D11" s="196"/>
-      <c r="E11" s="197"/>
-      <c r="F11" s="198"/>
+      <c r="C11" s="283"/>
+      <c r="D11" s="284"/>
+      <c r="E11" s="285"/>
+      <c r="F11" s="286"/>
       <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:10" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="211" t="s">
+      <c r="A12" s="188" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="212"/>
-      <c r="C12" s="212"/>
+      <c r="B12" s="189"/>
+      <c r="C12" s="189"/>
       <c r="D12" s="70"/>
       <c r="E12" s="70"/>
       <c r="F12" s="70"/>
@@ -7900,15 +7899,15 @@
     </row>
     <row r="13" spans="1:10" s="17" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="213" t="s">
+      <c r="B13" s="299" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="214"/>
-      <c r="D13" s="215">
+      <c r="C13" s="300"/>
+      <c r="D13" s="262">
         <v>6000</v>
       </c>
-      <c r="E13" s="216"/>
-      <c r="F13" s="217"/>
+      <c r="E13" s="184"/>
+      <c r="F13" s="185"/>
       <c r="G13" s="81" t="s">
         <v>139</v>
       </c>
@@ -7916,158 +7915,158 @@
     </row>
     <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="258" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="219"/>
-      <c r="D14" s="215" t="s">
+      <c r="C14" s="259"/>
+      <c r="D14" s="262" t="s">
         <v>215</v>
       </c>
-      <c r="E14" s="216"/>
-      <c r="F14" s="217"/>
+      <c r="E14" s="184"/>
+      <c r="F14" s="185"/>
       <c r="G14" s="85"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="86"/>
-      <c r="B15" s="218" t="s">
+      <c r="B15" s="258" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="219"/>
-      <c r="D15" s="220">
+      <c r="C15" s="259"/>
+      <c r="D15" s="301">
         <v>4.2361111111111106E-2</v>
       </c>
-      <c r="E15" s="221"/>
-      <c r="F15" s="222"/>
+      <c r="E15" s="215"/>
+      <c r="F15" s="216"/>
       <c r="G15" s="85"/>
     </row>
     <row r="16" spans="1:10" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="84"/>
-      <c r="B16" s="218" t="s">
+      <c r="B16" s="258" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="219"/>
-      <c r="D16" s="215">
+      <c r="C16" s="259"/>
+      <c r="D16" s="262">
         <v>1</v>
       </c>
-      <c r="E16" s="216"/>
-      <c r="F16" s="217"/>
+      <c r="E16" s="184"/>
+      <c r="F16" s="185"/>
       <c r="G16" s="85"/>
     </row>
     <row r="17" spans="1:7" s="17" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="84"/>
-      <c r="B17" s="218" t="s">
+      <c r="B17" s="258" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="219"/>
-      <c r="D17" s="223" t="s">
+      <c r="C17" s="259"/>
+      <c r="D17" s="263" t="s">
         <v>129</v>
       </c>
-      <c r="E17" s="224"/>
-      <c r="F17" s="225"/>
+      <c r="E17" s="264"/>
+      <c r="F17" s="265"/>
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="86"/>
-      <c r="B18" s="226" t="s">
+      <c r="B18" s="266" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="187"/>
-      <c r="D18" s="169"/>
-      <c r="E18" s="170"/>
-      <c r="F18" s="171"/>
-      <c r="G18" s="227"/>
+      <c r="C18" s="267"/>
+      <c r="D18" s="190"/>
+      <c r="E18" s="191"/>
+      <c r="F18" s="192"/>
+      <c r="G18" s="178"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="86"/>
-      <c r="B19" s="218" t="s">
+      <c r="B19" s="258" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="219"/>
-      <c r="D19" s="215" t="s">
+      <c r="C19" s="259"/>
+      <c r="D19" s="262" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="216"/>
-      <c r="F19" s="217"/>
-      <c r="G19" s="228"/>
+      <c r="E19" s="184"/>
+      <c r="F19" s="185"/>
+      <c r="G19" s="180"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="86"/>
-      <c r="B20" s="218" t="s">
+      <c r="B20" s="258" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="219"/>
-      <c r="D20" s="237" t="s">
+      <c r="C20" s="259"/>
+      <c r="D20" s="214" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="221"/>
-      <c r="F20" s="222"/>
+      <c r="E20" s="215"/>
+      <c r="F20" s="216"/>
       <c r="G20" s="85"/>
     </row>
     <row r="21" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A21" s="86"/>
-      <c r="B21" s="238" t="s">
+      <c r="B21" s="260" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="239"/>
-      <c r="D21" s="237" t="s">
+      <c r="C21" s="261"/>
+      <c r="D21" s="214" t="s">
         <v>136</v>
       </c>
-      <c r="E21" s="221"/>
-      <c r="F21" s="222"/>
+      <c r="E21" s="215"/>
+      <c r="F21" s="216"/>
       <c r="G21" s="123" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A22" s="86"/>
-      <c r="B22" s="188" t="s">
+      <c r="B22" s="182" t="s">
         <v>182</v>
       </c>
-      <c r="C22" s="189"/>
-      <c r="D22" s="229" t="s">
+      <c r="C22" s="183"/>
+      <c r="D22" s="252" t="s">
         <v>218</v>
       </c>
-      <c r="E22" s="230"/>
-      <c r="F22" s="231"/>
+      <c r="E22" s="253"/>
+      <c r="F22" s="254"/>
       <c r="G22" s="18" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
-      <c r="B23" s="188" t="s">
+      <c r="B23" s="182" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="189"/>
-      <c r="D23" s="184">
+      <c r="C23" s="183"/>
+      <c r="D23" s="168">
         <v>14</v>
       </c>
-      <c r="E23" s="185"/>
-      <c r="F23" s="190"/>
+      <c r="E23" s="169"/>
+      <c r="F23" s="170"/>
       <c r="G23" s="18" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
-      <c r="B24" s="232" t="s">
+      <c r="B24" s="186" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="233"/>
-      <c r="D24" s="234" t="s">
+      <c r="C24" s="187"/>
+      <c r="D24" s="255" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="235"/>
-      <c r="F24" s="236"/>
+      <c r="E24" s="256"/>
+      <c r="F24" s="257"/>
       <c r="G24" s="18"/>
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="242" t="s">
+      <c r="A25" s="212" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="243"/>
-      <c r="C25" s="243"/>
+      <c r="B25" s="213"/>
+      <c r="C25" s="213"/>
       <c r="D25" s="71"/>
       <c r="E25" s="71"/>
       <c r="F25" s="71"/>
@@ -8075,10 +8074,10 @@
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="20"/>
-      <c r="B26" s="244" t="s">
+      <c r="B26" s="250" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="245"/>
+      <c r="C26" s="251"/>
       <c r="D26" s="72"/>
       <c r="E26" s="72"/>
       <c r="F26" s="72"/>
@@ -8086,66 +8085,66 @@
     </row>
     <row r="27" spans="1:7" s="17" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="84"/>
-      <c r="B27" s="188" t="s">
+      <c r="B27" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="189"/>
-      <c r="D27" s="184" t="s">
+      <c r="C27" s="183"/>
+      <c r="D27" s="168" t="s">
         <v>130</v>
       </c>
-      <c r="E27" s="185"/>
-      <c r="F27" s="190"/>
+      <c r="E27" s="169"/>
+      <c r="F27" s="170"/>
       <c r="G27" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="94" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="93"/>
-      <c r="B28" s="290" t="s">
+      <c r="B28" s="195" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="291"/>
-      <c r="D28" s="169" t="s">
+      <c r="C28" s="196"/>
+      <c r="D28" s="190" t="s">
         <v>197</v>
       </c>
-      <c r="E28" s="170"/>
-      <c r="F28" s="171"/>
+      <c r="E28" s="191"/>
+      <c r="F28" s="192"/>
       <c r="G28" s="23" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="86"/>
-      <c r="B29" s="188" t="s">
+      <c r="B29" s="182" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="189"/>
-      <c r="D29" s="184" t="s">
+      <c r="C29" s="183"/>
+      <c r="D29" s="168" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="185"/>
-      <c r="F29" s="190"/>
+      <c r="E29" s="169"/>
+      <c r="F29" s="170"/>
       <c r="G29" s="8"/>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="86"/>
-      <c r="B30" s="188" t="s">
+      <c r="B30" s="182" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="189"/>
-      <c r="D30" s="184" t="s">
+      <c r="C30" s="183"/>
+      <c r="D30" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="185"/>
-      <c r="F30" s="190"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="170"/>
       <c r="G30" s="8"/>
     </row>
     <row r="31" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="86"/>
-      <c r="B31" s="240" t="s">
+      <c r="B31" s="222" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="241"/>
+      <c r="C31" s="223"/>
       <c r="D31" s="73"/>
       <c r="E31" s="73"/>
       <c r="F31" s="73"/>
@@ -8153,66 +8152,66 @@
     </row>
     <row r="32" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="86"/>
-      <c r="B32" s="188" t="s">
+      <c r="B32" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="189"/>
-      <c r="D32" s="184" t="s">
+      <c r="C32" s="183"/>
+      <c r="D32" s="168" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="185"/>
-      <c r="F32" s="190"/>
+      <c r="E32" s="169"/>
+      <c r="F32" s="170"/>
       <c r="G32" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="17" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="84"/>
-      <c r="B33" s="188" t="s">
+      <c r="B33" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="189"/>
-      <c r="D33" s="169" t="s">
+      <c r="C33" s="183"/>
+      <c r="D33" s="190" t="s">
         <v>133</v>
       </c>
-      <c r="E33" s="170"/>
-      <c r="F33" s="171"/>
+      <c r="E33" s="191"/>
+      <c r="F33" s="192"/>
       <c r="G33" s="23" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="86"/>
-      <c r="B34" s="188" t="s">
+      <c r="B34" s="182" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="189"/>
-      <c r="D34" s="184" t="s">
+      <c r="C34" s="183"/>
+      <c r="D34" s="168" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="185"/>
-      <c r="F34" s="190"/>
+      <c r="E34" s="169"/>
+      <c r="F34" s="170"/>
       <c r="G34" s="8"/>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="86"/>
-      <c r="B35" s="188" t="s">
+      <c r="B35" s="182" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="189"/>
-      <c r="D35" s="184" t="s">
+      <c r="C35" s="183"/>
+      <c r="D35" s="168" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="185"/>
-      <c r="F35" s="190"/>
+      <c r="E35" s="169"/>
+      <c r="F35" s="170"/>
       <c r="G35" s="8"/>
     </row>
     <row r="36" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="86"/>
-      <c r="B36" s="240" t="s">
+      <c r="B36" s="222" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="241"/>
+      <c r="C36" s="223"/>
       <c r="D36" s="73"/>
       <c r="E36" s="73"/>
       <c r="F36" s="73"/>
@@ -8220,70 +8219,70 @@
     </row>
     <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="86"/>
-      <c r="B37" s="188" t="s">
+      <c r="B37" s="182" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="189"/>
-      <c r="D37" s="184" t="s">
+      <c r="C37" s="183"/>
+      <c r="D37" s="168" t="s">
         <v>129</v>
       </c>
-      <c r="E37" s="185"/>
-      <c r="F37" s="190"/>
+      <c r="E37" s="169"/>
+      <c r="F37" s="170"/>
       <c r="G37" s="26"/>
     </row>
     <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="86"/>
-      <c r="B38" s="188" t="s">
+      <c r="B38" s="182" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="189"/>
-      <c r="D38" s="237"/>
-      <c r="E38" s="221"/>
-      <c r="F38" s="222"/>
+      <c r="C38" s="183"/>
+      <c r="D38" s="214"/>
+      <c r="E38" s="215"/>
+      <c r="F38" s="216"/>
       <c r="G38" s="27"/>
     </row>
     <row r="39" spans="1:7" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="84"/>
-      <c r="B39" s="188" t="s">
+      <c r="B39" s="182" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="189"/>
-      <c r="D39" s="246"/>
-      <c r="E39" s="247"/>
-      <c r="F39" s="248"/>
-      <c r="G39" s="252"/>
+      <c r="C39" s="183"/>
+      <c r="D39" s="244"/>
+      <c r="E39" s="245"/>
+      <c r="F39" s="246"/>
+      <c r="G39" s="238"/>
     </row>
     <row r="40" spans="1:7" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="84"/>
-      <c r="B40" s="188" t="s">
+      <c r="B40" s="182" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="189"/>
-      <c r="D40" s="249"/>
-      <c r="E40" s="250"/>
-      <c r="F40" s="251"/>
-      <c r="G40" s="254"/>
+      <c r="C40" s="183"/>
+      <c r="D40" s="247"/>
+      <c r="E40" s="248"/>
+      <c r="F40" s="249"/>
+      <c r="G40" s="240"/>
     </row>
     <row r="41" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="86"/>
-      <c r="B41" s="188" t="s">
+      <c r="B41" s="182" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="189"/>
-      <c r="D41" s="255"/>
-      <c r="E41" s="256"/>
-      <c r="F41" s="257"/>
+      <c r="C41" s="183"/>
+      <c r="D41" s="226"/>
+      <c r="E41" s="241"/>
+      <c r="F41" s="242"/>
       <c r="G41" s="8"/>
     </row>
     <row r="42" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="86"/>
-      <c r="B42" s="188" t="s">
+      <c r="B42" s="182" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="189"/>
-      <c r="D42" s="258"/>
-      <c r="E42" s="185"/>
-      <c r="F42" s="190"/>
+      <c r="C42" s="183"/>
+      <c r="D42" s="243"/>
+      <c r="E42" s="169"/>
+      <c r="F42" s="170"/>
       <c r="G42" s="27"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -8299,62 +8298,62 @@
     </row>
     <row r="44" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="86"/>
-      <c r="B44" s="188" t="s">
+      <c r="B44" s="182" t="s">
         <v>31</v>
       </c>
-      <c r="C44" s="189"/>
-      <c r="D44" s="255" t="s">
+      <c r="C44" s="183"/>
+      <c r="D44" s="226" t="s">
         <v>177</v>
       </c>
-      <c r="E44" s="259"/>
-      <c r="F44" s="260"/>
+      <c r="E44" s="227"/>
+      <c r="F44" s="228"/>
       <c r="G44" s="30"/>
     </row>
     <row r="45" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="86"/>
-      <c r="B45" s="188" t="s">
+      <c r="B45" s="182" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="189"/>
-      <c r="D45" s="261" t="s">
+      <c r="C45" s="183"/>
+      <c r="D45" s="229" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="262"/>
-      <c r="F45" s="263"/>
-      <c r="G45" s="252"/>
+      <c r="E45" s="230"/>
+      <c r="F45" s="231"/>
+      <c r="G45" s="238"/>
     </row>
     <row r="46" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="86"/>
-      <c r="B46" s="188" t="s">
+      <c r="B46" s="182" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="189"/>
-      <c r="D46" s="264"/>
-      <c r="E46" s="265"/>
-      <c r="F46" s="266"/>
-      <c r="G46" s="253"/>
+      <c r="C46" s="183"/>
+      <c r="D46" s="232"/>
+      <c r="E46" s="233"/>
+      <c r="F46" s="234"/>
+      <c r="G46" s="239"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="86"/>
-      <c r="B47" s="188" t="s">
+      <c r="B47" s="182" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="189"/>
-      <c r="D47" s="264"/>
-      <c r="E47" s="265"/>
-      <c r="F47" s="266"/>
-      <c r="G47" s="253"/>
+      <c r="C47" s="183"/>
+      <c r="D47" s="232"/>
+      <c r="E47" s="233"/>
+      <c r="F47" s="234"/>
+      <c r="G47" s="239"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="86"/>
-      <c r="B48" s="188" t="s">
+      <c r="B48" s="182" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="189"/>
-      <c r="D48" s="267"/>
-      <c r="E48" s="268"/>
-      <c r="F48" s="269"/>
-      <c r="G48" s="254"/>
+      <c r="C48" s="183"/>
+      <c r="D48" s="235"/>
+      <c r="E48" s="236"/>
+      <c r="F48" s="237"/>
+      <c r="G48" s="240"/>
     </row>
     <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="86"/>
@@ -8369,75 +8368,75 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="86"/>
-      <c r="B50" s="280" t="s">
+      <c r="B50" s="207" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="281"/>
-      <c r="D50" s="184" t="s">
+      <c r="C50" s="208"/>
+      <c r="D50" s="168" t="s">
         <v>131</v>
       </c>
-      <c r="E50" s="185"/>
-      <c r="F50" s="190"/>
+      <c r="E50" s="169"/>
+      <c r="F50" s="170"/>
       <c r="G50" s="8"/>
     </row>
     <row r="51" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="86"/>
-      <c r="B51" s="188" t="s">
+      <c r="B51" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="189"/>
-      <c r="D51" s="215"/>
-      <c r="E51" s="216"/>
-      <c r="F51" s="217"/>
+      <c r="C51" s="183"/>
+      <c r="D51" s="262"/>
+      <c r="E51" s="184"/>
+      <c r="F51" s="185"/>
       <c r="G51" s="8"/>
     </row>
     <row r="52" spans="1:7" s="17" customFormat="1" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="84"/>
-      <c r="B52" s="188" t="s">
+      <c r="B52" s="182" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="189"/>
-      <c r="D52" s="169" t="s">
+      <c r="C52" s="183"/>
+      <c r="D52" s="190" t="s">
         <v>198</v>
       </c>
-      <c r="E52" s="170"/>
-      <c r="F52" s="171"/>
+      <c r="E52" s="191"/>
+      <c r="F52" s="192"/>
       <c r="G52" s="23" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="86"/>
-      <c r="B53" s="188" t="s">
+      <c r="B53" s="182" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="189"/>
-      <c r="D53" s="184" t="s">
+      <c r="C53" s="183"/>
+      <c r="D53" s="168" t="s">
         <v>51</v>
       </c>
-      <c r="E53" s="185"/>
-      <c r="F53" s="190"/>
+      <c r="E53" s="169"/>
+      <c r="F53" s="170"/>
       <c r="G53" s="27"/>
     </row>
     <row r="54" spans="1:7" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="86"/>
-      <c r="B54" s="188" t="s">
+      <c r="B54" s="182" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="189"/>
-      <c r="D54" s="184" t="s">
+      <c r="C54" s="183"/>
+      <c r="D54" s="168" t="s">
         <v>37</v>
       </c>
-      <c r="E54" s="185"/>
-      <c r="F54" s="190"/>
+      <c r="E54" s="169"/>
+      <c r="F54" s="170"/>
       <c r="G54" s="27"/>
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="86"/>
-      <c r="B55" s="240" t="s">
+      <c r="B55" s="222" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="241"/>
+      <c r="C55" s="223"/>
       <c r="D55" s="73"/>
       <c r="E55" s="73"/>
       <c r="F55" s="73"/>
@@ -8445,49 +8444,49 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="86"/>
-      <c r="B56" s="188" t="s">
+      <c r="B56" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="189"/>
-      <c r="D56" s="184" t="s">
+      <c r="C56" s="183"/>
+      <c r="D56" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="185"/>
-      <c r="F56" s="190"/>
+      <c r="E56" s="169"/>
+      <c r="F56" s="170"/>
       <c r="G56" s="27"/>
     </row>
     <row r="57" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="86"/>
-      <c r="B57" s="188" t="s">
+      <c r="B57" s="182" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="189"/>
-      <c r="D57" s="184" t="s">
+      <c r="C57" s="183"/>
+      <c r="D57" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="E57" s="185"/>
-      <c r="F57" s="190"/>
+      <c r="E57" s="169"/>
+      <c r="F57" s="170"/>
       <c r="G57" s="27"/>
     </row>
     <row r="58" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="86"/>
-      <c r="B58" s="270" t="s">
+      <c r="B58" s="217" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="271"/>
-      <c r="D58" s="272" t="s">
+      <c r="C58" s="218"/>
+      <c r="D58" s="219" t="s">
         <v>19</v>
       </c>
-      <c r="E58" s="273"/>
-      <c r="F58" s="274"/>
+      <c r="E58" s="220"/>
+      <c r="F58" s="221"/>
       <c r="G58" s="27"/>
     </row>
     <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="86"/>
-      <c r="B59" s="240" t="s">
+      <c r="B59" s="222" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="241"/>
+      <c r="C59" s="223"/>
       <c r="D59" s="73"/>
       <c r="E59" s="73"/>
       <c r="F59" s="73"/>
@@ -8495,25 +8494,25 @@
     </row>
     <row r="60" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="31"/>
-      <c r="B60" s="275" t="s">
+      <c r="B60" s="224" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="276"/>
-      <c r="D60" s="277">
+      <c r="C60" s="225"/>
+      <c r="D60" s="173">
         <v>0</v>
       </c>
-      <c r="E60" s="278"/>
-      <c r="F60" s="279"/>
+      <c r="E60" s="174"/>
+      <c r="F60" s="175"/>
       <c r="G60" s="32" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="242" t="s">
+      <c r="A61" s="212" t="s">
         <v>58</v>
       </c>
-      <c r="B61" s="243"/>
-      <c r="C61" s="243"/>
+      <c r="B61" s="213"/>
+      <c r="C61" s="213"/>
       <c r="D61" s="74"/>
       <c r="E61" s="74"/>
       <c r="F61" s="74"/>
@@ -8532,43 +8531,43 @@
     </row>
     <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="84"/>
-      <c r="B63" s="188" t="s">
+      <c r="B63" s="182" t="s">
         <v>60</v>
       </c>
-      <c r="C63" s="189"/>
-      <c r="D63" s="184" t="s">
+      <c r="C63" s="183"/>
+      <c r="D63" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="185"/>
-      <c r="F63" s="190"/>
+      <c r="E63" s="169"/>
+      <c r="F63" s="170"/>
       <c r="G63" s="88"/>
     </row>
     <row r="64" spans="1:7" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="84"/>
-      <c r="B64" s="188" t="s">
+      <c r="B64" s="182" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="189"/>
-      <c r="D64" s="184" t="s">
+      <c r="C64" s="183"/>
+      <c r="D64" s="168" t="s">
         <v>137</v>
       </c>
-      <c r="E64" s="185"/>
-      <c r="F64" s="190"/>
+      <c r="E64" s="169"/>
+      <c r="F64" s="170"/>
       <c r="G64" s="90" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="84"/>
-      <c r="B65" s="188" t="s">
+      <c r="B65" s="182" t="s">
         <v>62</v>
       </c>
-      <c r="C65" s="189"/>
-      <c r="D65" s="237" t="s">
+      <c r="C65" s="183"/>
+      <c r="D65" s="214" t="s">
         <v>156</v>
       </c>
-      <c r="E65" s="221"/>
-      <c r="F65" s="222"/>
+      <c r="E65" s="215"/>
+      <c r="F65" s="216"/>
       <c r="G65" s="98"/>
     </row>
     <row r="66" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8584,28 +8583,28 @@
     </row>
     <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="84"/>
-      <c r="B67" s="188" t="s">
+      <c r="B67" s="182" t="s">
         <v>64</v>
       </c>
-      <c r="C67" s="189"/>
-      <c r="D67" s="184" t="s">
+      <c r="C67" s="183"/>
+      <c r="D67" s="168" t="s">
         <v>65</v>
       </c>
-      <c r="E67" s="185"/>
-      <c r="F67" s="190"/>
+      <c r="E67" s="169"/>
+      <c r="F67" s="170"/>
       <c r="G67" s="27"/>
     </row>
     <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="84"/>
-      <c r="B68" s="188" t="s">
+      <c r="B68" s="182" t="s">
         <v>66</v>
       </c>
-      <c r="C68" s="189"/>
-      <c r="D68" s="184" t="s">
+      <c r="C68" s="183"/>
+      <c r="D68" s="168" t="s">
         <v>65</v>
       </c>
-      <c r="E68" s="185"/>
-      <c r="F68" s="190"/>
+      <c r="E68" s="169"/>
+      <c r="F68" s="170"/>
       <c r="G68" s="27"/>
     </row>
     <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8621,30 +8620,30 @@
     </row>
     <row r="70" spans="1:8" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="84"/>
-      <c r="B70" s="188" t="s">
+      <c r="B70" s="182" t="s">
         <v>64</v>
       </c>
-      <c r="C70" s="189"/>
-      <c r="D70" s="184" t="s">
+      <c r="C70" s="183"/>
+      <c r="D70" s="168" t="s">
         <v>211</v>
       </c>
-      <c r="E70" s="185"/>
-      <c r="F70" s="190"/>
+      <c r="E70" s="169"/>
+      <c r="F70" s="170"/>
       <c r="G70" s="37" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="84"/>
-      <c r="B71" s="188" t="s">
+      <c r="B71" s="182" t="s">
         <v>66</v>
       </c>
-      <c r="C71" s="189"/>
-      <c r="D71" s="184" t="s">
+      <c r="C71" s="183"/>
+      <c r="D71" s="168" t="s">
         <v>122</v>
       </c>
-      <c r="E71" s="185"/>
-      <c r="F71" s="190"/>
+      <c r="E71" s="169"/>
+      <c r="F71" s="170"/>
       <c r="G71" s="37" t="s">
         <v>30</v>
       </c>
@@ -8664,157 +8663,157 @@
     </row>
     <row r="73" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A73" s="84"/>
-      <c r="B73" s="188" t="s">
+      <c r="B73" s="182" t="s">
         <v>69</v>
       </c>
-      <c r="C73" s="189"/>
-      <c r="D73" s="184" t="s">
+      <c r="C73" s="183"/>
+      <c r="D73" s="168" t="s">
         <v>196</v>
       </c>
-      <c r="E73" s="185"/>
-      <c r="F73" s="190"/>
+      <c r="E73" s="169"/>
+      <c r="F73" s="170"/>
       <c r="G73" s="92" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="84"/>
-      <c r="B74" s="188" t="s">
+      <c r="B74" s="182" t="s">
         <v>70</v>
       </c>
-      <c r="C74" s="189"/>
-      <c r="D74" s="184" t="s">
+      <c r="C74" s="183"/>
+      <c r="D74" s="168" t="s">
         <v>122</v>
       </c>
-      <c r="E74" s="185"/>
-      <c r="F74" s="190"/>
+      <c r="E74" s="169"/>
+      <c r="F74" s="170"/>
       <c r="G74" s="95"/>
     </row>
     <row r="75" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="84"/>
-      <c r="B75" s="188" t="s">
+      <c r="B75" s="182" t="s">
         <v>71</v>
       </c>
-      <c r="C75" s="189"/>
-      <c r="D75" s="184" t="s">
+      <c r="C75" s="183"/>
+      <c r="D75" s="168" t="s">
         <v>155</v>
       </c>
-      <c r="E75" s="185"/>
-      <c r="F75" s="190"/>
-      <c r="G75" s="227" t="s">
+      <c r="E75" s="169"/>
+      <c r="F75" s="170"/>
+      <c r="G75" s="178" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="91"/>
-      <c r="B76" s="188" t="s">
+      <c r="B76" s="182" t="s">
         <v>127</v>
       </c>
-      <c r="C76" s="189"/>
-      <c r="D76" s="184" t="s">
+      <c r="C76" s="183"/>
+      <c r="D76" s="168" t="s">
         <v>201</v>
       </c>
-      <c r="E76" s="185"/>
-      <c r="F76" s="190"/>
-      <c r="G76" s="228"/>
+      <c r="E76" s="169"/>
+      <c r="F76" s="170"/>
+      <c r="G76" s="180"/>
     </row>
     <row r="77" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="125"/>
-      <c r="B77" s="280" t="s">
+      <c r="B77" s="207" t="s">
         <v>212</v>
       </c>
-      <c r="C77" s="281"/>
-      <c r="D77" s="282" t="s">
+      <c r="C77" s="208"/>
+      <c r="D77" s="209" t="s">
         <v>213</v>
       </c>
-      <c r="E77" s="283"/>
-      <c r="F77" s="284"/>
+      <c r="E77" s="210"/>
+      <c r="F77" s="211"/>
       <c r="G77" s="124" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="84"/>
-      <c r="B78" s="188" t="s">
+      <c r="B78" s="182" t="s">
         <v>72</v>
       </c>
-      <c r="C78" s="189"/>
-      <c r="D78" s="184" t="s">
+      <c r="C78" s="183"/>
+      <c r="D78" s="168" t="s">
         <v>202</v>
       </c>
-      <c r="E78" s="185"/>
-      <c r="F78" s="190"/>
+      <c r="E78" s="169"/>
+      <c r="F78" s="170"/>
       <c r="G78" s="37"/>
     </row>
     <row r="79" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="84"/>
-      <c r="B79" s="188" t="s">
+      <c r="B79" s="182" t="s">
         <v>73</v>
       </c>
-      <c r="C79" s="189"/>
-      <c r="D79" s="184" t="s">
+      <c r="C79" s="183"/>
+      <c r="D79" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="E79" s="185"/>
-      <c r="F79" s="190"/>
+      <c r="E79" s="169"/>
+      <c r="F79" s="170"/>
       <c r="G79" s="37"/>
     </row>
     <row r="80" spans="1:8" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="84"/>
-      <c r="B80" s="188" t="s">
+      <c r="B80" s="182" t="s">
         <v>74</v>
       </c>
-      <c r="C80" s="189"/>
-      <c r="D80" s="169" t="s">
+      <c r="C80" s="183"/>
+      <c r="D80" s="190" t="s">
         <v>186</v>
       </c>
-      <c r="E80" s="170"/>
-      <c r="F80" s="171"/>
+      <c r="E80" s="191"/>
+      <c r="F80" s="192"/>
       <c r="G80" s="37" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:7" s="17" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="84"/>
-      <c r="B81" s="188" t="s">
+      <c r="B81" s="182" t="s">
         <v>75</v>
       </c>
-      <c r="C81" s="189"/>
-      <c r="D81" s="184" t="s">
+      <c r="C81" s="183"/>
+      <c r="D81" s="168" t="s">
         <v>208</v>
       </c>
-      <c r="E81" s="185"/>
-      <c r="F81" s="190"/>
+      <c r="E81" s="169"/>
+      <c r="F81" s="170"/>
       <c r="G81" s="37" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="82" spans="1:7" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="84"/>
-      <c r="B82" s="188" t="s">
+      <c r="B82" s="182" t="s">
         <v>76</v>
       </c>
-      <c r="C82" s="189"/>
-      <c r="D82" s="184" t="s">
+      <c r="C82" s="183"/>
+      <c r="D82" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="E82" s="185"/>
-      <c r="F82" s="190"/>
+      <c r="E82" s="169"/>
+      <c r="F82" s="170"/>
       <c r="G82" s="37" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="84"/>
-      <c r="B83" s="188" t="s">
+      <c r="B83" s="182" t="s">
         <v>77</v>
       </c>
-      <c r="C83" s="189"/>
-      <c r="D83" s="184" t="s">
+      <c r="C83" s="183"/>
+      <c r="D83" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="E83" s="185"/>
-      <c r="F83" s="190"/>
+      <c r="E83" s="169"/>
+      <c r="F83" s="170"/>
       <c r="G83" s="37" t="s">
         <v>30</v>
       </c>
@@ -8832,59 +8831,59 @@
     </row>
     <row r="85" spans="1:7" s="17" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A85" s="84"/>
-      <c r="B85" s="182" t="s">
+      <c r="B85" s="193" t="s">
         <v>123</v>
       </c>
-      <c r="C85" s="183"/>
-      <c r="D85" s="184" t="s">
+      <c r="C85" s="194"/>
+      <c r="D85" s="168" t="s">
         <v>135</v>
       </c>
-      <c r="E85" s="185"/>
-      <c r="F85" s="185"/>
+      <c r="E85" s="169"/>
+      <c r="F85" s="169"/>
       <c r="G85" s="30" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="86" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="84"/>
-      <c r="B86" s="182" t="s">
+      <c r="B86" s="193" t="s">
         <v>79</v>
       </c>
-      <c r="C86" s="183"/>
-      <c r="D86" s="184" t="s">
+      <c r="C86" s="194"/>
+      <c r="D86" s="168" t="s">
         <v>124</v>
       </c>
-      <c r="E86" s="185"/>
-      <c r="F86" s="190"/>
+      <c r="E86" s="169"/>
+      <c r="F86" s="170"/>
       <c r="G86" s="30"/>
     </row>
     <row r="87" spans="1:7" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="84"/>
-      <c r="B87" s="285" t="s">
+      <c r="B87" s="202" t="s">
         <v>81</v>
       </c>
-      <c r="C87" s="286"/>
-      <c r="D87" s="287" t="s">
+      <c r="C87" s="203"/>
+      <c r="D87" s="204" t="s">
         <v>82</v>
       </c>
-      <c r="E87" s="288"/>
-      <c r="F87" s="289"/>
-      <c r="G87" s="227" t="s">
+      <c r="E87" s="205"/>
+      <c r="F87" s="206"/>
+      <c r="G87" s="178" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="88" spans="1:7" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="84"/>
-      <c r="B88" s="285" t="s">
+      <c r="B88" s="202" t="s">
         <v>83</v>
       </c>
-      <c r="C88" s="286"/>
-      <c r="D88" s="184" t="s">
+      <c r="C88" s="203"/>
+      <c r="D88" s="168" t="s">
         <v>84</v>
       </c>
-      <c r="E88" s="185"/>
-      <c r="F88" s="190"/>
-      <c r="G88" s="228"/>
+      <c r="E88" s="169"/>
+      <c r="F88" s="170"/>
+      <c r="G88" s="180"/>
     </row>
     <row r="89" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="84"/>
@@ -8899,39 +8898,39 @@
     </row>
     <row r="90" spans="1:7" s="17" customFormat="1" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="84"/>
-      <c r="B90" s="182" t="s">
+      <c r="B90" s="193" t="s">
         <v>86</v>
       </c>
-      <c r="C90" s="183"/>
-      <c r="D90" s="184" t="s">
+      <c r="C90" s="194"/>
+      <c r="D90" s="168" t="s">
         <v>203</v>
       </c>
-      <c r="E90" s="185"/>
-      <c r="F90" s="190"/>
+      <c r="E90" s="169"/>
+      <c r="F90" s="170"/>
       <c r="G90" s="37"/>
     </row>
     <row r="91" spans="1:7" s="17" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="84"/>
-      <c r="B91" s="188" t="s">
+      <c r="B91" s="182" t="s">
         <v>87</v>
       </c>
-      <c r="C91" s="189"/>
-      <c r="D91" s="184" t="s">
+      <c r="C91" s="183"/>
+      <c r="D91" s="168" t="s">
         <v>205</v>
       </c>
-      <c r="E91" s="185"/>
-      <c r="F91" s="190"/>
+      <c r="E91" s="169"/>
+      <c r="F91" s="170"/>
       <c r="G91" s="37"/>
     </row>
     <row r="92" spans="1:7" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="84"/>
-      <c r="B92" s="188" t="s">
+      <c r="B92" s="182" t="s">
         <v>88</v>
       </c>
-      <c r="C92" s="189"/>
-      <c r="D92" s="184"/>
-      <c r="E92" s="185"/>
-      <c r="F92" s="190"/>
+      <c r="C92" s="183"/>
+      <c r="D92" s="168"/>
+      <c r="E92" s="169"/>
+      <c r="F92" s="170"/>
       <c r="G92" s="30"/>
     </row>
     <row r="93" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -8947,26 +8946,26 @@
     </row>
     <row r="94" spans="1:7" s="17" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="84"/>
-      <c r="B94" s="182" t="s">
+      <c r="B94" s="193" t="s">
         <v>90</v>
       </c>
-      <c r="C94" s="183"/>
-      <c r="D94" s="184" t="s">
+      <c r="C94" s="194"/>
+      <c r="D94" s="168" t="s">
         <v>204</v>
       </c>
-      <c r="E94" s="185"/>
-      <c r="F94" s="190"/>
+      <c r="E94" s="169"/>
+      <c r="F94" s="170"/>
       <c r="G94" s="37"/>
     </row>
     <row r="95" spans="1:7" s="17" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="84"/>
-      <c r="B95" s="182" t="s">
+      <c r="B95" s="193" t="s">
         <v>91</v>
       </c>
-      <c r="C95" s="183"/>
-      <c r="D95" s="184"/>
-      <c r="E95" s="185"/>
-      <c r="F95" s="190"/>
+      <c r="C95" s="194"/>
+      <c r="D95" s="168"/>
+      <c r="E95" s="169"/>
+      <c r="F95" s="170"/>
       <c r="G95" s="30"/>
     </row>
     <row r="96" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8982,78 +8981,78 @@
     </row>
     <row r="97" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="84"/>
-      <c r="B97" s="188" t="s">
+      <c r="B97" s="182" t="s">
         <v>93</v>
       </c>
-      <c r="C97" s="189"/>
-      <c r="D97" s="184" t="s">
+      <c r="C97" s="183"/>
+      <c r="D97" s="168" t="s">
         <v>122</v>
       </c>
-      <c r="E97" s="185"/>
-      <c r="F97" s="190"/>
+      <c r="E97" s="169"/>
+      <c r="F97" s="170"/>
       <c r="G97" s="43"/>
     </row>
     <row r="98" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="84"/>
-      <c r="B98" s="188" t="s">
+      <c r="B98" s="182" t="s">
         <v>94</v>
       </c>
-      <c r="C98" s="189"/>
-      <c r="D98" s="184"/>
-      <c r="E98" s="185"/>
-      <c r="F98" s="190"/>
+      <c r="C98" s="183"/>
+      <c r="D98" s="168"/>
+      <c r="E98" s="169"/>
+      <c r="F98" s="170"/>
       <c r="G98" s="43"/>
     </row>
     <row r="99" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="84"/>
-      <c r="B99" s="188" t="s">
+      <c r="B99" s="182" t="s">
         <v>95</v>
       </c>
-      <c r="C99" s="189"/>
-      <c r="D99" s="169"/>
-      <c r="E99" s="170"/>
-      <c r="F99" s="171"/>
+      <c r="C99" s="183"/>
+      <c r="D99" s="190"/>
+      <c r="E99" s="191"/>
+      <c r="F99" s="192"/>
       <c r="G99" s="43"/>
     </row>
     <row r="100" spans="1:7" s="17" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="84"/>
-      <c r="B100" s="290" t="s">
+      <c r="B100" s="195" t="s">
         <v>96</v>
       </c>
-      <c r="C100" s="291"/>
-      <c r="D100" s="184"/>
-      <c r="E100" s="185"/>
-      <c r="F100" s="190"/>
-      <c r="G100" s="292"/>
+      <c r="C100" s="196"/>
+      <c r="D100" s="168"/>
+      <c r="E100" s="169"/>
+      <c r="F100" s="170"/>
+      <c r="G100" s="200"/>
     </row>
     <row r="101" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="44"/>
-      <c r="B101" s="188" t="s">
+      <c r="B101" s="182" t="s">
         <v>97</v>
       </c>
-      <c r="C101" s="189"/>
-      <c r="D101" s="184"/>
-      <c r="E101" s="185"/>
-      <c r="F101" s="190"/>
-      <c r="G101" s="293"/>
+      <c r="C101" s="183"/>
+      <c r="D101" s="168"/>
+      <c r="E101" s="169"/>
+      <c r="F101" s="170"/>
+      <c r="G101" s="201"/>
     </row>
     <row r="102" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="44"/>
-      <c r="B102" s="232" t="s">
+      <c r="B102" s="186" t="s">
         <v>98</v>
       </c>
-      <c r="C102" s="233"/>
-      <c r="D102" s="277"/>
-      <c r="E102" s="278"/>
-      <c r="F102" s="279"/>
+      <c r="C102" s="187"/>
+      <c r="D102" s="173"/>
+      <c r="E102" s="174"/>
+      <c r="F102" s="175"/>
       <c r="G102" s="32"/>
     </row>
     <row r="103" spans="1:7" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="211" t="s">
+      <c r="A103" s="188" t="s">
         <v>99</v>
       </c>
-      <c r="B103" s="212"/>
-      <c r="C103" s="212"/>
+      <c r="B103" s="189"/>
+      <c r="C103" s="189"/>
       <c r="D103" s="70"/>
       <c r="E103" s="70"/>
       <c r="F103" s="70"/>
@@ -9072,54 +9071,54 @@
     </row>
     <row r="105" spans="1:7" s="17" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="50"/>
-      <c r="B105" s="290" t="s">
+      <c r="B105" s="195" t="s">
         <v>100</v>
       </c>
-      <c r="C105" s="291"/>
-      <c r="D105" s="294">
+      <c r="C105" s="196"/>
+      <c r="D105" s="197">
         <v>1</v>
       </c>
-      <c r="E105" s="295"/>
-      <c r="F105" s="296"/>
+      <c r="E105" s="198"/>
+      <c r="F105" s="199"/>
       <c r="G105" s="37"/>
     </row>
     <row r="106" spans="1:7" s="17" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="50"/>
-      <c r="B106" s="188" t="s">
+      <c r="B106" s="182" t="s">
         <v>101</v>
       </c>
-      <c r="C106" s="189"/>
-      <c r="D106" s="184" t="s">
+      <c r="C106" s="183"/>
+      <c r="D106" s="168" t="s">
         <v>173</v>
       </c>
-      <c r="E106" s="185"/>
-      <c r="F106" s="190"/>
+      <c r="E106" s="169"/>
+      <c r="F106" s="170"/>
       <c r="G106" s="27"/>
     </row>
     <row r="107" spans="1:7" s="17" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="50"/>
-      <c r="B107" s="188" t="s">
+      <c r="B107" s="182" t="s">
         <v>102</v>
       </c>
-      <c r="C107" s="189"/>
-      <c r="D107" s="184" t="s">
+      <c r="C107" s="183"/>
+      <c r="D107" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="E107" s="185"/>
-      <c r="F107" s="190"/>
+      <c r="E107" s="169"/>
+      <c r="F107" s="170"/>
       <c r="G107" s="30"/>
     </row>
     <row r="108" spans="1:7" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="51"/>
-      <c r="B108" s="188" t="s">
+      <c r="B108" s="182" t="s">
         <v>103</v>
       </c>
-      <c r="C108" s="189"/>
-      <c r="D108" s="184" t="s">
+      <c r="C108" s="183"/>
+      <c r="D108" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="E108" s="185"/>
-      <c r="F108" s="190"/>
+      <c r="E108" s="169"/>
+      <c r="F108" s="170"/>
       <c r="G108" s="52"/>
     </row>
     <row r="109" spans="1:7" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9135,30 +9134,30 @@
     </row>
     <row r="110" spans="1:7" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="50"/>
-      <c r="B110" s="182" t="s">
+      <c r="B110" s="193" t="s">
         <v>100</v>
       </c>
-      <c r="C110" s="183"/>
-      <c r="D110" s="184" t="s">
+      <c r="C110" s="194"/>
+      <c r="D110" s="168" t="s">
         <v>153</v>
       </c>
-      <c r="E110" s="185"/>
-      <c r="F110" s="190"/>
+      <c r="E110" s="169"/>
+      <c r="F110" s="170"/>
       <c r="G110" s="81" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="51"/>
-      <c r="B111" s="182" t="s">
+      <c r="B111" s="193" t="s">
         <v>101</v>
       </c>
-      <c r="C111" s="183"/>
-      <c r="D111" s="184" t="s">
+      <c r="C111" s="194"/>
+      <c r="D111" s="168" t="s">
         <v>80</v>
       </c>
-      <c r="E111" s="185"/>
-      <c r="F111" s="190"/>
+      <c r="E111" s="169"/>
+      <c r="F111" s="170"/>
       <c r="G111" s="52"/>
     </row>
     <row r="112" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -9174,36 +9173,36 @@
     </row>
     <row r="113" spans="1:7" s="17" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="50"/>
-      <c r="B113" s="188" t="s">
+      <c r="B113" s="182" t="s">
         <v>106</v>
       </c>
-      <c r="C113" s="189"/>
-      <c r="D113" s="184" t="s">
+      <c r="C113" s="183"/>
+      <c r="D113" s="168" t="s">
         <v>122</v>
       </c>
-      <c r="E113" s="216"/>
-      <c r="F113" s="217"/>
+      <c r="E113" s="184"/>
+      <c r="F113" s="185"/>
       <c r="G113" s="37" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="56"/>
-      <c r="B114" s="232" t="s">
+      <c r="B114" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="C114" s="233"/>
-      <c r="D114" s="277"/>
-      <c r="E114" s="278"/>
-      <c r="F114" s="279"/>
+      <c r="C114" s="187"/>
+      <c r="D114" s="173"/>
+      <c r="E114" s="174"/>
+      <c r="F114" s="175"/>
       <c r="G114" s="57"/>
     </row>
     <row r="115" spans="1:7" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="211" t="s">
+      <c r="A115" s="188" t="s">
         <v>107</v>
       </c>
-      <c r="B115" s="212"/>
-      <c r="C115" s="212"/>
+      <c r="B115" s="189"/>
+      <c r="C115" s="189"/>
       <c r="D115" s="70"/>
       <c r="E115" s="70"/>
       <c r="F115" s="70"/>
@@ -9222,67 +9221,67 @@
     </row>
     <row r="117" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="51"/>
-      <c r="B117" s="298" t="s">
+      <c r="B117" s="166" t="s">
         <v>109</v>
       </c>
-      <c r="C117" s="299"/>
-      <c r="D117" s="169" t="s">
+      <c r="C117" s="181"/>
+      <c r="D117" s="190" t="s">
         <v>122</v>
       </c>
-      <c r="E117" s="170"/>
-      <c r="F117" s="171"/>
-      <c r="G117" s="227"/>
+      <c r="E117" s="191"/>
+      <c r="F117" s="192"/>
+      <c r="G117" s="178"/>
     </row>
     <row r="118" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="51"/>
-      <c r="B118" s="298" t="s">
+      <c r="B118" s="166" t="s">
         <v>110</v>
       </c>
-      <c r="C118" s="299"/>
-      <c r="D118" s="169"/>
-      <c r="E118" s="170"/>
-      <c r="F118" s="171"/>
-      <c r="G118" s="297"/>
+      <c r="C118" s="181"/>
+      <c r="D118" s="190"/>
+      <c r="E118" s="191"/>
+      <c r="F118" s="192"/>
+      <c r="G118" s="179"/>
     </row>
     <row r="119" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="51"/>
-      <c r="B119" s="298" t="s">
+      <c r="B119" s="166" t="s">
         <v>111</v>
       </c>
-      <c r="C119" s="299"/>
-      <c r="D119" s="169"/>
-      <c r="E119" s="170"/>
-      <c r="F119" s="171"/>
-      <c r="G119" s="297"/>
+      <c r="C119" s="181"/>
+      <c r="D119" s="190"/>
+      <c r="E119" s="191"/>
+      <c r="F119" s="192"/>
+      <c r="G119" s="179"/>
     </row>
     <row r="120" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="51"/>
-      <c r="B120" s="298" t="s">
+      <c r="B120" s="166" t="s">
         <v>112</v>
       </c>
-      <c r="C120" s="299"/>
-      <c r="D120" s="169"/>
-      <c r="E120" s="170"/>
-      <c r="F120" s="171"/>
-      <c r="G120" s="228"/>
+      <c r="C120" s="181"/>
+      <c r="D120" s="190"/>
+      <c r="E120" s="191"/>
+      <c r="F120" s="192"/>
+      <c r="G120" s="180"/>
     </row>
     <row r="121" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="51"/>
-      <c r="B121" s="298" t="s">
+      <c r="B121" s="166" t="s">
         <v>113</v>
       </c>
-      <c r="C121" s="299"/>
-      <c r="D121" s="169"/>
-      <c r="E121" s="170"/>
-      <c r="F121" s="171"/>
+      <c r="C121" s="181"/>
+      <c r="D121" s="190"/>
+      <c r="E121" s="191"/>
+      <c r="F121" s="192"/>
       <c r="G121" s="8"/>
     </row>
     <row r="122" spans="1:7" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="51"/>
-      <c r="B122" s="298" t="s">
+      <c r="B122" s="166" t="s">
         <v>114</v>
       </c>
-      <c r="C122" s="299"/>
+      <c r="C122" s="181"/>
       <c r="D122" s="89"/>
       <c r="E122" s="59"/>
       <c r="F122" s="60"/>
@@ -9301,34 +9300,34 @@
     </row>
     <row r="124" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="62"/>
-      <c r="B124" s="298" t="s">
+      <c r="B124" s="166" t="s">
         <v>116</v>
       </c>
-      <c r="C124" s="304"/>
-      <c r="D124" s="184" t="s">
+      <c r="C124" s="167"/>
+      <c r="D124" s="168" t="s">
         <v>122</v>
       </c>
-      <c r="E124" s="185"/>
-      <c r="F124" s="190"/>
+      <c r="E124" s="169"/>
+      <c r="F124" s="170"/>
       <c r="G124" s="27"/>
     </row>
     <row r="125" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="56"/>
-      <c r="B125" s="305" t="s">
+      <c r="B125" s="171" t="s">
         <v>101</v>
       </c>
-      <c r="C125" s="306"/>
-      <c r="D125" s="277"/>
-      <c r="E125" s="278"/>
-      <c r="F125" s="279"/>
+      <c r="C125" s="172"/>
+      <c r="D125" s="173"/>
+      <c r="E125" s="174"/>
+      <c r="F125" s="175"/>
       <c r="G125" s="63"/>
     </row>
     <row r="126" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="307" t="s">
+      <c r="A126" s="176" t="s">
         <v>117</v>
       </c>
-      <c r="B126" s="307"/>
-      <c r="C126" s="307"/>
+      <c r="B126" s="176"/>
+      <c r="C126" s="176"/>
       <c r="G126" s="64"/>
     </row>
     <row r="127" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -9357,23 +9356,23 @@
     </row>
     <row r="130" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="96"/>
-      <c r="B130" s="302" t="s">
+      <c r="B130" s="164" t="s">
         <v>172</v>
       </c>
-      <c r="C130" s="302"/>
-      <c r="D130" s="302"/>
-      <c r="E130" s="302"/>
-      <c r="F130" s="302"/>
+      <c r="C130" s="164"/>
+      <c r="D130" s="164"/>
+      <c r="E130" s="164"/>
+      <c r="F130" s="164"/>
     </row>
     <row r="131" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="96"/>
-      <c r="B131" s="302" t="s">
+      <c r="B131" s="164" t="s">
         <v>159</v>
       </c>
-      <c r="C131" s="302"/>
-      <c r="D131" s="302"/>
-      <c r="E131" s="302"/>
-      <c r="F131" s="302"/>
+      <c r="C131" s="164"/>
+      <c r="D131" s="164"/>
+      <c r="E131" s="164"/>
+      <c r="F131" s="164"/>
       <c r="G131" s="66"/>
     </row>
     <row r="132" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -9479,6 +9478,190 @@
     </row>
   </sheetData>
   <mergeCells count="208">
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="B131:F131"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="D121:F121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="D124:F124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="D125:F125"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="D117:F117"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="G117:G120"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="D118:F118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="D111:F111"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="D113:F113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D114:F114"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:F48"/>
+    <mergeCell ref="G45:G48"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:F40"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
     <mergeCell ref="G75:G76"/>
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="A6:C6"/>
@@ -9503,190 +9686,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:F40"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:F48"/>
-    <mergeCell ref="G45:G48"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:F77"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:F88"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="D105:F105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D100:F100"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="D101:F101"/>
-    <mergeCell ref="G117:G120"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="D118:F118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="D119:F119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="D120:F120"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="D111:F111"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="D113:F113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="D114:F114"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="B131:F131"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="D121:F121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="D124:F124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="D125:F125"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="D117:F117"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="D108:F108"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="D110:F110"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="D102:F102"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="B105:C105"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:G7 A22 A80:G80 A78:F79 A23:G27 A34:G55 A33:F33 A29:G32 A28:F28 A13:F13 A111:G125 A110:F110 G126:G132 A82:G105 A81:C81 G81 A107:G109 A106:C106 G106 A59:G72 A56:C58 G56:G58 B1:G2 A9:G12 A8:D8 G8 A73:C77 A14:G21">
     <cfRule type="containsText" dxfId="49" priority="35" operator="containsText" text="~??~">
@@ -9996,7 +9995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -10014,14 +10013,14 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="132"/>
-      <c r="B2" s="316" t="s">
+      <c r="B2" s="309" t="s">
         <v>252</v>
       </c>
-      <c r="C2" s="316"/>
-      <c r="D2" s="316" t="s">
+      <c r="C2" s="309"/>
+      <c r="D2" s="309" t="s">
         <v>251</v>
       </c>
-      <c r="E2" s="316"/>
+      <c r="E2" s="309"/>
       <c r="F2" s="8" t="s">
         <v>250</v>
       </c>
@@ -10030,14 +10029,14 @@
       <c r="A3" s="132" t="s">
         <v>249</v>
       </c>
-      <c r="B3" s="315" t="s">
+      <c r="B3" s="308" t="s">
         <v>248</v>
       </c>
-      <c r="C3" s="315"/>
-      <c r="D3" s="315" t="s">
+      <c r="C3" s="308"/>
+      <c r="D3" s="308" t="s">
         <v>247</v>
       </c>
-      <c r="E3" s="315"/>
+      <c r="E3" s="308"/>
       <c r="F3" s="8" t="s">
         <v>254</v>
       </c>
@@ -10046,12 +10045,12 @@
       <c r="A4" s="132" t="s">
         <v>246</v>
       </c>
-      <c r="B4" s="317">
+      <c r="B4" s="310">
         <v>14</v>
       </c>
-      <c r="C4" s="318"/>
-      <c r="D4" s="318"/>
-      <c r="E4" s="319"/>
+      <c r="C4" s="311"/>
+      <c r="D4" s="311"/>
+      <c r="E4" s="312"/>
       <c r="F4" s="8" t="s">
         <v>254</v>
       </c>
@@ -10060,14 +10059,14 @@
       <c r="A5" s="132" t="s">
         <v>245</v>
       </c>
-      <c r="B5" s="317">
+      <c r="B5" s="310">
         <v>2</v>
       </c>
-      <c r="C5" s="319"/>
-      <c r="D5" s="317">
+      <c r="C5" s="312"/>
+      <c r="D5" s="310">
         <v>2.5</v>
       </c>
-      <c r="E5" s="319"/>
+      <c r="E5" s="312"/>
       <c r="F5" s="8" t="s">
         <v>254</v>
       </c>
@@ -10114,12 +10113,12 @@
       <c r="A8" s="132" t="s">
         <v>243</v>
       </c>
-      <c r="B8" s="315" t="s">
+      <c r="B8" s="308" t="s">
         <v>242</v>
       </c>
-      <c r="C8" s="315"/>
-      <c r="D8" s="315"/>
-      <c r="E8" s="315"/>
+      <c r="C8" s="308"/>
+      <c r="D8" s="308"/>
+      <c r="E8" s="308"/>
       <c r="F8" s="8" t="s">
         <v>241</v>
       </c>
@@ -10226,24 +10225,24 @@
       <c r="A14" s="132" t="s">
         <v>233</v>
       </c>
-      <c r="B14" s="315">
+      <c r="B14" s="308">
         <v>35</v>
       </c>
-      <c r="C14" s="315"/>
-      <c r="D14" s="315"/>
-      <c r="E14" s="315"/>
+      <c r="C14" s="308"/>
+      <c r="D14" s="308"/>
+      <c r="E14" s="308"/>
       <c r="F14" s="133"/>
     </row>
     <row r="15" spans="1:6" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="132" t="s">
         <v>232</v>
       </c>
-      <c r="B15" s="313" t="s">
+      <c r="B15" s="306" t="s">
         <v>231</v>
       </c>
-      <c r="C15" s="314"/>
-      <c r="D15" s="314"/>
-      <c r="E15" s="314"/>
+      <c r="C15" s="307"/>
+      <c r="D15" s="307"/>
+      <c r="E15" s="307"/>
       <c r="F15" s="8" t="s">
         <v>230</v>
       </c>
@@ -10252,12 +10251,12 @@
       <c r="A16" s="132" t="s">
         <v>229</v>
       </c>
-      <c r="B16" s="313" t="s">
+      <c r="B16" s="306" t="s">
         <v>228</v>
       </c>
-      <c r="C16" s="314"/>
-      <c r="D16" s="314"/>
-      <c r="E16" s="314"/>
+      <c r="C16" s="307"/>
+      <c r="D16" s="307"/>
+      <c r="E16" s="307"/>
       <c r="F16" s="8" t="s">
         <v>225</v>
       </c>
@@ -10266,12 +10265,12 @@
       <c r="A17" s="132" t="s">
         <v>227</v>
       </c>
-      <c r="B17" s="313" t="s">
+      <c r="B17" s="306" t="s">
         <v>226</v>
       </c>
-      <c r="C17" s="314"/>
-      <c r="D17" s="314"/>
-      <c r="E17" s="314"/>
+      <c r="C17" s="307"/>
+      <c r="D17" s="307"/>
+      <c r="E17" s="307"/>
       <c r="F17" s="8" t="s">
         <v>225</v>
       </c>
@@ -10280,12 +10279,12 @@
       <c r="A18" s="132" t="s">
         <v>219</v>
       </c>
-      <c r="B18" s="315" t="s">
+      <c r="B18" s="308" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="315"/>
-      <c r="D18" s="315"/>
-      <c r="E18" s="315"/>
+      <c r="C18" s="308"/>
+      <c r="D18" s="308"/>
+      <c r="E18" s="308"/>
       <c r="F18" s="8"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -10294,7 +10293,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="164" t="s">
+      <c r="A23" s="157" t="s">
         <v>222</v>
       </c>
       <c r="B23" s="130" t="s">
@@ -10308,7 +10307,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="165" t="s">
+      <c r="A24" s="158" t="s">
         <v>264</v>
       </c>
       <c r="B24" s="128">
@@ -10322,7 +10321,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="165" t="s">
+      <c r="A25" s="158" t="s">
         <v>265</v>
       </c>
       <c r="B25" s="128">
@@ -10333,7 +10332,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="165" t="s">
+      <c r="A26" s="158" t="s">
         <v>267</v>
       </c>
     </row>
@@ -10439,68 +10438,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P39" sqref="P39"/>
+      <selection pane="bottomRight" activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="162" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" style="155" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" style="163" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" style="163" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" style="163" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" style="163" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.28515625" style="163" customWidth="1"/>
-    <col min="8" max="9" width="5.140625" style="163" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="162" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="162" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="162" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="162" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" style="162" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" style="162" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" style="156" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" style="156" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" style="156" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="156" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" style="156" customWidth="1"/>
+    <col min="8" max="9" width="5.140625" style="156" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="155" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="155" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="155" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="155" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" style="155" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" style="155" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="168" customFormat="1" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="321" t="s">
+    <row r="1" spans="1:17" s="161" customFormat="1" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="314" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="323" t="s">
+      <c r="B1" s="316" t="s">
         <v>269</v>
       </c>
-      <c r="C1" s="320" t="s">
+      <c r="C1" s="313" t="s">
         <v>284</v>
       </c>
-      <c r="D1" s="320"/>
-      <c r="E1" s="320"/>
-      <c r="F1" s="320" t="s">
+      <c r="D1" s="313"/>
+      <c r="E1" s="313"/>
+      <c r="F1" s="313" t="s">
         <v>270</v>
       </c>
-      <c r="G1" s="320"/>
-      <c r="H1" s="320" t="s">
+      <c r="G1" s="313"/>
+      <c r="H1" s="313" t="s">
         <v>271</v>
       </c>
-      <c r="I1" s="320"/>
-      <c r="J1" s="320" t="s">
+      <c r="I1" s="313"/>
+      <c r="J1" s="313" t="s">
         <v>285</v>
       </c>
-      <c r="K1" s="320"/>
-      <c r="L1" s="320"/>
-      <c r="M1" s="320"/>
-      <c r="N1" s="320"/>
-      <c r="O1" s="320"/>
-      <c r="P1" s="320" t="s">
+      <c r="K1" s="313"/>
+      <c r="L1" s="313"/>
+      <c r="M1" s="313"/>
+      <c r="N1" s="313"/>
+      <c r="O1" s="313"/>
+      <c r="P1" s="313" t="s">
         <v>286</v>
       </c>
-      <c r="Q1" s="320"/>
+      <c r="Q1" s="313"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="322"/>
-      <c r="B2" s="323"/>
+      <c r="A2" s="315"/>
+      <c r="B2" s="316"/>
       <c r="C2" s="138" t="s">
         <v>272</v>
       </c>
@@ -10568,32 +10567,32 @@
       </c>
       <c r="I3" s="146"/>
       <c r="J3" s="147">
-        <v>72</v>
-      </c>
-      <c r="K3" s="148">
-        <v>88</v>
-      </c>
-      <c r="L3" s="149">
+        <v>55</v>
+      </c>
+      <c r="K3" s="317">
+        <v>77.158664455867196</v>
+      </c>
+      <c r="L3" s="318">
         <f>K3-J3</f>
-        <v>16</v>
-      </c>
-      <c r="M3" s="148">
-        <v>119</v>
-      </c>
-      <c r="N3" s="148">
-        <v>106</v>
-      </c>
-      <c r="O3" s="150">
+        <v>22.158664455867196</v>
+      </c>
+      <c r="M3" s="317">
+        <v>95.087010379481754</v>
+      </c>
+      <c r="N3" s="317">
+        <v>88.051397995286322</v>
+      </c>
+      <c r="O3" s="159">
         <f>N3-M3</f>
-        <v>-13</v>
-      </c>
-      <c r="P3" s="166">
+        <v>-7.0356123841954314</v>
+      </c>
+      <c r="P3" s="159">
         <f>L3/1.8</f>
-        <v>8.8888888888888893</v>
-      </c>
-      <c r="Q3" s="166">
+        <v>12.310369142148442</v>
+      </c>
+      <c r="Q3" s="159">
         <f>O3/1.8</f>
-        <v>-7.2222222222222223</v>
+        <v>-3.9086735467752396</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -10616,33 +10615,33 @@
       <c r="I4" s="146" t="s">
         <v>281</v>
       </c>
-      <c r="J4" s="151">
-        <v>72</v>
-      </c>
-      <c r="K4" s="152">
-        <v>86</v>
-      </c>
-      <c r="L4" s="153">
+      <c r="J4" s="148">
+        <v>55</v>
+      </c>
+      <c r="K4" s="319">
+        <v>72.327087359125585</v>
+      </c>
+      <c r="L4" s="320">
         <f t="shared" ref="L4:L50" si="0">K4-J4</f>
-        <v>14</v>
-      </c>
-      <c r="M4" s="152">
-        <v>104</v>
-      </c>
-      <c r="N4" s="152">
-        <v>91</v>
-      </c>
-      <c r="O4" s="150">
+        <v>17.327087359125585</v>
+      </c>
+      <c r="M4" s="319">
+        <v>91.967064162415156</v>
+      </c>
+      <c r="N4" s="319">
+        <v>74.222242168884293</v>
+      </c>
+      <c r="O4" s="159">
         <f t="shared" ref="O4:O50" si="1">N4-M4</f>
-        <v>-13</v>
-      </c>
-      <c r="P4" s="166">
+        <v>-17.744821993530863</v>
+      </c>
+      <c r="P4" s="159">
         <f t="shared" ref="P4:P50" si="2">L4/1.8</f>
-        <v>7.7777777777777777</v>
-      </c>
-      <c r="Q4" s="166">
+        <v>9.6261596439586583</v>
+      </c>
+      <c r="Q4" s="159">
         <f t="shared" ref="Q4:Q50" si="3">O4/1.8</f>
-        <v>-7.2222222222222223</v>
+        <v>-9.8582344408504792</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -10658,89 +10657,89 @@
       <c r="D5" s="146"/>
       <c r="E5" s="146"/>
       <c r="F5" s="146"/>
-      <c r="G5" s="154" t="s">
+      <c r="G5" s="149" t="s">
         <v>281</v>
       </c>
       <c r="H5" s="146" t="s">
         <v>281</v>
       </c>
       <c r="I5" s="146"/>
-      <c r="J5" s="151">
-        <v>72</v>
-      </c>
-      <c r="K5" s="152">
-        <v>88</v>
-      </c>
-      <c r="L5" s="153">
+      <c r="J5" s="148">
+        <v>55</v>
+      </c>
+      <c r="K5" s="319">
+        <v>75.918184448390363</v>
+      </c>
+      <c r="L5" s="320">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="M5" s="152">
-        <v>122</v>
-      </c>
-      <c r="N5" s="152">
-        <v>109</v>
-      </c>
-      <c r="O5" s="150">
+        <v>20.918184448390363</v>
+      </c>
+      <c r="M5" s="319">
+        <v>93.973993589362337</v>
+      </c>
+      <c r="N5" s="319">
+        <v>86.691291511048234</v>
+      </c>
+      <c r="O5" s="159">
         <f t="shared" si="1"/>
-        <v>-13</v>
-      </c>
-      <c r="P5" s="166">
+        <v>-7.2827020783141023</v>
+      </c>
+      <c r="P5" s="159">
         <f t="shared" si="2"/>
-        <v>8.8888888888888893</v>
-      </c>
-      <c r="Q5" s="166">
+        <v>11.62121358243909</v>
+      </c>
+      <c r="Q5" s="159">
         <f t="shared" si="3"/>
-        <v>-7.2222222222222223</v>
+        <v>-4.0459455990633897</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="155">
+      <c r="A6" s="150">
         <v>4</v>
       </c>
-      <c r="B6" s="156">
+      <c r="B6" s="151">
         <v>24</v>
       </c>
-      <c r="C6" s="157" t="s">
-        <v>281</v>
-      </c>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="158" t="s">
-        <v>281</v>
-      </c>
-      <c r="H6" s="157"/>
-      <c r="I6" s="157" t="s">
-        <v>281</v>
-      </c>
-      <c r="J6" s="159">
-        <v>72</v>
-      </c>
-      <c r="K6" s="160">
-        <v>85</v>
-      </c>
-      <c r="L6" s="161">
+      <c r="C6" s="152" t="s">
+        <v>281</v>
+      </c>
+      <c r="D6" s="152"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="153" t="s">
+        <v>281</v>
+      </c>
+      <c r="H6" s="152"/>
+      <c r="I6" s="152" t="s">
+        <v>281</v>
+      </c>
+      <c r="J6" s="154">
+        <v>55</v>
+      </c>
+      <c r="K6" s="321">
+        <v>70.835212234323691</v>
+      </c>
+      <c r="L6" s="322">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="M6" s="160">
-        <v>106</v>
-      </c>
-      <c r="N6" s="160">
-        <v>94</v>
-      </c>
-      <c r="O6" s="150">
+        <v>15.835212234323691</v>
+      </c>
+      <c r="M6" s="321">
+        <v>91.02998944282281</v>
+      </c>
+      <c r="N6" s="321">
+        <v>72.968249160649037</v>
+      </c>
+      <c r="O6" s="160">
         <f t="shared" si="1"/>
-        <v>-12</v>
-      </c>
-      <c r="P6" s="167">
+        <v>-18.061740282173773</v>
+      </c>
+      <c r="P6" s="160">
         <f t="shared" si="2"/>
-        <v>7.2222222222222223</v>
-      </c>
-      <c r="Q6" s="167">
+        <v>8.797340130179828</v>
+      </c>
+      <c r="Q6" s="160">
         <f t="shared" si="3"/>
-        <v>-6.6666666666666661</v>
+        <v>-10.034300156763207</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -10763,33 +10762,33 @@
         <v>281</v>
       </c>
       <c r="I7" s="146"/>
-      <c r="J7" s="151">
-        <v>72</v>
-      </c>
-      <c r="K7" s="152">
-        <v>80</v>
-      </c>
-      <c r="L7" s="153">
+      <c r="J7" s="148">
+        <v>55</v>
+      </c>
+      <c r="K7" s="319">
+        <v>68.028415867501579</v>
+      </c>
+      <c r="L7" s="320">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="M7" s="152">
-        <v>109</v>
-      </c>
-      <c r="N7" s="152">
-        <v>102</v>
-      </c>
-      <c r="O7" s="150">
+        <v>13.028415867501579</v>
+      </c>
+      <c r="M7" s="319">
+        <v>88.651497017834131</v>
+      </c>
+      <c r="N7" s="319">
+        <v>83.509391422874302</v>
+      </c>
+      <c r="O7" s="159">
         <f t="shared" si="1"/>
-        <v>-7</v>
-      </c>
-      <c r="P7" s="166">
+        <v>-5.1421055949598298</v>
+      </c>
+      <c r="P7" s="159">
         <f t="shared" si="2"/>
-        <v>4.4444444444444446</v>
-      </c>
-      <c r="Q7" s="166">
+        <v>7.238008815278655</v>
+      </c>
+      <c r="Q7" s="159">
         <f t="shared" si="3"/>
-        <v>-3.8888888888888888</v>
+        <v>-2.8567253305332385</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -10812,33 +10811,33 @@
       <c r="I8" s="146" t="s">
         <v>281</v>
       </c>
-      <c r="J8" s="151">
-        <v>72</v>
-      </c>
-      <c r="K8" s="152">
-        <v>79</v>
-      </c>
-      <c r="L8" s="153">
+      <c r="J8" s="148">
+        <v>55</v>
+      </c>
+      <c r="K8" s="319">
+        <v>59.75541584619161</v>
+      </c>
+      <c r="L8" s="320">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="M8" s="152">
-        <v>96</v>
-      </c>
-      <c r="N8" s="152">
-        <v>89</v>
-      </c>
-      <c r="O8" s="150">
+        <v>4.7554158461916103</v>
+      </c>
+      <c r="M8" s="319">
+        <v>82.533830405044299</v>
+      </c>
+      <c r="N8" s="319">
+        <v>71.299679221498593</v>
+      </c>
+      <c r="O8" s="159">
         <f t="shared" si="1"/>
-        <v>-7</v>
-      </c>
-      <c r="P8" s="166">
+        <v>-11.234151183545706</v>
+      </c>
+      <c r="P8" s="159">
         <f t="shared" si="2"/>
-        <v>3.8888888888888888</v>
-      </c>
-      <c r="Q8" s="166">
+        <v>2.6418976923286723</v>
+      </c>
+      <c r="Q8" s="159">
         <f t="shared" si="3"/>
-        <v>-3.8888888888888888</v>
+        <v>-6.2411951019698364</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -10854,89 +10853,89 @@
       </c>
       <c r="E9" s="146"/>
       <c r="F9" s="146"/>
-      <c r="G9" s="154" t="s">
+      <c r="G9" s="149" t="s">
         <v>281</v>
       </c>
       <c r="H9" s="146" t="s">
         <v>281</v>
       </c>
       <c r="I9" s="146"/>
-      <c r="J9" s="151">
-        <v>72</v>
-      </c>
-      <c r="K9" s="152">
-        <v>79</v>
-      </c>
-      <c r="L9" s="153">
+      <c r="J9" s="148">
+        <v>55</v>
+      </c>
+      <c r="K9" s="319">
+        <v>66.800990197403721</v>
+      </c>
+      <c r="L9" s="320">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="M9" s="152">
-        <v>112</v>
-      </c>
-      <c r="N9" s="152">
-        <v>106</v>
-      </c>
-      <c r="O9" s="150">
+        <v>11.800990197403721</v>
+      </c>
+      <c r="M9" s="319">
+        <v>87.947944409566958</v>
+      </c>
+      <c r="N9" s="319">
+        <v>81.520943107521603</v>
+      </c>
+      <c r="O9" s="159">
         <f t="shared" si="1"/>
-        <v>-6</v>
-      </c>
-      <c r="P9" s="166">
+        <v>-6.4270013020453547</v>
+      </c>
+      <c r="P9" s="159">
         <f t="shared" si="2"/>
-        <v>3.8888888888888888</v>
-      </c>
-      <c r="Q9" s="166">
+        <v>6.5561056652242886</v>
+      </c>
+      <c r="Q9" s="159">
         <f t="shared" si="3"/>
-        <v>-3.333333333333333</v>
+        <v>-3.5705562789140859</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="155">
+      <c r="A10" s="150">
         <v>8</v>
       </c>
-      <c r="B10" s="156">
+      <c r="B10" s="151">
         <v>24</v>
       </c>
-      <c r="C10" s="157"/>
-      <c r="D10" s="157" t="s">
-        <v>281</v>
-      </c>
-      <c r="E10" s="157"/>
-      <c r="F10" s="157"/>
-      <c r="G10" s="158" t="s">
-        <v>281</v>
-      </c>
-      <c r="H10" s="157"/>
-      <c r="I10" s="157" t="s">
-        <v>281</v>
-      </c>
-      <c r="J10" s="159">
-        <v>72</v>
-      </c>
-      <c r="K10" s="160">
-        <v>77</v>
-      </c>
-      <c r="L10" s="161">
+      <c r="C10" s="152"/>
+      <c r="D10" s="152" t="s">
+        <v>281</v>
+      </c>
+      <c r="E10" s="152"/>
+      <c r="F10" s="152"/>
+      <c r="G10" s="153" t="s">
+        <v>281</v>
+      </c>
+      <c r="H10" s="152"/>
+      <c r="I10" s="152" t="s">
+        <v>281</v>
+      </c>
+      <c r="J10" s="154">
+        <v>55</v>
+      </c>
+      <c r="K10" s="321">
+        <v>59.134127081799477</v>
+      </c>
+      <c r="L10" s="322">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="M10" s="160">
-        <v>98</v>
-      </c>
-      <c r="N10" s="160">
-        <v>92</v>
-      </c>
-      <c r="O10" s="150">
+        <v>4.1341270817994769</v>
+      </c>
+      <c r="M10" s="321">
+        <v>82.041246011774362</v>
+      </c>
+      <c r="N10" s="321">
+        <v>70.215184499782495</v>
+      </c>
+      <c r="O10" s="160">
         <f t="shared" si="1"/>
-        <v>-6</v>
-      </c>
-      <c r="P10" s="167">
+        <v>-11.826061511991867</v>
+      </c>
+      <c r="P10" s="160">
         <f t="shared" si="2"/>
-        <v>2.7777777777777777</v>
-      </c>
-      <c r="Q10" s="167">
+        <v>2.296737267666376</v>
+      </c>
+      <c r="Q10" s="160">
         <f t="shared" si="3"/>
-        <v>-3.333333333333333</v>
+        <v>-6.570034173328815</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -10959,33 +10958,33 @@
         <v>281</v>
       </c>
       <c r="I11" s="146"/>
-      <c r="J11" s="151">
-        <v>72</v>
-      </c>
-      <c r="K11" s="152">
-        <v>83</v>
-      </c>
-      <c r="L11" s="153">
+      <c r="J11" s="148">
+        <v>55</v>
+      </c>
+      <c r="K11" s="319">
+        <v>70.593544220000879</v>
+      </c>
+      <c r="L11" s="320">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="M11" s="152">
-        <v>110</v>
-      </c>
-      <c r="N11" s="152">
-        <v>104</v>
-      </c>
-      <c r="O11" s="150">
+        <v>15.593544220000879</v>
+      </c>
+      <c r="M11" s="319">
+        <v>89.839176000724578</v>
+      </c>
+      <c r="N11" s="319">
+        <v>85.921832160730659</v>
+      </c>
+      <c r="O11" s="159">
         <f t="shared" si="1"/>
-        <v>-6</v>
-      </c>
-      <c r="P11" s="166">
+        <v>-3.9173438399939187</v>
+      </c>
+      <c r="P11" s="159">
         <f t="shared" si="2"/>
-        <v>6.1111111111111107</v>
-      </c>
-      <c r="Q11" s="166">
+        <v>8.663080122222711</v>
+      </c>
+      <c r="Q11" s="159">
         <f t="shared" si="3"/>
-        <v>-3.333333333333333</v>
+        <v>-2.1763021333299548</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -11008,33 +11007,33 @@
       <c r="I12" s="146" t="s">
         <v>281</v>
       </c>
-      <c r="J12" s="151">
-        <v>72</v>
-      </c>
-      <c r="K12" s="152">
-        <v>81</v>
-      </c>
-      <c r="L12" s="153">
+      <c r="J12" s="148">
+        <v>55</v>
+      </c>
+      <c r="K12" s="319">
+        <v>62.792360271569542</v>
+      </c>
+      <c r="L12" s="320">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="M12" s="152">
-        <v>97</v>
-      </c>
-      <c r="N12" s="152">
-        <v>91</v>
-      </c>
-      <c r="O12" s="150">
+        <v>7.7923602715695424</v>
+      </c>
+      <c r="M12" s="319">
+        <v>82.269987092669396</v>
+      </c>
+      <c r="N12" s="319">
+        <v>72.690455897185899</v>
+      </c>
+      <c r="O12" s="159">
         <f t="shared" si="1"/>
-        <v>-6</v>
-      </c>
-      <c r="P12" s="166">
+        <v>-9.5795311954834972</v>
+      </c>
+      <c r="P12" s="159">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="Q12" s="166">
+        <v>4.3290890397608566</v>
+      </c>
+      <c r="Q12" s="159">
         <f t="shared" si="3"/>
-        <v>-3.333333333333333</v>
+        <v>-5.3219617752686093</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -11050,89 +11049,89 @@
         <v>281</v>
       </c>
       <c r="F13" s="146"/>
-      <c r="G13" s="154" t="s">
+      <c r="G13" s="149" t="s">
         <v>281</v>
       </c>
       <c r="H13" s="146" t="s">
         <v>281</v>
       </c>
       <c r="I13" s="146"/>
-      <c r="J13" s="151">
-        <v>72</v>
-      </c>
-      <c r="K13" s="152">
-        <v>82</v>
-      </c>
-      <c r="L13" s="153">
+      <c r="J13" s="148">
+        <v>55</v>
+      </c>
+      <c r="K13" s="319">
+        <v>69.572778996869204</v>
+      </c>
+      <c r="L13" s="320">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="M13" s="152">
-        <v>112</v>
-      </c>
-      <c r="N13" s="152">
-        <v>107</v>
-      </c>
-      <c r="O13" s="150">
+        <v>14.572778996869204</v>
+      </c>
+      <c r="M13" s="319">
+        <v>90.436423923034383</v>
+      </c>
+      <c r="N13" s="319">
+        <v>84.991877217371879</v>
+      </c>
+      <c r="O13" s="159">
         <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="P13" s="166">
+        <v>-5.4445467056625034</v>
+      </c>
+      <c r="P13" s="159">
         <f t="shared" si="2"/>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="Q13" s="166">
+        <v>8.0959883315940022</v>
+      </c>
+      <c r="Q13" s="159">
         <f t="shared" si="3"/>
-        <v>-2.7777777777777777</v>
+        <v>-3.0247481698125016</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="155">
+      <c r="A14" s="150">
         <v>12</v>
       </c>
-      <c r="B14" s="156">
+      <c r="B14" s="151">
         <v>24</v>
       </c>
-      <c r="C14" s="157"/>
-      <c r="D14" s="157"/>
-      <c r="E14" s="157" t="s">
-        <v>281</v>
-      </c>
-      <c r="F14" s="157"/>
-      <c r="G14" s="158" t="s">
-        <v>281</v>
-      </c>
-      <c r="H14" s="157"/>
-      <c r="I14" s="157" t="s">
-        <v>281</v>
-      </c>
-      <c r="J14" s="159">
-        <v>72</v>
-      </c>
-      <c r="K14" s="160">
-        <v>80</v>
-      </c>
-      <c r="L14" s="161">
+      <c r="C14" s="152"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152" t="s">
+        <v>281</v>
+      </c>
+      <c r="F14" s="152"/>
+      <c r="G14" s="153" t="s">
+        <v>281</v>
+      </c>
+      <c r="H14" s="152"/>
+      <c r="I14" s="152" t="s">
+        <v>281</v>
+      </c>
+      <c r="J14" s="154">
+        <v>55</v>
+      </c>
+      <c r="K14" s="321">
+        <v>61.79360194312288</v>
+      </c>
+      <c r="L14" s="322">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="M14" s="160">
-        <v>99</v>
-      </c>
-      <c r="N14" s="160">
-        <v>93</v>
-      </c>
-      <c r="O14" s="150">
+        <v>6.79360194312288</v>
+      </c>
+      <c r="M14" s="321">
+        <v>81.729497879216339</v>
+      </c>
+      <c r="N14" s="321">
+        <v>71.532479163299655</v>
+      </c>
+      <c r="O14" s="160">
         <f t="shared" si="1"/>
-        <v>-6</v>
-      </c>
-      <c r="P14" s="167">
+        <v>-10.197018715916684</v>
+      </c>
+      <c r="P14" s="160">
         <f t="shared" si="2"/>
-        <v>4.4444444444444446</v>
-      </c>
-      <c r="Q14" s="167">
+        <v>3.7742233017349331</v>
+      </c>
+      <c r="Q14" s="160">
         <f t="shared" si="3"/>
-        <v>-3.333333333333333</v>
+        <v>-5.665010397731491</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -11155,33 +11154,33 @@
         <v>281</v>
       </c>
       <c r="I15" s="146"/>
-      <c r="J15" s="151">
-        <v>72</v>
-      </c>
-      <c r="K15" s="152">
-        <v>88</v>
-      </c>
-      <c r="L15" s="153">
+      <c r="J15" s="148">
+        <v>55</v>
+      </c>
+      <c r="K15" s="319">
+        <v>76.727928075772539</v>
+      </c>
+      <c r="L15" s="320">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="M15" s="152">
-        <v>118</v>
-      </c>
-      <c r="N15" s="152">
-        <v>105</v>
-      </c>
-      <c r="O15" s="150">
+        <v>21.727928075772539</v>
+      </c>
+      <c r="M15" s="319">
+        <v>94.589600008025158</v>
+      </c>
+      <c r="N15" s="319">
+        <v>87.449019398615093</v>
+      </c>
+      <c r="O15" s="159">
         <f t="shared" si="1"/>
-        <v>-13</v>
-      </c>
-      <c r="P15" s="166">
+        <v>-7.1405806094100654</v>
+      </c>
+      <c r="P15" s="159">
         <f t="shared" si="2"/>
-        <v>8.8888888888888893</v>
-      </c>
-      <c r="Q15" s="166">
+        <v>12.071071153206965</v>
+      </c>
+      <c r="Q15" s="159">
         <f t="shared" si="3"/>
-        <v>-7.2222222222222223</v>
+        <v>-3.9669892274500365</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -11204,33 +11203,33 @@
       <c r="I16" s="146" t="s">
         <v>281</v>
       </c>
-      <c r="J16" s="151">
-        <v>72</v>
-      </c>
-      <c r="K16" s="152">
-        <v>85</v>
-      </c>
-      <c r="L16" s="153">
+      <c r="J16" s="148">
+        <v>55</v>
+      </c>
+      <c r="K16" s="319">
+        <v>71.910772454956586</v>
+      </c>
+      <c r="L16" s="320">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="M16" s="152">
-        <v>103</v>
-      </c>
-      <c r="N16" s="152">
-        <v>91</v>
-      </c>
-      <c r="O16" s="150">
+        <v>16.910772454956586</v>
+      </c>
+      <c r="M16" s="319">
+        <v>91.553554780654764</v>
+      </c>
+      <c r="N16" s="319">
+        <v>73.46102708903058</v>
+      </c>
+      <c r="O16" s="159">
         <f t="shared" si="1"/>
-        <v>-12</v>
-      </c>
-      <c r="P16" s="166">
+        <v>-18.092527691624184</v>
+      </c>
+      <c r="P16" s="159">
         <f t="shared" si="2"/>
-        <v>7.2222222222222223</v>
-      </c>
-      <c r="Q16" s="166">
+        <v>9.3948735860869927</v>
+      </c>
+      <c r="Q16" s="159">
         <f t="shared" si="3"/>
-        <v>-6.6666666666666661</v>
+        <v>-10.051404273124547</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -11246,89 +11245,89 @@
       <c r="D17" s="146"/>
       <c r="E17" s="146"/>
       <c r="F17" s="146"/>
-      <c r="G17" s="154" t="s">
+      <c r="G17" s="149" t="s">
         <v>281</v>
       </c>
       <c r="H17" s="146" t="s">
         <v>281</v>
       </c>
       <c r="I17" s="146"/>
-      <c r="J17" s="151">
-        <v>72</v>
-      </c>
-      <c r="K17" s="152">
-        <v>87</v>
-      </c>
-      <c r="L17" s="153">
+      <c r="J17" s="148">
+        <v>55</v>
+      </c>
+      <c r="K17" s="319">
+        <v>75.44356280929739</v>
+      </c>
+      <c r="L17" s="320">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="M17" s="152">
-        <v>120</v>
-      </c>
-      <c r="N17" s="152">
-        <v>108</v>
-      </c>
-      <c r="O17" s="150">
+        <v>20.44356280929739</v>
+      </c>
+      <c r="M17" s="319">
+        <v>93.505601621353136</v>
+      </c>
+      <c r="N17" s="319">
+        <v>85.951396687015531</v>
+      </c>
+      <c r="O17" s="159">
         <f t="shared" si="1"/>
-        <v>-12</v>
-      </c>
-      <c r="P17" s="166">
+        <v>-7.554204934337605</v>
+      </c>
+      <c r="P17" s="159">
         <f t="shared" si="2"/>
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="Q17" s="166">
+        <v>11.357534894054105</v>
+      </c>
+      <c r="Q17" s="159">
         <f t="shared" si="3"/>
-        <v>-6.6666666666666661</v>
+        <v>-4.1967805190764471</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="155">
+      <c r="A18" s="150">
         <v>16</v>
       </c>
-      <c r="B18" s="156">
+      <c r="B18" s="151">
         <v>60</v>
       </c>
-      <c r="C18" s="157" t="s">
-        <v>281</v>
-      </c>
-      <c r="D18" s="157"/>
-      <c r="E18" s="157"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="158" t="s">
-        <v>281</v>
-      </c>
-      <c r="H18" s="157"/>
-      <c r="I18" s="157" t="s">
-        <v>281</v>
-      </c>
-      <c r="J18" s="159">
-        <v>72</v>
-      </c>
-      <c r="K18" s="160">
-        <v>84</v>
-      </c>
-      <c r="L18" s="161">
+      <c r="C18" s="152" t="s">
+        <v>281</v>
+      </c>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="153" t="s">
+        <v>281</v>
+      </c>
+      <c r="H18" s="152"/>
+      <c r="I18" s="152" t="s">
+        <v>281</v>
+      </c>
+      <c r="J18" s="154">
+        <v>55</v>
+      </c>
+      <c r="K18" s="321">
+        <v>70.343946399867093</v>
+      </c>
+      <c r="L18" s="322">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="M18" s="160">
-        <v>105</v>
-      </c>
-      <c r="N18" s="160">
-        <v>94</v>
-      </c>
-      <c r="O18" s="150">
+        <v>15.343946399867093</v>
+      </c>
+      <c r="M18" s="321">
+        <v>90.612549729378244</v>
+      </c>
+      <c r="N18" s="321">
+        <v>72.194398281047171</v>
+      </c>
+      <c r="O18" s="160">
         <f t="shared" si="1"/>
-        <v>-11</v>
-      </c>
-      <c r="P18" s="167">
+        <v>-18.418151448331074</v>
+      </c>
+      <c r="P18" s="160">
         <f t="shared" si="2"/>
-        <v>6.6666666666666661</v>
-      </c>
-      <c r="Q18" s="167">
+        <v>8.5244146665928291</v>
+      </c>
+      <c r="Q18" s="160">
         <f t="shared" si="3"/>
-        <v>-6.1111111111111107</v>
+        <v>-10.23230636018393</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -11351,33 +11350,33 @@
         <v>281</v>
       </c>
       <c r="I19" s="146"/>
-      <c r="J19" s="151">
-        <v>72</v>
-      </c>
-      <c r="K19" s="152">
-        <v>80</v>
-      </c>
-      <c r="L19" s="153">
+      <c r="J19" s="148">
+        <v>55</v>
+      </c>
+      <c r="K19" s="319">
+        <v>67.533886289095861</v>
+      </c>
+      <c r="L19" s="320">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="M19" s="152">
-        <v>108</v>
-      </c>
-      <c r="N19" s="152">
-        <v>101</v>
-      </c>
-      <c r="O19" s="150">
+        <v>12.533886289095861</v>
+      </c>
+      <c r="M19" s="319">
+        <v>88.237218178603484</v>
+      </c>
+      <c r="N19" s="319">
+        <v>82.853873440047835</v>
+      </c>
+      <c r="O19" s="159">
         <f t="shared" si="1"/>
-        <v>-7</v>
-      </c>
-      <c r="P19" s="166">
+        <v>-5.3833447385556497</v>
+      </c>
+      <c r="P19" s="159">
         <f t="shared" si="2"/>
-        <v>4.4444444444444446</v>
-      </c>
-      <c r="Q19" s="166">
+        <v>6.9632701606088112</v>
+      </c>
+      <c r="Q19" s="159">
         <f t="shared" si="3"/>
-        <v>-3.8888888888888888</v>
+        <v>-2.990747076975361</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -11400,33 +11399,33 @@
       <c r="I20" s="146" t="s">
         <v>281</v>
       </c>
-      <c r="J20" s="151">
-        <v>72</v>
-      </c>
-      <c r="K20" s="152">
-        <v>78</v>
-      </c>
-      <c r="L20" s="153">
+      <c r="J20" s="148">
+        <v>55</v>
+      </c>
+      <c r="K20" s="319">
+        <v>59.256363569497331</v>
+      </c>
+      <c r="L20" s="320">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="M20" s="152">
-        <v>95</v>
-      </c>
-      <c r="N20" s="152">
-        <v>89</v>
-      </c>
-      <c r="O20" s="150">
+        <v>4.2563635694973314</v>
+      </c>
+      <c r="M20" s="319">
+        <v>81.38224272044107</v>
+      </c>
+      <c r="N20" s="319">
+        <v>70.119967956108582</v>
+      </c>
+      <c r="O20" s="159">
         <f t="shared" si="1"/>
-        <v>-6</v>
-      </c>
-      <c r="P20" s="166">
+        <v>-11.262274764332489</v>
+      </c>
+      <c r="P20" s="159">
         <f t="shared" si="2"/>
-        <v>3.333333333333333</v>
-      </c>
-      <c r="Q20" s="166">
+        <v>2.3646464274985175</v>
+      </c>
+      <c r="Q20" s="159">
         <f t="shared" si="3"/>
-        <v>-3.333333333333333</v>
+        <v>-6.256819313518049</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -11442,89 +11441,89 @@
       </c>
       <c r="E21" s="146"/>
       <c r="F21" s="146"/>
-      <c r="G21" s="154" t="s">
+      <c r="G21" s="149" t="s">
         <v>281</v>
       </c>
       <c r="H21" s="146" t="s">
         <v>281</v>
       </c>
       <c r="I21" s="146"/>
-      <c r="J21" s="151">
-        <v>72</v>
-      </c>
-      <c r="K21" s="152">
-        <v>79</v>
-      </c>
-      <c r="L21" s="153">
+      <c r="J21" s="148">
+        <v>55</v>
+      </c>
+      <c r="K21" s="319">
+        <v>66.326375742262371</v>
+      </c>
+      <c r="L21" s="320">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="M21" s="152">
-        <v>111</v>
-      </c>
-      <c r="N21" s="152">
-        <v>106</v>
-      </c>
-      <c r="O21" s="150">
+        <v>11.326375742262371</v>
+      </c>
+      <c r="M21" s="319">
+        <v>87.504757536737031</v>
+      </c>
+      <c r="N21" s="319">
+        <v>80.903666168886062</v>
+      </c>
+      <c r="O21" s="159">
         <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="P21" s="166">
+        <v>-6.6010913678509695</v>
+      </c>
+      <c r="P21" s="159">
         <f t="shared" si="2"/>
-        <v>3.8888888888888888</v>
-      </c>
-      <c r="Q21" s="166">
+        <v>6.2924309679235391</v>
+      </c>
+      <c r="Q21" s="159">
         <f t="shared" si="3"/>
-        <v>-2.7777777777777777</v>
+        <v>-3.6672729821394272</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="155">
+      <c r="A22" s="150">
         <v>20</v>
       </c>
-      <c r="B22" s="156">
+      <c r="B22" s="151">
         <v>60</v>
       </c>
-      <c r="C22" s="157"/>
-      <c r="D22" s="157" t="s">
-        <v>281</v>
-      </c>
-      <c r="E22" s="157"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="158" t="s">
-        <v>281</v>
-      </c>
-      <c r="H22" s="157"/>
-      <c r="I22" s="157" t="s">
-        <v>281</v>
-      </c>
-      <c r="J22" s="159">
-        <v>72</v>
-      </c>
-      <c r="K22" s="160">
-        <v>76</v>
-      </c>
-      <c r="L22" s="161">
+      <c r="C22" s="152"/>
+      <c r="D22" s="152" t="s">
+        <v>281</v>
+      </c>
+      <c r="E22" s="152"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="153" t="s">
+        <v>281</v>
+      </c>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152" t="s">
+        <v>281</v>
+      </c>
+      <c r="J22" s="154">
+        <v>55</v>
+      </c>
+      <c r="K22" s="321">
+        <v>58.638263002432886</v>
+      </c>
+      <c r="L22" s="322">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="M22" s="160">
-        <v>96</v>
-      </c>
-      <c r="N22" s="160">
-        <v>92</v>
-      </c>
-      <c r="O22" s="150">
+        <v>3.6382630024328861</v>
+      </c>
+      <c r="M22" s="321">
+        <v>81.574715347828331</v>
+      </c>
+      <c r="N22" s="321">
+        <v>69.485837839294376</v>
+      </c>
+      <c r="O22" s="160">
         <f t="shared" si="1"/>
-        <v>-4</v>
-      </c>
-      <c r="P22" s="167">
+        <v>-12.088877508533955</v>
+      </c>
+      <c r="P22" s="160">
         <f t="shared" si="2"/>
-        <v>2.2222222222222223</v>
-      </c>
-      <c r="Q22" s="167">
+        <v>2.0212572235738255</v>
+      </c>
+      <c r="Q22" s="160">
         <f t="shared" si="3"/>
-        <v>-2.2222222222222223</v>
+        <v>-6.7160430602966414</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -11547,33 +11546,33 @@
         <v>281</v>
       </c>
       <c r="I23" s="146"/>
-      <c r="J23" s="151">
-        <v>72</v>
-      </c>
-      <c r="K23" s="152">
-        <v>82</v>
-      </c>
-      <c r="L23" s="153">
+      <c r="J23" s="148">
+        <v>55</v>
+      </c>
+      <c r="K23" s="319">
+        <v>70.125811403042491</v>
+      </c>
+      <c r="L23" s="320">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="M23" s="152">
-        <v>110</v>
-      </c>
-      <c r="N23" s="152">
-        <v>104</v>
-      </c>
-      <c r="O23" s="150">
+        <v>15.125811403042491</v>
+      </c>
+      <c r="M23" s="319">
+        <v>89.431377954727793</v>
+      </c>
+      <c r="N23" s="319">
+        <v>85.178173338566125</v>
+      </c>
+      <c r="O23" s="159">
         <f t="shared" si="1"/>
-        <v>-6</v>
-      </c>
-      <c r="P23" s="166">
+        <v>-4.2532046161616677</v>
+      </c>
+      <c r="P23" s="159">
         <f t="shared" si="2"/>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="Q23" s="166">
+        <v>8.4032285572458285</v>
+      </c>
+      <c r="Q23" s="159">
         <f t="shared" si="3"/>
-        <v>-3.333333333333333</v>
+        <v>-2.3628914534231487</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -11596,33 +11595,33 @@
       <c r="I24" s="146" t="s">
         <v>281</v>
       </c>
-      <c r="J24" s="151">
-        <v>72</v>
-      </c>
-      <c r="K24" s="152">
-        <v>80</v>
-      </c>
-      <c r="L24" s="153">
+      <c r="J24" s="148">
+        <v>55</v>
+      </c>
+      <c r="K24" s="319">
+        <v>62.358104302978049</v>
+      </c>
+      <c r="L24" s="320">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="M24" s="152">
-        <v>96</v>
-      </c>
-      <c r="N24" s="152">
-        <v>91</v>
-      </c>
-      <c r="O24" s="150">
+        <v>7.3581043029780488</v>
+      </c>
+      <c r="M24" s="319">
+        <v>82.535623259086293</v>
+      </c>
+      <c r="N24" s="319">
+        <v>72.557303531041001</v>
+      </c>
+      <c r="O24" s="159">
         <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="P24" s="166">
+        <v>-9.9783197280452924</v>
+      </c>
+      <c r="P24" s="159">
         <f t="shared" si="2"/>
-        <v>4.4444444444444446</v>
-      </c>
-      <c r="Q24" s="166">
+        <v>4.0878357238766938</v>
+      </c>
+      <c r="Q24" s="159">
         <f t="shared" si="3"/>
-        <v>-2.7777777777777777</v>
+        <v>-5.543510960025162</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -11638,89 +11637,89 @@
         <v>281</v>
       </c>
       <c r="F25" s="146"/>
-      <c r="G25" s="154" t="s">
+      <c r="G25" s="149" t="s">
         <v>281</v>
       </c>
       <c r="H25" s="146" t="s">
         <v>281</v>
       </c>
       <c r="I25" s="146"/>
-      <c r="J25" s="151">
-        <v>72</v>
-      </c>
-      <c r="K25" s="152">
-        <v>81</v>
-      </c>
-      <c r="L25" s="153">
+      <c r="J25" s="148">
+        <v>55</v>
+      </c>
+      <c r="K25" s="319">
+        <v>69.080286331339707</v>
+      </c>
+      <c r="L25" s="320">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="M25" s="152">
-        <v>111</v>
-      </c>
-      <c r="N25" s="152">
-        <v>107</v>
-      </c>
-      <c r="O25" s="150">
+        <v>14.080286331339707</v>
+      </c>
+      <c r="M25" s="319">
+        <v>89.940644949952528</v>
+      </c>
+      <c r="N25" s="319">
+        <v>84.251046525169784</v>
+      </c>
+      <c r="O25" s="159">
         <f t="shared" si="1"/>
-        <v>-4</v>
-      </c>
-      <c r="P25" s="166">
+        <v>-5.6895984247827442</v>
+      </c>
+      <c r="P25" s="159">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="Q25" s="166">
+        <v>7.8223812951887259</v>
+      </c>
+      <c r="Q25" s="159">
         <f t="shared" si="3"/>
-        <v>-2.2222222222222223</v>
+        <v>-3.160888013768191</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="155">
+      <c r="A26" s="150">
         <v>24</v>
       </c>
-      <c r="B26" s="156">
+      <c r="B26" s="151">
         <v>60</v>
       </c>
-      <c r="C26" s="157"/>
-      <c r="D26" s="157"/>
-      <c r="E26" s="157" t="s">
-        <v>281</v>
-      </c>
-      <c r="F26" s="157"/>
-      <c r="G26" s="158" t="s">
-        <v>281</v>
-      </c>
-      <c r="H26" s="157"/>
-      <c r="I26" s="157" t="s">
-        <v>281</v>
-      </c>
-      <c r="J26" s="159">
-        <v>72</v>
-      </c>
-      <c r="K26" s="160">
-        <v>79</v>
-      </c>
-      <c r="L26" s="161">
+      <c r="C26" s="152"/>
+      <c r="D26" s="152"/>
+      <c r="E26" s="152" t="s">
+        <v>281</v>
+      </c>
+      <c r="F26" s="152"/>
+      <c r="G26" s="153" t="s">
+        <v>281</v>
+      </c>
+      <c r="H26" s="152"/>
+      <c r="I26" s="152" t="s">
+        <v>281</v>
+      </c>
+      <c r="J26" s="154">
+        <v>55</v>
+      </c>
+      <c r="K26" s="321">
+        <v>61.355711669810283</v>
+      </c>
+      <c r="L26" s="322">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="M26" s="160">
-        <v>97</v>
-      </c>
-      <c r="N26" s="160">
-        <v>93</v>
-      </c>
-      <c r="O26" s="150">
+        <v>6.3557116698102831</v>
+      </c>
+      <c r="M26" s="321">
+        <v>81.251611781870125</v>
+      </c>
+      <c r="N26" s="321">
+        <v>70.92540306934292</v>
+      </c>
+      <c r="O26" s="160">
         <f t="shared" si="1"/>
-        <v>-4</v>
-      </c>
-      <c r="P26" s="167">
+        <v>-10.326208712527205</v>
+      </c>
+      <c r="P26" s="160">
         <f t="shared" si="2"/>
-        <v>3.8888888888888888</v>
-      </c>
-      <c r="Q26" s="167">
+        <v>3.5309509276723796</v>
+      </c>
+      <c r="Q26" s="160">
         <f t="shared" si="3"/>
-        <v>-2.2222222222222223</v>
+        <v>-5.7367826180706691</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -11743,33 +11742,33 @@
         <v>281</v>
       </c>
       <c r="I27" s="146"/>
-      <c r="J27" s="151">
-        <v>72</v>
-      </c>
-      <c r="K27" s="152">
-        <v>87</v>
-      </c>
-      <c r="L27" s="153">
+      <c r="J27" s="148">
+        <v>55</v>
+      </c>
+      <c r="K27" s="319">
+        <v>76.317247166423599</v>
+      </c>
+      <c r="L27" s="320">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="M27" s="152">
-        <v>118</v>
-      </c>
-      <c r="N27" s="152">
-        <v>105</v>
-      </c>
-      <c r="O27" s="150">
+        <v>21.317247166423599</v>
+      </c>
+      <c r="M27" s="319">
+        <v>94.154880961066894</v>
+      </c>
+      <c r="N27" s="319">
+        <v>86.721197693057405</v>
+      </c>
+      <c r="O27" s="159">
         <f t="shared" si="1"/>
-        <v>-13</v>
-      </c>
-      <c r="P27" s="166">
+        <v>-7.4336832680094886</v>
+      </c>
+      <c r="P27" s="159">
         <f t="shared" si="2"/>
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="Q27" s="166">
+        <v>11.842915092457554</v>
+      </c>
+      <c r="Q27" s="159">
         <f t="shared" si="3"/>
-        <v>-7.2222222222222223</v>
+        <v>-4.1298240377830489</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -11792,33 +11791,33 @@
       <c r="I28" s="146" t="s">
         <v>281</v>
       </c>
-      <c r="J28" s="151">
-        <v>72</v>
-      </c>
-      <c r="K28" s="152">
-        <v>85</v>
-      </c>
-      <c r="L28" s="153">
+      <c r="J28" s="148">
+        <v>55</v>
+      </c>
+      <c r="K28" s="319">
+        <v>71.428011450501245</v>
+      </c>
+      <c r="L28" s="320">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="M28" s="152">
-        <v>102</v>
-      </c>
-      <c r="N28" s="152">
-        <v>91</v>
-      </c>
-      <c r="O28" s="150">
+        <v>16.428011450501245</v>
+      </c>
+      <c r="M28" s="319">
+        <v>91.066348837673345</v>
+      </c>
+      <c r="N28" s="319">
+        <v>72.802125562004292</v>
+      </c>
+      <c r="O28" s="159">
         <f t="shared" si="1"/>
-        <v>-11</v>
-      </c>
-      <c r="P28" s="166">
+        <v>-18.264223275669053</v>
+      </c>
+      <c r="P28" s="159">
         <f t="shared" si="2"/>
-        <v>7.2222222222222223</v>
-      </c>
-      <c r="Q28" s="166">
+        <v>9.1266730280562474</v>
+      </c>
+      <c r="Q28" s="159">
         <f t="shared" si="3"/>
-        <v>-6.1111111111111107</v>
+        <v>-10.14679070870503</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -11834,89 +11833,89 @@
       <c r="D29" s="146"/>
       <c r="E29" s="146"/>
       <c r="F29" s="146"/>
-      <c r="G29" s="154" t="s">
+      <c r="G29" s="149" t="s">
         <v>281</v>
       </c>
       <c r="H29" s="146" t="s">
         <v>281</v>
       </c>
       <c r="I29" s="146"/>
-      <c r="J29" s="151">
-        <v>72</v>
-      </c>
-      <c r="K29" s="152">
-        <v>86</v>
-      </c>
-      <c r="L29" s="153">
+      <c r="J29" s="148">
+        <v>55</v>
+      </c>
+      <c r="K29" s="319">
+        <v>74.957047468968582</v>
+      </c>
+      <c r="L29" s="320">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="M29" s="152">
-        <v>119</v>
-      </c>
-      <c r="N29" s="152">
-        <v>108</v>
-      </c>
-      <c r="O29" s="150">
+        <v>19.957047468968582</v>
+      </c>
+      <c r="M29" s="319">
+        <v>93.09493247981996</v>
+      </c>
+      <c r="N29" s="319">
+        <v>85.287824936413273</v>
+      </c>
+      <c r="O29" s="159">
         <f t="shared" si="1"/>
-        <v>-11</v>
-      </c>
-      <c r="P29" s="166">
+        <v>-7.807107543406687</v>
+      </c>
+      <c r="P29" s="159">
         <f t="shared" si="2"/>
-        <v>7.7777777777777777</v>
-      </c>
-      <c r="Q29" s="166">
+        <v>11.087248593871434</v>
+      </c>
+      <c r="Q29" s="159">
         <f t="shared" si="3"/>
-        <v>-6.1111111111111107</v>
+        <v>-4.3372819685592701</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="155">
+      <c r="A30" s="150">
         <v>28</v>
       </c>
-      <c r="B30" s="156">
+      <c r="B30" s="151">
         <v>600</v>
       </c>
-      <c r="C30" s="157" t="s">
-        <v>281</v>
-      </c>
-      <c r="D30" s="157"/>
-      <c r="E30" s="157"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="158" t="s">
-        <v>281</v>
-      </c>
-      <c r="H30" s="157"/>
-      <c r="I30" s="157" t="s">
-        <v>281</v>
-      </c>
-      <c r="J30" s="159">
-        <v>72</v>
-      </c>
-      <c r="K30" s="160">
-        <v>83</v>
-      </c>
-      <c r="L30" s="161">
+      <c r="C30" s="152" t="s">
+        <v>281</v>
+      </c>
+      <c r="D30" s="152"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="152"/>
+      <c r="G30" s="153" t="s">
+        <v>281</v>
+      </c>
+      <c r="H30" s="152"/>
+      <c r="I30" s="152" t="s">
+        <v>281</v>
+      </c>
+      <c r="J30" s="154">
+        <v>55</v>
+      </c>
+      <c r="K30" s="321">
+        <v>69.852831058769695</v>
+      </c>
+      <c r="L30" s="322">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="M30" s="160">
-        <v>104</v>
-      </c>
-      <c r="N30" s="160">
-        <v>93</v>
-      </c>
-      <c r="O30" s="150">
+        <v>14.852831058769695</v>
+      </c>
+      <c r="M30" s="321">
+        <v>90.159430732229367</v>
+      </c>
+      <c r="N30" s="321">
+        <v>71.468588599249799</v>
+      </c>
+      <c r="O30" s="160">
         <f t="shared" si="1"/>
-        <v>-11</v>
-      </c>
-      <c r="P30" s="167">
+        <v>-18.690842132979569</v>
+      </c>
+      <c r="P30" s="160">
         <f t="shared" si="2"/>
-        <v>6.1111111111111107</v>
-      </c>
-      <c r="Q30" s="167">
+        <v>8.2515728104276089</v>
+      </c>
+      <c r="Q30" s="160">
         <f t="shared" si="3"/>
-        <v>-6.1111111111111107</v>
+        <v>-10.383801184988648</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -11939,33 +11938,33 @@
         <v>281</v>
       </c>
       <c r="I31" s="146"/>
-      <c r="J31" s="151">
-        <v>72</v>
-      </c>
-      <c r="K31" s="152">
-        <v>79</v>
-      </c>
-      <c r="L31" s="153">
+      <c r="J31" s="148">
+        <v>55</v>
+      </c>
+      <c r="K31" s="319">
+        <v>67.121711744721154</v>
+      </c>
+      <c r="L31" s="320">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="M31" s="152">
-        <v>108</v>
-      </c>
-      <c r="N31" s="152">
-        <v>101</v>
-      </c>
-      <c r="O31" s="150">
+        <v>12.121711744721154</v>
+      </c>
+      <c r="M31" s="319">
+        <v>87.780841718791109</v>
+      </c>
+      <c r="N31" s="319">
+        <v>82.098002742275327</v>
+      </c>
+      <c r="O31" s="159">
         <f t="shared" si="1"/>
-        <v>-7</v>
-      </c>
-      <c r="P31" s="166">
+        <v>-5.6828389765157823</v>
+      </c>
+      <c r="P31" s="159">
         <f t="shared" si="2"/>
-        <v>3.8888888888888888</v>
-      </c>
-      <c r="Q31" s="166">
+        <v>6.7342843026228625</v>
+      </c>
+      <c r="Q31" s="159">
         <f t="shared" si="3"/>
-        <v>-3.8888888888888888</v>
+        <v>-3.1571327647309899</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -11988,33 +11987,33 @@
       <c r="I32" s="146" t="s">
         <v>281</v>
       </c>
-      <c r="J32" s="151">
-        <v>72</v>
-      </c>
-      <c r="K32" s="152">
-        <v>78</v>
-      </c>
-      <c r="L32" s="153">
+      <c r="J32" s="148">
+        <v>55</v>
+      </c>
+      <c r="K32" s="319">
+        <v>58.810869045963614</v>
+      </c>
+      <c r="L32" s="320">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="M32" s="152">
-        <v>95</v>
-      </c>
-      <c r="N32" s="152">
-        <v>89</v>
-      </c>
-      <c r="O32" s="150">
+        <v>3.8108690459636136</v>
+      </c>
+      <c r="M32" s="319">
+        <v>80.899022746750148</v>
+      </c>
+      <c r="N32" s="319">
+        <v>69.349641543271289</v>
+      </c>
+      <c r="O32" s="159">
         <f t="shared" si="1"/>
-        <v>-6</v>
-      </c>
-      <c r="P32" s="166">
+        <v>-11.549381203478859</v>
+      </c>
+      <c r="P32" s="159">
         <f t="shared" si="2"/>
-        <v>3.333333333333333</v>
-      </c>
-      <c r="Q32" s="166">
+        <v>2.1171494699797853</v>
+      </c>
+      <c r="Q32" s="159">
         <f t="shared" si="3"/>
-        <v>-3.333333333333333</v>
+        <v>-6.4163228908215881</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -12030,89 +12029,89 @@
       </c>
       <c r="E33" s="146"/>
       <c r="F33" s="146"/>
-      <c r="G33" s="154" t="s">
+      <c r="G33" s="149" t="s">
         <v>281</v>
       </c>
       <c r="H33" s="146" t="s">
         <v>281</v>
       </c>
       <c r="I33" s="146"/>
-      <c r="J33" s="151">
-        <v>72</v>
-      </c>
-      <c r="K33" s="152">
-        <v>78</v>
-      </c>
-      <c r="L33" s="153">
+      <c r="J33" s="148">
+        <v>55</v>
+      </c>
+      <c r="K33" s="319">
+        <v>65.891739278912809</v>
+      </c>
+      <c r="L33" s="320">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="M33" s="152">
-        <v>110</v>
-      </c>
-      <c r="N33" s="152">
-        <v>105</v>
-      </c>
-      <c r="O33" s="150">
+        <v>10.891739278912809</v>
+      </c>
+      <c r="M33" s="319">
+        <v>87.039636285276885</v>
+      </c>
+      <c r="N33" s="319">
+        <v>80.16723844872547</v>
+      </c>
+      <c r="O33" s="159">
         <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="P33" s="166">
+        <v>-6.8723978365514142</v>
+      </c>
+      <c r="P33" s="159">
         <f t="shared" si="2"/>
-        <v>3.333333333333333</v>
-      </c>
-      <c r="Q33" s="166">
+        <v>6.0509662660626713</v>
+      </c>
+      <c r="Q33" s="159">
         <f t="shared" si="3"/>
-        <v>-2.7777777777777777</v>
+        <v>-3.817998798084119</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="155">
+      <c r="A34" s="150">
         <v>32</v>
       </c>
-      <c r="B34" s="156">
+      <c r="B34" s="151">
         <v>600</v>
       </c>
-      <c r="C34" s="157"/>
-      <c r="D34" s="157" t="s">
-        <v>281</v>
-      </c>
-      <c r="E34" s="157"/>
-      <c r="F34" s="157"/>
-      <c r="G34" s="158" t="s">
-        <v>281</v>
-      </c>
-      <c r="H34" s="157"/>
-      <c r="I34" s="157" t="s">
-        <v>281</v>
-      </c>
-      <c r="J34" s="159">
-        <v>72</v>
-      </c>
-      <c r="K34" s="160">
-        <v>76</v>
-      </c>
-      <c r="L34" s="161">
+      <c r="C34" s="152"/>
+      <c r="D34" s="152" t="s">
+        <v>281</v>
+      </c>
+      <c r="E34" s="152"/>
+      <c r="F34" s="152"/>
+      <c r="G34" s="153" t="s">
+        <v>281</v>
+      </c>
+      <c r="H34" s="152"/>
+      <c r="I34" s="152" t="s">
+        <v>281</v>
+      </c>
+      <c r="J34" s="154">
+        <v>55</v>
+      </c>
+      <c r="K34" s="321">
+        <v>58.219526138062406</v>
+      </c>
+      <c r="L34" s="322">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="M34" s="160">
-        <v>95</v>
-      </c>
-      <c r="N34" s="160">
-        <v>91</v>
-      </c>
-      <c r="O34" s="150">
+        <v>3.2195261380624061</v>
+      </c>
+      <c r="M34" s="321">
+        <v>81.131658181787458</v>
+      </c>
+      <c r="N34" s="321">
+        <v>68.774775609163044</v>
+      </c>
+      <c r="O34" s="160">
         <f t="shared" si="1"/>
-        <v>-4</v>
-      </c>
-      <c r="P34" s="167">
+        <v>-12.356882572624414</v>
+      </c>
+      <c r="P34" s="160">
         <f t="shared" si="2"/>
-        <v>2.2222222222222223</v>
-      </c>
-      <c r="Q34" s="167">
+        <v>1.7886256322568923</v>
+      </c>
+      <c r="Q34" s="160">
         <f t="shared" si="3"/>
-        <v>-2.2222222222222223</v>
+        <v>-6.8649347625691188</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -12135,33 +12134,33 @@
         <v>281</v>
       </c>
       <c r="I35" s="146"/>
-      <c r="J35" s="151">
-        <v>72</v>
-      </c>
-      <c r="K35" s="152">
-        <v>81</v>
-      </c>
-      <c r="L35" s="153">
+      <c r="J35" s="148">
+        <v>55</v>
+      </c>
+      <c r="K35" s="319">
+        <v>69.695273097661598</v>
+      </c>
+      <c r="L35" s="320">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="M35" s="152">
-        <v>109</v>
-      </c>
-      <c r="N35" s="152">
-        <v>104</v>
-      </c>
-      <c r="O35" s="150">
+        <v>14.695273097661598</v>
+      </c>
+      <c r="M35" s="319">
+        <v>88.980215720516114</v>
+      </c>
+      <c r="N35" s="319">
+        <v>84.550036682751468</v>
+      </c>
+      <c r="O35" s="159">
         <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="P35" s="166">
+        <v>-4.4301790377646455</v>
+      </c>
+      <c r="P35" s="159">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="Q35" s="166">
+        <v>8.1640406098119982</v>
+      </c>
+      <c r="Q35" s="159">
         <f t="shared" si="3"/>
-        <v>-2.7777777777777777</v>
+        <v>-2.461210576535914</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
@@ -12184,33 +12183,33 @@
       <c r="I36" s="146" t="s">
         <v>281</v>
       </c>
-      <c r="J36" s="151">
-        <v>72</v>
-      </c>
-      <c r="K36" s="152">
-        <v>80</v>
-      </c>
-      <c r="L36" s="153">
+      <c r="J36" s="148">
+        <v>55</v>
+      </c>
+      <c r="K36" s="319">
+        <v>61.910762543392067</v>
+      </c>
+      <c r="L36" s="320">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="M36" s="152">
-        <v>96</v>
-      </c>
-      <c r="N36" s="152">
-        <v>91</v>
-      </c>
-      <c r="O36" s="150">
+        <v>6.9107625433920674</v>
+      </c>
+      <c r="M36" s="319">
+        <v>82.413867779028223</v>
+      </c>
+      <c r="N36" s="319">
+        <v>72.274455583252944</v>
+      </c>
+      <c r="O36" s="159">
         <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="P36" s="166">
+        <v>-10.139412195775279</v>
+      </c>
+      <c r="P36" s="159">
         <f t="shared" si="2"/>
-        <v>4.4444444444444446</v>
-      </c>
-      <c r="Q36" s="166">
+        <v>3.8393125241067039</v>
+      </c>
+      <c r="Q36" s="159">
         <f t="shared" si="3"/>
-        <v>-2.7777777777777777</v>
+        <v>-5.6330067754307107</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
@@ -12226,89 +12225,89 @@
         <v>281</v>
       </c>
       <c r="F37" s="146"/>
-      <c r="G37" s="154" t="s">
+      <c r="G37" s="149" t="s">
         <v>281</v>
       </c>
       <c r="H37" s="146" t="s">
         <v>281</v>
       </c>
       <c r="I37" s="146"/>
-      <c r="J37" s="151">
-        <v>72</v>
-      </c>
-      <c r="K37" s="152">
-        <v>81</v>
-      </c>
-      <c r="L37" s="153">
+      <c r="J37" s="148">
+        <v>55</v>
+      </c>
+      <c r="K37" s="319">
+        <v>68.654917054206692</v>
+      </c>
+      <c r="L37" s="320">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="M37" s="152">
-        <v>111</v>
-      </c>
-      <c r="N37" s="152">
-        <v>107</v>
-      </c>
-      <c r="O37" s="150">
+        <v>13.654917054206692</v>
+      </c>
+      <c r="M37" s="319">
+        <v>89.453636685329528</v>
+      </c>
+      <c r="N37" s="319">
+        <v>83.526327156354455</v>
+      </c>
+      <c r="O37" s="159">
         <f t="shared" si="1"/>
-        <v>-4</v>
-      </c>
-      <c r="P37" s="166">
+        <v>-5.9273095289750728</v>
+      </c>
+      <c r="P37" s="159">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="Q37" s="166">
+        <v>7.5860650301148285</v>
+      </c>
+      <c r="Q37" s="159">
         <f t="shared" si="3"/>
-        <v>-2.2222222222222223</v>
+        <v>-3.2929497383194848</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="155">
+      <c r="A38" s="150">
         <v>36</v>
       </c>
-      <c r="B38" s="156">
+      <c r="B38" s="151">
         <v>600</v>
       </c>
-      <c r="C38" s="157"/>
-      <c r="D38" s="157"/>
-      <c r="E38" s="157" t="s">
-        <v>281</v>
-      </c>
-      <c r="F38" s="157"/>
-      <c r="G38" s="158" t="s">
-        <v>281</v>
-      </c>
-      <c r="H38" s="157"/>
-      <c r="I38" s="157" t="s">
-        <v>281</v>
-      </c>
-      <c r="J38" s="159">
-        <v>72</v>
-      </c>
-      <c r="K38" s="160">
-        <v>79</v>
-      </c>
-      <c r="L38" s="161">
+      <c r="C38" s="152"/>
+      <c r="D38" s="152"/>
+      <c r="E38" s="152" t="s">
+        <v>281</v>
+      </c>
+      <c r="F38" s="152"/>
+      <c r="G38" s="153" t="s">
+        <v>281</v>
+      </c>
+      <c r="H38" s="152"/>
+      <c r="I38" s="152" t="s">
+        <v>281</v>
+      </c>
+      <c r="J38" s="154">
+        <v>55</v>
+      </c>
+      <c r="K38" s="321">
+        <v>60.8609722344613</v>
+      </c>
+      <c r="L38" s="322">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="M38" s="160">
-        <v>96</v>
-      </c>
-      <c r="N38" s="160">
-        <v>92</v>
-      </c>
-      <c r="O38" s="150">
+        <v>5.8609722344613004</v>
+      </c>
+      <c r="M38" s="321">
+        <v>80.814244101711083</v>
+      </c>
+      <c r="N38" s="321">
+        <v>70.258773338115063</v>
+      </c>
+      <c r="O38" s="160">
         <f t="shared" si="1"/>
-        <v>-4</v>
-      </c>
-      <c r="P38" s="167">
+        <v>-10.55547076359602</v>
+      </c>
+      <c r="P38" s="160">
         <f t="shared" si="2"/>
-        <v>3.8888888888888888</v>
-      </c>
-      <c r="Q38" s="167">
+        <v>3.2560956858118333</v>
+      </c>
+      <c r="Q38" s="160">
         <f t="shared" si="3"/>
-        <v>-2.2222222222222223</v>
+        <v>-5.8641504242200106</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
@@ -12331,33 +12330,33 @@
         <v>281</v>
       </c>
       <c r="I39" s="146"/>
-      <c r="J39" s="151">
-        <v>72</v>
-      </c>
-      <c r="K39" s="152">
-        <v>86</v>
-      </c>
-      <c r="L39" s="153">
+      <c r="J39" s="148">
+        <v>55</v>
+      </c>
+      <c r="K39" s="319">
+        <v>75.830016086528587</v>
+      </c>
+      <c r="L39" s="320">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="M39" s="152">
-        <v>117</v>
-      </c>
-      <c r="N39" s="152">
-        <v>105</v>
-      </c>
-      <c r="O39" s="150">
+        <v>20.830016086528587</v>
+      </c>
+      <c r="M39" s="319">
+        <v>93.685550987547728</v>
+      </c>
+      <c r="N39" s="319">
+        <v>86.118246686253258</v>
+      </c>
+      <c r="O39" s="159">
         <f t="shared" si="1"/>
-        <v>-12</v>
-      </c>
-      <c r="P39" s="166">
+        <v>-7.5673043012944703</v>
+      </c>
+      <c r="P39" s="159">
         <f t="shared" si="2"/>
-        <v>7.7777777777777777</v>
-      </c>
-      <c r="Q39" s="166">
+        <v>11.572231159182548</v>
+      </c>
+      <c r="Q39" s="159">
         <f t="shared" si="3"/>
-        <v>-6.6666666666666661</v>
+        <v>-4.2040579451635942</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
@@ -12380,33 +12379,33 @@
       <c r="I40" s="146" t="s">
         <v>281</v>
       </c>
-      <c r="J40" s="151">
-        <v>72</v>
-      </c>
-      <c r="K40" s="152">
-        <v>84</v>
-      </c>
-      <c r="L40" s="153">
+      <c r="J40" s="148">
+        <v>55</v>
+      </c>
+      <c r="K40" s="319">
+        <v>70.94158253731058</v>
+      </c>
+      <c r="L40" s="320">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="M40" s="152">
-        <v>102</v>
-      </c>
-      <c r="N40" s="152">
-        <v>90</v>
-      </c>
-      <c r="O40" s="150">
+        <v>15.94158253731058</v>
+      </c>
+      <c r="M40" s="319">
+        <v>90.648278293818194</v>
+      </c>
+      <c r="N40" s="319">
+        <v>72.141176409348375</v>
+      </c>
+      <c r="O40" s="159">
         <f t="shared" si="1"/>
-        <v>-12</v>
-      </c>
-      <c r="P40" s="166">
+        <v>-18.507101884469819</v>
+      </c>
+      <c r="P40" s="159">
         <f t="shared" si="2"/>
-        <v>6.6666666666666661</v>
-      </c>
-      <c r="Q40" s="166">
+        <v>8.8564347429503218</v>
+      </c>
+      <c r="Q40" s="159">
         <f t="shared" si="3"/>
-        <v>-6.6666666666666661</v>
+        <v>-10.281723269149898</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
@@ -12422,89 +12421,89 @@
       <c r="D41" s="146"/>
       <c r="E41" s="146"/>
       <c r="F41" s="146"/>
-      <c r="G41" s="154" t="s">
+      <c r="G41" s="149" t="s">
         <v>281</v>
       </c>
       <c r="H41" s="146" t="s">
         <v>281</v>
       </c>
       <c r="I41" s="146"/>
-      <c r="J41" s="151">
-        <v>72</v>
-      </c>
-      <c r="K41" s="152">
-        <v>85</v>
-      </c>
-      <c r="L41" s="153">
+      <c r="J41" s="148">
+        <v>55</v>
+      </c>
+      <c r="K41" s="319">
+        <v>74.504675902588417</v>
+      </c>
+      <c r="L41" s="320">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="M41" s="152">
-        <v>118</v>
-      </c>
-      <c r="N41" s="152">
-        <v>107</v>
-      </c>
-      <c r="O41" s="150">
+        <v>19.504675902588417</v>
+      </c>
+      <c r="M41" s="319">
+        <v>92.667452836933791</v>
+      </c>
+      <c r="N41" s="319">
+        <v>84.49166106674754</v>
+      </c>
+      <c r="O41" s="159">
         <f t="shared" si="1"/>
-        <v>-11</v>
-      </c>
-      <c r="P41" s="166">
+        <v>-8.175791770186251</v>
+      </c>
+      <c r="P41" s="159">
         <f t="shared" si="2"/>
-        <v>7.2222222222222223</v>
-      </c>
-      <c r="Q41" s="166">
+        <v>10.835931056993564</v>
+      </c>
+      <c r="Q41" s="159">
         <f t="shared" si="3"/>
-        <v>-6.1111111111111107</v>
+        <v>-4.5421065389923614</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="155">
+      <c r="A42" s="150">
         <v>40</v>
       </c>
-      <c r="B42" s="156">
+      <c r="B42" s="151">
         <v>3000</v>
       </c>
-      <c r="C42" s="157" t="s">
-        <v>281</v>
-      </c>
-      <c r="D42" s="157"/>
-      <c r="E42" s="157"/>
-      <c r="F42" s="157"/>
-      <c r="G42" s="158" t="s">
-        <v>281</v>
-      </c>
-      <c r="H42" s="157"/>
-      <c r="I42" s="157" t="s">
-        <v>281</v>
-      </c>
-      <c r="J42" s="159">
-        <v>72</v>
-      </c>
-      <c r="K42" s="160">
-        <v>82</v>
-      </c>
-      <c r="L42" s="161">
+      <c r="C42" s="152" t="s">
+        <v>281</v>
+      </c>
+      <c r="D42" s="152"/>
+      <c r="E42" s="152"/>
+      <c r="F42" s="152"/>
+      <c r="G42" s="153" t="s">
+        <v>281</v>
+      </c>
+      <c r="H42" s="152"/>
+      <c r="I42" s="152" t="s">
+        <v>281</v>
+      </c>
+      <c r="J42" s="154">
+        <v>55</v>
+      </c>
+      <c r="K42" s="321">
+        <v>69.438426941385984</v>
+      </c>
+      <c r="L42" s="322">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="M42" s="160">
-        <v>103</v>
-      </c>
-      <c r="N42" s="160">
-        <v>93</v>
-      </c>
-      <c r="O42" s="150">
+        <v>14.438426941385984</v>
+      </c>
+      <c r="M42" s="321">
+        <v>89.710837637806605</v>
+      </c>
+      <c r="N42" s="321">
+        <v>70.706215154931655</v>
+      </c>
+      <c r="O42" s="160">
         <f t="shared" si="1"/>
-        <v>-10</v>
-      </c>
-      <c r="P42" s="167">
+        <v>-19.00462248287495</v>
+      </c>
+      <c r="P42" s="160">
         <f t="shared" si="2"/>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="Q42" s="167">
+        <v>8.0213483007699917</v>
+      </c>
+      <c r="Q42" s="160">
         <f t="shared" si="3"/>
-        <v>-5.5555555555555554</v>
+        <v>-10.558123601597194</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
@@ -12527,33 +12526,33 @@
         <v>281</v>
       </c>
       <c r="I43" s="146"/>
-      <c r="J43" s="151">
-        <v>72</v>
-      </c>
-      <c r="K43" s="152">
-        <v>78</v>
-      </c>
-      <c r="L43" s="153">
+      <c r="J43" s="148">
+        <v>55</v>
+      </c>
+      <c r="K43" s="319">
+        <v>66.674810301423577</v>
+      </c>
+      <c r="L43" s="320">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="M43" s="152">
-        <v>107</v>
-      </c>
-      <c r="N43" s="152">
-        <v>102</v>
-      </c>
-      <c r="O43" s="150">
+        <v>11.674810301423577</v>
+      </c>
+      <c r="M43" s="319">
+        <v>87.346927311939481</v>
+      </c>
+      <c r="N43" s="319">
+        <v>81.422963177673495</v>
+      </c>
+      <c r="O43" s="159">
         <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="P43" s="166">
+        <v>-5.9239641342659866</v>
+      </c>
+      <c r="P43" s="159">
         <f t="shared" si="2"/>
-        <v>3.333333333333333</v>
-      </c>
-      <c r="Q43" s="166">
+        <v>6.4860057230130979</v>
+      </c>
+      <c r="Q43" s="159">
         <f t="shared" si="3"/>
-        <v>-2.7777777777777777</v>
+        <v>-3.2910911857033258</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
@@ -12576,33 +12575,33 @@
       <c r="I44" s="146" t="s">
         <v>281</v>
       </c>
-      <c r="J44" s="151">
-        <v>72</v>
-      </c>
-      <c r="K44" s="152">
-        <v>77</v>
-      </c>
-      <c r="L44" s="153">
+      <c r="J44" s="148">
+        <v>55</v>
+      </c>
+      <c r="K44" s="319">
+        <v>58.327469743906484</v>
+      </c>
+      <c r="L44" s="320">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="M44" s="152">
-        <v>94</v>
-      </c>
-      <c r="N44" s="152">
-        <v>89</v>
-      </c>
-      <c r="O44" s="150">
+        <v>3.3274697439064838</v>
+      </c>
+      <c r="M44" s="319">
+        <v>80.429665987464816</v>
+      </c>
+      <c r="N44" s="319">
+        <v>68.622617298504295</v>
+      </c>
+      <c r="O44" s="159">
         <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="P44" s="166">
+        <v>-11.807048688960521</v>
+      </c>
+      <c r="P44" s="159">
         <f t="shared" si="2"/>
-        <v>2.7777777777777777</v>
-      </c>
-      <c r="Q44" s="166">
+        <v>1.8485943021702687</v>
+      </c>
+      <c r="Q44" s="159">
         <f t="shared" si="3"/>
-        <v>-2.7777777777777777</v>
+        <v>-6.5594714938669556</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
@@ -12618,89 +12617,89 @@
       </c>
       <c r="E45" s="146"/>
       <c r="F45" s="146"/>
-      <c r="G45" s="154" t="s">
+      <c r="G45" s="149" t="s">
         <v>281</v>
       </c>
       <c r="H45" s="146" t="s">
         <v>281</v>
       </c>
       <c r="I45" s="146"/>
-      <c r="J45" s="151">
-        <v>72</v>
-      </c>
-      <c r="K45" s="152">
-        <v>77</v>
-      </c>
-      <c r="L45" s="153">
+      <c r="J45" s="148">
+        <v>55</v>
+      </c>
+      <c r="K45" s="319">
+        <v>65.417919693473735</v>
+      </c>
+      <c r="L45" s="320">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="M45" s="152">
-        <v>110</v>
-      </c>
-      <c r="N45" s="152">
-        <v>106</v>
-      </c>
-      <c r="O45" s="150">
+        <v>10.417919693473735</v>
+      </c>
+      <c r="M45" s="319">
+        <v>86.630922774852166</v>
+      </c>
+      <c r="N45" s="319">
+        <v>79.53095395849661</v>
+      </c>
+      <c r="O45" s="159">
         <f t="shared" si="1"/>
-        <v>-4</v>
-      </c>
-      <c r="P45" s="166">
+        <v>-7.0999688163555561</v>
+      </c>
+      <c r="P45" s="159">
         <f t="shared" si="2"/>
-        <v>2.7777777777777777</v>
-      </c>
-      <c r="Q45" s="166">
+        <v>5.7877331630409641</v>
+      </c>
+      <c r="Q45" s="159">
         <f t="shared" si="3"/>
-        <v>-2.2222222222222223</v>
+        <v>-3.9444271201975312</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="155">
+      <c r="A46" s="150">
         <v>44</v>
       </c>
-      <c r="B46" s="156">
+      <c r="B46" s="151">
         <v>3000</v>
       </c>
-      <c r="C46" s="157"/>
-      <c r="D46" s="157" t="s">
-        <v>281</v>
-      </c>
-      <c r="E46" s="157"/>
-      <c r="F46" s="157"/>
-      <c r="G46" s="158" t="s">
-        <v>281</v>
-      </c>
-      <c r="H46" s="157"/>
-      <c r="I46" s="157" t="s">
-        <v>281</v>
-      </c>
-      <c r="J46" s="159">
-        <v>72</v>
-      </c>
-      <c r="K46" s="160">
-        <v>75</v>
-      </c>
-      <c r="L46" s="161">
+      <c r="C46" s="152"/>
+      <c r="D46" s="152" t="s">
+        <v>281</v>
+      </c>
+      <c r="E46" s="152"/>
+      <c r="F46" s="152"/>
+      <c r="G46" s="153" t="s">
+        <v>281</v>
+      </c>
+      <c r="H46" s="152"/>
+      <c r="I46" s="152" t="s">
+        <v>281</v>
+      </c>
+      <c r="J46" s="154">
+        <v>55</v>
+      </c>
+      <c r="K46" s="321">
+        <v>57.720440255162302</v>
+      </c>
+      <c r="L46" s="322">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M46" s="160">
-        <v>94</v>
-      </c>
-      <c r="N46" s="160">
-        <v>91</v>
-      </c>
-      <c r="O46" s="150">
+        <v>2.7204402551623019</v>
+      </c>
+      <c r="M46" s="321">
+        <v>80.638631054569373</v>
+      </c>
+      <c r="N46" s="321">
+        <v>68.118364713739183</v>
+      </c>
+      <c r="O46" s="160">
         <f t="shared" si="1"/>
-        <v>-3</v>
-      </c>
-      <c r="P46" s="167">
+        <v>-12.52026634083019</v>
+      </c>
+      <c r="P46" s="160">
         <f t="shared" si="2"/>
-        <v>1.6666666666666665</v>
-      </c>
-      <c r="Q46" s="167">
+        <v>1.5113556973123898</v>
+      </c>
+      <c r="Q46" s="160">
         <f t="shared" si="3"/>
-        <v>-1.6666666666666665</v>
+        <v>-6.9557035226834385</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
@@ -12723,33 +12722,33 @@
         <v>281</v>
       </c>
       <c r="I47" s="146"/>
-      <c r="J47" s="151">
-        <v>72</v>
-      </c>
-      <c r="K47" s="152">
-        <v>80</v>
-      </c>
-      <c r="L47" s="153">
+      <c r="J47" s="148">
+        <v>55</v>
+      </c>
+      <c r="K47" s="319">
+        <v>69.203170740085255</v>
+      </c>
+      <c r="L47" s="320">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="M47" s="152">
-        <v>107</v>
-      </c>
-      <c r="N47" s="152">
-        <v>103</v>
-      </c>
-      <c r="O47" s="150">
+        <v>14.203170740085255</v>
+      </c>
+      <c r="M47" s="319">
+        <v>88.546963679163255</v>
+      </c>
+      <c r="N47" s="319">
+        <v>83.828791001988066</v>
+      </c>
+      <c r="O47" s="159">
         <f t="shared" si="1"/>
-        <v>-4</v>
-      </c>
-      <c r="P47" s="166">
+        <v>-4.7181726771751897</v>
+      </c>
+      <c r="P47" s="159">
         <f t="shared" si="2"/>
-        <v>4.4444444444444446</v>
-      </c>
-      <c r="Q47" s="166">
+        <v>7.8906504111584752</v>
+      </c>
+      <c r="Q47" s="159">
         <f t="shared" si="3"/>
-        <v>-2.2222222222222223</v>
+        <v>-2.6212070428751053</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
@@ -12772,33 +12771,33 @@
       <c r="I48" s="146" t="s">
         <v>281</v>
       </c>
-      <c r="J48" s="151">
-        <v>72</v>
-      </c>
-      <c r="K48" s="152">
-        <v>79</v>
-      </c>
-      <c r="L48" s="153">
+      <c r="J48" s="148">
+        <v>55</v>
+      </c>
+      <c r="K48" s="319">
+        <v>61.451916326000372</v>
+      </c>
+      <c r="L48" s="320">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="M48" s="152">
-        <v>94</v>
-      </c>
-      <c r="N48" s="152">
-        <v>90</v>
-      </c>
-      <c r="O48" s="150">
+        <v>6.4519163260003722</v>
+      </c>
+      <c r="M48" s="319">
+        <v>81.952745529356193</v>
+      </c>
+      <c r="N48" s="319">
+        <v>71.531162891224184</v>
+      </c>
+      <c r="O48" s="159">
         <f t="shared" si="1"/>
-        <v>-4</v>
-      </c>
-      <c r="P48" s="166">
+        <v>-10.421582638132008</v>
+      </c>
+      <c r="P48" s="159">
         <f t="shared" si="2"/>
-        <v>3.8888888888888888</v>
-      </c>
-      <c r="Q48" s="166">
+        <v>3.5843979588890957</v>
+      </c>
+      <c r="Q48" s="159">
         <f t="shared" si="3"/>
-        <v>-2.2222222222222223</v>
+        <v>-5.7897681322955599</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
@@ -12814,89 +12813,89 @@
         <v>281</v>
       </c>
       <c r="F49" s="146"/>
-      <c r="G49" s="154" t="s">
+      <c r="G49" s="149" t="s">
         <v>281</v>
       </c>
       <c r="H49" s="146" t="s">
         <v>281</v>
       </c>
       <c r="I49" s="146"/>
-      <c r="J49" s="151">
-        <v>72</v>
-      </c>
-      <c r="K49" s="152">
-        <v>79</v>
-      </c>
-      <c r="L49" s="153">
+      <c r="J49" s="148">
+        <v>55</v>
+      </c>
+      <c r="K49" s="319">
+        <v>68.194547936317861</v>
+      </c>
+      <c r="L49" s="320">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="M49" s="152">
-        <v>110</v>
-      </c>
-      <c r="N49" s="152">
-        <v>106</v>
-      </c>
-      <c r="O49" s="150">
+        <v>13.194547936317861</v>
+      </c>
+      <c r="M49" s="319">
+        <v>89.040035924232697</v>
+      </c>
+      <c r="N49" s="319">
+        <v>82.822330406124578</v>
+      </c>
+      <c r="O49" s="159">
         <f t="shared" si="1"/>
-        <v>-4</v>
-      </c>
-      <c r="P49" s="166">
+        <v>-6.2177055181081187</v>
+      </c>
+      <c r="P49" s="159">
         <f t="shared" si="2"/>
-        <v>3.8888888888888888</v>
-      </c>
-      <c r="Q49" s="166">
+        <v>7.3303044090654783</v>
+      </c>
+      <c r="Q49" s="159">
         <f t="shared" si="3"/>
-        <v>-2.2222222222222223</v>
+        <v>-3.4542808433933994</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="155">
+      <c r="A50" s="150">
         <v>48</v>
       </c>
-      <c r="B50" s="156">
+      <c r="B50" s="151">
         <v>3000</v>
       </c>
-      <c r="C50" s="157"/>
-      <c r="D50" s="157"/>
-      <c r="E50" s="157" t="s">
-        <v>281</v>
-      </c>
-      <c r="F50" s="157"/>
-      <c r="G50" s="158" t="s">
-        <v>281</v>
-      </c>
-      <c r="H50" s="157"/>
-      <c r="I50" s="157" t="s">
-        <v>281</v>
-      </c>
-      <c r="J50" s="159">
-        <v>72</v>
-      </c>
-      <c r="K50" s="160">
-        <v>78</v>
-      </c>
-      <c r="L50" s="161">
+      <c r="C50" s="152"/>
+      <c r="D50" s="152"/>
+      <c r="E50" s="152" t="s">
+        <v>281</v>
+      </c>
+      <c r="F50" s="152"/>
+      <c r="G50" s="153" t="s">
+        <v>281</v>
+      </c>
+      <c r="H50" s="152"/>
+      <c r="I50" s="152" t="s">
+        <v>281</v>
+      </c>
+      <c r="J50" s="154">
+        <v>55</v>
+      </c>
+      <c r="K50" s="321">
+        <v>60.374720920391894</v>
+      </c>
+      <c r="L50" s="322">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="M50" s="160">
-        <v>95</v>
-      </c>
-      <c r="N50" s="160">
-        <v>92</v>
-      </c>
-      <c r="O50" s="150">
+        <v>5.3747209203918942</v>
+      </c>
+      <c r="M50" s="321">
+        <v>80.340586032065659</v>
+      </c>
+      <c r="N50" s="321">
+        <v>69.516142999007883</v>
+      </c>
+      <c r="O50" s="160">
         <f t="shared" si="1"/>
-        <v>-3</v>
-      </c>
-      <c r="P50" s="167">
+        <v>-10.824443033057776</v>
+      </c>
+      <c r="P50" s="160">
         <f t="shared" si="2"/>
-        <v>3.333333333333333</v>
-      </c>
-      <c r="Q50" s="167">
+        <v>2.9859560668843854</v>
+      </c>
+      <c r="Q50" s="160">
         <f t="shared" si="3"/>
-        <v>-1.6666666666666665</v>
+        <v>-6.0135794628098749</v>
       </c>
     </row>
   </sheetData>
